--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -608,8 +608,8 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -711,6 +711,9 @@
       <c r="H2" s="3">
         <v>5</v>
       </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
@@ -769,7 +772,9 @@
       <c r="H3" s="3">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>4</v>
       </c>
@@ -828,7 +833,9 @@
       <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -887,7 +894,9 @@
       <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
@@ -946,7 +955,9 @@
       <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1005,7 +1016,9 @@
       <c r="H7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -1064,7 +1077,9 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1123,7 +1138,9 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -1182,7 +1199,9 @@
       <c r="H10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -1241,7 +1260,9 @@
       <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1300,7 +1321,9 @@
       <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -1359,7 +1382,9 @@
       <c r="H13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0</v>
       </c>
@@ -1418,7 +1443,9 @@
       <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>1</v>
       </c>
@@ -1477,7 +1504,9 @@
       <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15">
         <v>0</v>
       </c>
@@ -1536,7 +1565,9 @@
       <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -1595,7 +1626,9 @@
       <c r="H17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
       <c r="J17">
         <v>1</v>
       </c>
@@ -1654,7 +1687,9 @@
       <c r="H18" s="3">
         <v>9</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>3</v>
       </c>
@@ -1713,7 +1748,9 @@
       <c r="H19" s="3">
         <v>5</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1769,7 +1806,9 @@
       <c r="H20" s="3">
         <v>5</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -1883,6 +1922,9 @@
       <c r="H22" s="3">
         <v>10</v>
       </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2002,6 +2044,9 @@
       <c r="H24" s="3">
         <v>5</v>
       </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24">
         <v>1</v>
       </c>
@@ -2121,6 +2166,9 @@
       <c r="H26" s="3">
         <v>11</v>
       </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
       <c r="J26">
         <v>2</v>
       </c>
@@ -2176,6 +2224,9 @@
       <c r="H27" s="3">
         <v>5</v>
       </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2231,6 +2282,9 @@
       <c r="H28" s="3">
         <v>7</v>
       </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2289,6 +2343,9 @@
       <c r="H29" s="3">
         <v>5</v>
       </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
       <c r="J29">
         <v>0</v>
       </c>
@@ -2402,7 +2459,9 @@
       <c r="H31" s="3">
         <v>5</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>0</v>
       </c>
@@ -2458,6 +2517,9 @@
       <c r="H32" s="3">
         <v>5</v>
       </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -2516,6 +2578,9 @@
       <c r="H33" s="3">
         <v>5</v>
       </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
       <c r="J33">
         <v>1</v>
       </c>
@@ -2632,6 +2697,9 @@
       <c r="H35" s="3">
         <v>10</v>
       </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>2</v>
       </c>
@@ -2750,6 +2818,9 @@
       </c>
       <c r="H37" s="3">
         <v>6</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -262,12 +267,15 @@
   </si>
   <si>
     <t>https://www.fellrunner.org.uk/results/8b486ff2-7fd6-4f65-941d-8523560c334d</t>
+  </si>
+  <si>
+    <t>https://www.cvfr.co.uk/wp-content/uploads/2022/11/half_trog_results.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -597,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,32 +613,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" customWidth="1"/>
+    <col min="10" max="10" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -727,15 +735,15 @@
         <v>12</v>
       </c>
       <c r="N2" s="4">
-        <f>F2/G2</f>
+        <f t="shared" ref="N2:N38" si="0">F2/G2</f>
         <v>0.41860465116279072</v>
       </c>
       <c r="O2">
-        <f>D2*1.6093</f>
+        <f t="shared" ref="O2:O38" si="1">D2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
       <c r="P2">
-        <f>E2/3.28084</f>
+        <f t="shared" ref="P2:P38" si="2">E2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
       <c r="Q2">
@@ -743,11 +751,11 @@
         <v>105.22172864889508</v>
       </c>
       <c r="R2">
-        <f>H2/D2</f>
+        <f t="shared" ref="R2:R38" si="3">H2/D2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -788,27 +796,27 @@
         <v>43</v>
       </c>
       <c r="N3" s="4">
-        <f>F3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="O3">
-        <f>D3*1.6093</f>
+        <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
       <c r="P3">
-        <f>E3/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q37" si="0">P3/O3</f>
+        <f t="shared" ref="Q3:Q38" si="4">P3/O3</f>
         <v>44.379202352672927</v>
       </c>
       <c r="R3">
-        <f>H3/D3</f>
+        <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -849,27 +857,27 @@
         <v>16</v>
       </c>
       <c r="N4" s="4">
-        <f>F4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
       <c r="O4">
-        <f>D4*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P4">
-        <f>E4/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="R4">
-        <f>H4/D4</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43443</v>
       </c>
@@ -910,27 +918,27 @@
         <v>20</v>
       </c>
       <c r="N5" s="4">
-        <f>F5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="O5">
-        <f>D5*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="P5">
-        <f>E5/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="R5">
-        <f>H5/D5</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -971,27 +979,27 @@
         <v>22</v>
       </c>
       <c r="N6" s="4">
-        <f>F6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
       <c r="O6">
-        <f>D6*1.6093</f>
+        <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
       <c r="P6">
-        <f>E6/3.28084</f>
+        <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
       <c r="R6">
-        <f>H6/D6</f>
+        <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1032,27 +1040,27 @@
         <v>24</v>
       </c>
       <c r="N7" s="4">
-        <f>F7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
       <c r="O7">
-        <f>D7*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P7">
-        <f>E7/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="R7">
-        <f>H7/D7</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1093,27 +1101,27 @@
         <v>25</v>
       </c>
       <c r="N8" s="4">
-        <f>F8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="O8">
-        <f>D8*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="P8">
-        <f>E8/3.28084</f>
+        <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
       <c r="R8">
-        <f>H8/D8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1154,27 +1162,27 @@
         <v>29</v>
       </c>
       <c r="N9" s="4">
-        <f>F9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
       <c r="O9">
-        <f>D9*1.6093</f>
+        <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
       <c r="P9">
-        <f>E9/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
       <c r="R9">
-        <f>H9/D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1215,27 +1223,27 @@
         <v>30</v>
       </c>
       <c r="N10" s="4">
-        <f>F10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="O10">
-        <f>D10*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P10">
-        <f>E10/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="R10">
-        <f>H10/D10</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43764</v>
       </c>
@@ -1276,27 +1284,27 @@
         <v>32</v>
       </c>
       <c r="N11" s="4">
-        <f>F11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="O11">
-        <f>D11*1.6093</f>
+        <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
       <c r="P11">
-        <f>E11/3.28084</f>
+        <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
       <c r="R11">
-        <f>H11/D11</f>
+        <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1337,27 +1345,27 @@
         <v>34</v>
       </c>
       <c r="N12" s="4">
-        <f>F12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="O12">
-        <f>D12*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="P12">
-        <f>E12/3.28084</f>
+        <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
       <c r="R12">
-        <f>H12/D12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1398,27 +1406,27 @@
         <v>45</v>
       </c>
       <c r="N13" s="4">
-        <f>F13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
       <c r="O13">
-        <f>D13*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="P13">
-        <f>E13/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="R13">
-        <f>H13/D13</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1459,27 +1467,27 @@
         <v>47</v>
       </c>
       <c r="N14" s="4">
-        <f>F14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
       <c r="O14">
-        <f>D14*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
       <c r="P14">
-        <f>E14/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
       <c r="R14">
-        <f>H14/D14</f>
+        <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1520,27 +1528,27 @@
         <v>44</v>
       </c>
       <c r="N15" s="4">
-        <f>F15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
       <c r="O15">
-        <f>D15*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P15">
-        <f>E15/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="R15">
-        <f>H15/D15</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1581,27 +1589,27 @@
         <v>48</v>
       </c>
       <c r="N16" s="4">
-        <f>F16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
       <c r="O16">
-        <f>D16*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P16">
-        <f>E16/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="R16">
-        <f>H16/D16</f>
+        <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1642,27 +1650,27 @@
         <v>49</v>
       </c>
       <c r="N17" s="4">
-        <f>F17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
       <c r="O17">
-        <f>D17*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
       <c r="P17">
-        <f>E17/3.28084</f>
+        <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
       <c r="R17">
-        <f>H17/D17</f>
+        <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1703,27 +1711,27 @@
         <v>50</v>
       </c>
       <c r="N18" s="4">
-        <f>F18/G18</f>
+        <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
       <c r="O18">
-        <f>D18*1.6093</f>
+        <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
       <c r="P18">
-        <f>E18/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
       <c r="R18">
-        <f>H18/D18</f>
+        <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1761,27 +1769,27 @@
         <v>40</v>
       </c>
       <c r="N19" s="4">
-        <f>F19/G19</f>
+        <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
       <c r="O19">
-        <f>D19*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="P19">
-        <f>E19/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="R19">
-        <f>H19/D19</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -1819,27 +1827,27 @@
         <v>55</v>
       </c>
       <c r="N20" s="4">
-        <f>F20/G20</f>
+        <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
       <c r="O20">
-        <f>D20*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
       <c r="P20">
-        <f>E20/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
       <c r="R20">
-        <f>H20/D20</f>
+        <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -1877,27 +1885,27 @@
         <v>18</v>
       </c>
       <c r="N21" s="4">
-        <f>F21/G21</f>
+        <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="O21">
-        <f>D21*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
       <c r="P21">
-        <f>E21/3.28084</f>
+        <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
       <c r="R21">
-        <f>H21/D21</f>
+        <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -1938,27 +1946,27 @@
         <v>59</v>
       </c>
       <c r="N22" s="4">
-        <f>F22/G22</f>
+        <f t="shared" si="0"/>
         <v>0.15492957746478872</v>
       </c>
       <c r="O22">
-        <f>D22*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
       <c r="P22">
-        <f>E22/3.28084</f>
+        <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
       <c r="R22">
-        <f>H22/D22</f>
+        <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -1999,27 +2007,27 @@
         <v>62</v>
       </c>
       <c r="N23" s="4">
-        <f>F23/G23</f>
+        <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
       <c r="O23">
-        <f>D23*1.6093</f>
+        <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
       <c r="P23">
-        <f>E23/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
       <c r="R23">
-        <f>H23/D23</f>
+        <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2060,27 +2068,27 @@
         <v>67</v>
       </c>
       <c r="N24" s="4">
-        <f>F24/G24</f>
+        <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
       <c r="O24">
-        <f>D24*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
       <c r="P24">
-        <f>E24/3.28084</f>
+        <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
       <c r="R24">
-        <f>H24/D24</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2121,27 +2129,27 @@
         <v>68</v>
       </c>
       <c r="N25" s="4">
-        <f>F25/G25</f>
+        <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
       <c r="O25">
-        <f>D25*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="P25">
-        <f>E25/3.28084</f>
+        <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
       <c r="R25">
-        <f>H25/D25</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2179,27 +2187,27 @@
         <v>26</v>
       </c>
       <c r="N26" s="4">
-        <f>F26/G26</f>
+        <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
       <c r="O26">
-        <f>D26*1.6093</f>
+        <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
       <c r="P26">
-        <f>E26/3.28084</f>
+        <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
       <c r="R26">
-        <f>H26/D26</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2237,27 +2245,27 @@
         <v>19</v>
       </c>
       <c r="N27" s="4">
-        <f>F27/G27</f>
+        <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
       <c r="O27">
-        <f>D27*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="P27">
-        <f>E27/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="R27">
-        <f>H27/D27</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2298,27 +2306,27 @@
         <v>70</v>
       </c>
       <c r="N28" s="4">
-        <f>F28/G28</f>
+        <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
       <c r="O28">
-        <f>D28*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="P28">
-        <f>E28/3.28084</f>
+        <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
       <c r="R28">
-        <f>H28/D28</f>
+        <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2356,27 +2364,27 @@
         <v>37</v>
       </c>
       <c r="N29" s="4">
-        <f>F29/G29</f>
+        <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="O29">
-        <f>D29*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P29">
-        <f>E29/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="R29">
-        <f>H29/D29</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2414,27 +2422,27 @@
         <v>10</v>
       </c>
       <c r="N30" s="4">
-        <f>F30/G30</f>
+        <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
       <c r="O30">
-        <f>D30*1.6093</f>
+        <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
       <c r="P30">
-        <f>E30/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
       <c r="R30">
-        <f>H30/D30</f>
+        <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2472,27 +2480,27 @@
         <v>41</v>
       </c>
       <c r="N31" s="4">
-        <f>F31/G31</f>
+        <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
       <c r="O31">
-        <f>D31*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
       <c r="P31">
-        <f>E31/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
       <c r="R31">
-        <f>H31/D31</f>
+        <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2533,27 +2541,27 @@
         <v>73</v>
       </c>
       <c r="N32" s="4">
-        <f>F32/G32</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="O32">
-        <f>D32*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="P32">
-        <f>E32/3.28084</f>
+        <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
       <c r="R32">
-        <f>H32/D32</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2594,27 +2602,27 @@
         <v>74</v>
       </c>
       <c r="N33" s="4">
-        <f>F33/G33</f>
+        <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
       <c r="O33">
-        <f>D33*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
       <c r="P33">
-        <f>E33/3.28084</f>
+        <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
       <c r="R33">
-        <f>H33/D33</f>
+        <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2652,27 +2660,27 @@
         <v>23</v>
       </c>
       <c r="N34" s="4">
-        <f>F34/G34</f>
+        <f t="shared" si="0"/>
         <v>0.49011857707509882</v>
       </c>
       <c r="O34">
-        <f>D34*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="P34">
-        <f>E34/3.28084</f>
+        <f t="shared" si="2"/>
         <v>449.88478560368685</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
       <c r="R34">
-        <f>H34/D34</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2713,27 +2721,27 @@
         <v>77</v>
       </c>
       <c r="N35" s="4">
-        <f>F35/G35</f>
+        <f t="shared" si="0"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="O35">
-        <f>D35*1.6093</f>
+        <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
       <c r="P35">
-        <f>E35/3.28084</f>
+        <f t="shared" si="2"/>
         <v>819.91197376281684</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
       <c r="R35">
-        <f>H35/D35</f>
+        <f t="shared" si="3"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -2774,27 +2782,27 @@
         <v>80</v>
       </c>
       <c r="N36" s="4">
-        <f>F36/G36</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="O36">
-        <f>D36*1.6093</f>
+        <f t="shared" si="1"/>
         <v>10.621379999999998</v>
       </c>
       <c r="P36">
-        <f>E36/3.28084</f>
+        <f t="shared" si="2"/>
         <v>469.39198497945648</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
       <c r="R36">
-        <f>H36/D36</f>
+        <f t="shared" si="3"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -2832,25 +2840,89 @@
         <v>20</v>
       </c>
       <c r="N37" s="4">
-        <f>F37/G37</f>
+        <f t="shared" si="0"/>
         <v>0.13194444444444445</v>
       </c>
       <c r="O37">
-        <f>D37*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="P37">
-        <f>E37/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="R37">
-        <f>H37/D37</f>
+        <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E38">
+        <v>1378</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>94</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>22</v>
+      </c>
+      <c r="L38">
+        <v>57</v>
+      </c>
+      <c r="M38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5744680851063829E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>14.96649</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>420.01438655953962</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>28.063653305453691</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.5376344086021505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3092,18 +3164,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3126,6 +3198,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3140,12 +3220,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>https://www.cvfr.co.uk/wp-content/uploads/2022/11/half_trog_results.html</t>
+  </si>
+  <si>
+    <t>https://tourofpendle.co.uk/results-of-2022-race/</t>
+  </si>
+  <si>
+    <t>Stoop</t>
   </si>
 </sst>
 </file>
@@ -613,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -735,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N38" si="0">F2/G2</f>
+        <f t="shared" ref="N2:N39" si="0">F2/G2</f>
         <v>0.41860465116279072</v>
       </c>
       <c r="O2">
@@ -751,7 +757,7 @@
         <v>105.22172864889508</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R38" si="3">H2/D2</f>
+        <f t="shared" ref="R2:R40" si="3">H2/D2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -2922,7 +2928,130 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I39" s="5"/>
+      <c r="A39" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>16.8</v>
+      </c>
+      <c r="E39">
+        <v>4833</v>
+      </c>
+      <c r="F39">
+        <v>153</v>
+      </c>
+      <c r="G39">
+        <v>350</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43714285714285717</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O40" si="5">D39*1.6093</f>
+        <v>27.036239999999999</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39:P40" si="6">E39/3.28084</f>
+        <v>1473.0983528608526</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q40" si="7">P39/O39</f>
+        <v>54.48606584572606</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.59523809523809523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>4.3</v>
+      </c>
+      <c r="E40">
+        <v>820</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>115</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>34</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" ref="N40" si="8">F40/G40</f>
+        <v>0.10434782608695652</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>6.9199899999999994</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>249.93599200204827</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>36.117970112969566</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>1.1627906976744187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2935,6 +3064,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -3163,15 +3301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3179,6 +3308,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3193,14 +3330,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -276,12 +271,27 @@
   </si>
   <si>
     <t>Stoop</t>
+  </si>
+  <si>
+    <t>Long Mynd Valleys</t>
+  </si>
+  <si>
+    <t>S O B ( Stile End - Outerside - Barrow ), Kong Winter Series 3</t>
+  </si>
+  <si>
+    <t>https://www.sportident.co.uk/results/Kong/2023/WinterR3/</t>
+  </si>
+  <si>
+    <t>https://www.cvfr.co.uk/wp-content/uploads/2023/02/trog.html</t>
+  </si>
+  <si>
+    <t>https://www.fellrunner.org.uk/results/bd22e1a1-bf4b-4b74-aa89-afdc02805761</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -611,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,32 +629,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" customWidth="1"/>
-    <col min="10" max="10" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.7265625" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -761,7 +771,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -822,7 +832,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -883,7 +893,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43443</v>
       </c>
@@ -944,7 +954,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43764</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1554,7 +1564,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -1853,7 +1863,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -1911,7 +1921,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2155,7 +2165,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2271,7 +2281,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2448,7 +2458,7 @@
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2567,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -2927,7 +2937,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44913</v>
       </c>
@@ -3024,9 +3034,6 @@
       </c>
       <c r="L40">
         <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>82</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" ref="N40" si="8">F40/G40</f>
@@ -3049,9 +3056,246 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1640</v>
+      </c>
+      <c r="F41">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>236</v>
+      </c>
+      <c r="H41" s="5">
+        <v>11</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>49</v>
+      </c>
+      <c r="L41">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" ref="N41:N44" si="9">F41/G41</f>
+        <v>0.2076271186440678</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O44" si="10">D41*1.6093</f>
+        <v>8.0465</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41:P44" si="11">E41/3.28084</f>
+        <v>499.87198400409653</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q44" si="12">P41/O41</f>
+        <v>62.122908594307653</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:R44" si="13">H41/D41</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>19.3</v>
+      </c>
+      <c r="E42">
+        <v>3642</v>
+      </c>
+      <c r="F42">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>142</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="9"/>
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>31.05949</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>1110.08156447739</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="12"/>
+        <v>35.74049556117599</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="13"/>
+        <v>0.77720207253886009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>11.5</v>
+      </c>
+      <c r="E43">
+        <v>4501</v>
+      </c>
+      <c r="F43">
+        <v>152</v>
+      </c>
+      <c r="G43">
+        <v>307</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="9"/>
+        <v>0.49511400651465798</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>18.50695</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>1371.9047560990477</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="12"/>
+        <v>74.129165318923313</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="13"/>
+        <v>1.3043478260869565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>8.1</v>
+      </c>
+      <c r="E44">
+        <v>2165</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>189</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>17</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="9"/>
+        <v>6.8783068783068779E-2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>13.035329999999998</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>659.89197888345666</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="12"/>
+        <v>50.623342783301744</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="13"/>
+        <v>0.98765432098765438</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>https://www.fellrunner.org.uk/results/bd22e1a1-bf4b-4b74-aa89-afdc02805761</t>
+  </si>
+  <si>
+    <t>Inov-8 High Cup Nick</t>
+  </si>
+  <si>
+    <t>https://www.sportident.co.uk/results/dufton/2023/HighCupNick/</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3097,23 +3103,23 @@
         <v>86</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41:N44" si="9">F41/G41</f>
+        <f t="shared" ref="N41:N45" si="9">F41/G41</f>
         <v>0.2076271186440678</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O44" si="10">D41*1.6093</f>
+        <f t="shared" ref="O41:O45" si="10">D41*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P44" si="11">E41/3.28084</f>
+        <f t="shared" ref="P41:P45" si="11">E41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q44" si="12">P41/O41</f>
+        <f t="shared" ref="Q41:Q45" si="12">P41/O41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:R44" si="13">H41/D41</f>
+        <f t="shared" ref="R41:R45" si="13">H41/D41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3295,6 +3301,67 @@
       <c r="R44">
         <f t="shared" si="13"/>
         <v>0.98765432098765438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E45">
+        <v>1509</v>
+      </c>
+      <c r="F45">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>368</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="9"/>
+        <v>8.9673913043478257E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>14.96649</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="11"/>
+        <v>459.94318528181805</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="12"/>
+        <v>30.73153326409987</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="13"/>
+        <v>1.6129032258064515</v>
       </c>
     </row>
   </sheetData>
@@ -3308,12 +3375,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3546,15 +3610,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3579,18 +3655,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -345,7 +345,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -353,6 +353,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -627,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,7 +650,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -660,7 +663,7 @@
     <col min="18" max="18" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +673,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
@@ -3103,23 +3106,23 @@
         <v>86</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41:N45" si="9">F41/G41</f>
+        <f t="shared" ref="N41:N46" si="9">F41/G41</f>
         <v>0.2076271186440678</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O45" si="10">D41*1.6093</f>
+        <f t="shared" ref="O41:O46" si="10">D41*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:P45" si="11">E41/3.28084</f>
+        <f t="shared" ref="P41:P46" si="11">E41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q45" si="12">P41/O41</f>
+        <f t="shared" ref="Q41:Q46" si="12">P41/O41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:R45" si="13">H41/D41</f>
+        <f t="shared" ref="R41:R46" si="13">H41/D41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3362,6 +3365,64 @@
       <c r="R45">
         <f t="shared" si="13"/>
         <v>1.6129032258064515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1316</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>246</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="9"/>
+        <v>0.18292682926829268</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>8.0465</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="11"/>
+        <v>401.1167871642628</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="12"/>
+        <v>49.84984616470053</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="13"/>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -3375,9 +3436,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3610,27 +3674,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3655,9 +3707,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -292,12 +297,36 @@
   </si>
   <si>
     <t>https://www.sportident.co.uk/results/dufton/2023/HighCupNick/</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Coledale Horseshoe</t>
+  </si>
+  <si>
+    <t>Lake District</t>
+  </si>
+  <si>
+    <t>South/West Pennines</t>
+  </si>
+  <si>
+    <t>York. Dales</t>
+  </si>
+  <si>
+    <t>Peak District</t>
+  </si>
+  <si>
+    <t>North Pennines</t>
+  </si>
+  <si>
+    <t>Shropshire/Welsh Borders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -630,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,32 +667,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" customWidth="1"/>
+    <col min="11" max="11" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.7265625" customWidth="1"/>
+    <col min="19" max="19" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,55 +701,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -727,60 +760,63 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2500</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>43</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N39" si="0">F2/G2</f>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O39" si="0">G2/H2</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O38" si="1">D2*1.6093</f>
+      <c r="P2">
+        <f t="shared" ref="P2:P38" si="1">E2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P38" si="2">E2/3.28084</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q38" si="2">F2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
-      <c r="Q2">
-        <f>P2/O2</f>
+      <c r="R2">
+        <f>Q2/P2</f>
         <v>105.22172864889508</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R40" si="3">H2/D2</f>
+      <c r="S2">
+        <f t="shared" ref="S2:S40" si="3">I2/E2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -788,60 +824,63 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4452</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>54</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>70</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q38" si="4">P3/O3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R38" si="4">Q3/P3</f>
         <v>44.379202352672927</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -849,60 +888,63 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6.2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>820</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>248</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43443</v>
       </c>
@@ -910,60 +952,63 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1640</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>44</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>168</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>29</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -971,60 +1016,63 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6.7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>33</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>161</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>56</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1032,60 +1080,63 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1150</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>120</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>58</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>45</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1093,60 +1144,63 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>550</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>79</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>39</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1154,60 +1208,63 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>700</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>51</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>23</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>27</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1215,60 +1272,63 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6.2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>820</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>36</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>180</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>54</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43764</v>
       </c>
@@ -1276,60 +1336,63 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4.3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>853</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>88</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>37</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1337,60 +1400,63 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1800</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>55</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>145</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>49</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1398,60 +1464,63 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1100</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>38</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>139</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>56</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1459,60 +1528,63 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1100</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>26</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>97</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>52</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1520,60 +1592,63 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6.2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>820</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>31</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>138</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>51</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>54</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1581,60 +1656,63 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6.2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1150</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>24</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>121</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>55</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1642,60 +1720,63 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1378</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>19</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>96</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>23</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1703,60 +1784,63 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>16.8</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4833</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>71</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>342</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>25</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1764,57 +1848,60 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1640</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>172</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>5</v>
       </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>58</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>40</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -1822,57 +1909,60 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>700</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>171</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>39</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>55</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -1880,57 +1970,60 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1394</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>84</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>7.85</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>13</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -1938,60 +2031,63 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4.7</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>890</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>22</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>142</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>36</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>21</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="0"/>
         <v>0.15492957746478872</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -1999,60 +2095,63 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>19.3</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3642</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>29</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>148</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>2.5</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>23</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>24</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2060,60 +2159,63 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>7.5</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2001</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>27</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>185</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>15</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>54</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2121,60 +2223,63 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1316</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>61</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>316</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>8</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>49</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>43</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2182,57 +2287,60 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>15.4</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3169</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>54</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>248</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>25</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>26</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2240,57 +2348,60 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1100</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>41</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>146</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>54</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>19</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2298,60 +2409,63 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>5.2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1148</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>31</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>185</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>7</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>48</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>20</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2359,57 +2473,60 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>6.2</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1150</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>18</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>110</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>52</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>37</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2417,57 +2534,60 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>14.9</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4386</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>62</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>135</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>12</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>11</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2475,57 +2595,60 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5.5</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1100</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>21</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>169</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>5</v>
       </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>39</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>41</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2533,60 +2656,63 @@
         <v>72</v>
       </c>
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>15</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>70</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>36</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>48</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2594,60 +2720,63 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1099</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>13</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>126</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>59</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>74</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2655,57 +2784,60 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>5</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1476</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>124</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>253</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>10</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>2</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>54</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>23</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <f t="shared" si="0"/>
         <v>0.49011857707509882</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f t="shared" si="2"/>
         <v>449.88478560368685</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2713,60 +2845,63 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
         <v>42</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>14.9</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2690</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>10</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>56</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>23</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <f t="shared" si="0"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f t="shared" si="2"/>
         <v>819.91197376281684</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="3"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -2774,60 +2909,63 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>6.6</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1540</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>72</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>8</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>2</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>11</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>45</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>80</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <f t="shared" si="1"/>
         <v>10.621379999999998</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f t="shared" si="2"/>
         <v>469.39198497945648</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="3"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -2835,57 +2973,60 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>6.2</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1150</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>19</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>144</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>6</v>
       </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>53</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>20</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <f t="shared" si="0"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -2893,60 +3034,63 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1378</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>94</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>5</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>2.5</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>22</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>57</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>81</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <f t="shared" si="0"/>
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -2954,60 +3098,63 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>16.8</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>4833</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>153</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>350</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>10</v>
       </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>3</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>26</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>21</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <f t="shared" si="0"/>
         <v>0.43714285714285717</v>
       </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O40" si="5">D39*1.6093</f>
+      <c r="P39">
+        <f t="shared" ref="P39:P40" si="5">E39*1.6093</f>
         <v>27.036239999999999</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39:P40" si="6">E39/3.28084</f>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q40" si="6">F39/3.28084</f>
         <v>1473.0983528608526</v>
       </c>
-      <c r="Q39">
-        <f t="shared" ref="Q39:Q40" si="7">P39/O39</f>
+      <c r="R39">
+        <f t="shared" ref="R39:R40" si="7">Q39/P39</f>
         <v>54.48606584572606</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="3"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44913</v>
       </c>
@@ -3015,57 +3162,60 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4.3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>820</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>12</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>115</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>5</v>
       </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="J40" s="5">
         <v>0</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>34</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>38</v>
       </c>
-      <c r="N40" s="4">
-        <f t="shared" ref="N40" si="8">F40/G40</f>
+      <c r="O40" s="4">
+        <f t="shared" ref="O40" si="8">G40/H40</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <f t="shared" si="5"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <f t="shared" si="6"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <f t="shared" si="7"/>
         <v>36.117970112969566</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3073,60 +3223,63 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1640</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>49</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>236</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>11</v>
       </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="J41" s="5">
         <v>0</v>
       </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>49</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>11</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>86</v>
       </c>
-      <c r="N41" s="4">
-        <f t="shared" ref="N41:N46" si="9">F41/G41</f>
+      <c r="O41" s="4">
+        <f t="shared" ref="O41:O47" si="9">G41/H41</f>
         <v>0.2076271186440678</v>
       </c>
-      <c r="O41">
-        <f t="shared" ref="O41:O46" si="10">D41*1.6093</f>
+      <c r="P41">
+        <f t="shared" ref="P41:P47" si="10">E41*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="P41">
-        <f t="shared" ref="P41:P46" si="11">E41/3.28084</f>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q47" si="11">F41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
-      <c r="Q41">
-        <f t="shared" ref="Q41:Q46" si="12">P41/O41</f>
+      <c r="R41">
+        <f t="shared" ref="R41:R47" si="12">Q41/P41</f>
         <v>62.122908594307653</v>
       </c>
-      <c r="R41">
-        <f t="shared" ref="R41:R46" si="13">H41/D41</f>
+      <c r="S41">
+        <f t="shared" ref="S41:S47" si="13">I41/E41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3134,60 +3287,63 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>19.3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3642</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>24</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>142</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>14</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>11</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>87</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <f t="shared" si="9"/>
         <v>0.16901408450704225</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <f t="shared" si="10"/>
         <v>31.05949</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <f t="shared" si="11"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="12"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="13"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3195,57 +3351,60 @@
         <v>84</v>
       </c>
       <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
         <v>64</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>11.5</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>4501</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>152</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>307</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>7</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>8</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <f t="shared" si="9"/>
         <v>0.49511400651465798</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <f t="shared" si="10"/>
         <v>18.50695</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <f t="shared" si="11"/>
         <v>1371.9047560990477</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f t="shared" si="12"/>
         <v>74.129165318923313</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="13"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3253,60 +3412,63 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
         <v>64</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>8.1</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2165</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>13</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>189</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>1</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>17</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>16</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>88</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <f t="shared" si="9"/>
         <v>6.8783068783068779E-2</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <f t="shared" si="10"/>
         <v>13.035329999999998</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <f t="shared" si="11"/>
         <v>659.89197888345666</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <f t="shared" si="12"/>
         <v>50.623342783301744</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="13"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3314,60 +3476,63 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1509</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>33</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>368</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>1</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>15</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>26</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>90</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <f t="shared" si="9"/>
         <v>8.9673913043478257E-2</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <f t="shared" si="10"/>
         <v>14.96649</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <f t="shared" si="11"/>
         <v>459.94318528181805</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <f t="shared" si="12"/>
         <v>30.73153326409987</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="13"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3375,60 +3540,124 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
         <v>10</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>5</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1316</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>45</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>246</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>45</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
         <f t="shared" si="9"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <f t="shared" si="10"/>
         <v>8.0465</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <f t="shared" si="11"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f t="shared" si="12"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
     </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>8.5</v>
+      </c>
+      <c r="F47">
+        <v>3002</v>
+      </c>
+      <c r="G47">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>275</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>31</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="9"/>
+        <v>0.22545454545454546</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>13.67905</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="11"/>
+        <v>915.00957071969378</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="12"/>
+        <v>66.891309756137588</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="13"/>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M24" r:id="rId1"/>
-    <hyperlink ref="M28" r:id="rId2"/>
+    <hyperlink ref="N24" r:id="rId1"/>
+    <hyperlink ref="N28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3445,6 +3674,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -3673,12 +3908,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
@@ -3688,6 +3917,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3704,21 +3950,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Shropshire/Welsh Borders</t>
+  </si>
+  <si>
+    <t>champs race</t>
   </si>
 </sst>
 </file>
@@ -667,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -689,11 +692,11 @@
     <col min="11" max="11" width="2.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" customWidth="1"/>
+    <col min="17" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,22 +740,25 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -795,28 +801,31 @@
       <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:O39" si="0">G2/H2</f>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P39" si="0">G2/H2</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P38" si="1">E2*1.6093</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q38" si="1">E2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q38" si="2">F2/3.28084</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R38" si="2">F2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
-      <c r="R2">
-        <f>Q2/P2</f>
+      <c r="S2">
+        <f>R2/Q2</f>
         <v>105.22172864889508</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S40" si="3">I2/E2</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T40" si="3">I2/E2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -859,28 +868,31 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
         <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R38" si="4">Q3/P3</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S38" si="4">R3/Q3</f>
         <v>44.379202352672927</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -923,28 +935,31 @@
       <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43443</v>
       </c>
@@ -987,28 +1002,31 @@
       <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1051,28 +1069,31 @@
       <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1115,28 +1136,31 @@
       <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1179,28 +1203,31 @@
       <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1243,28 +1270,31 @@
       <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1307,28 +1337,31 @@
       <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43764</v>
       </c>
@@ -1371,28 +1404,31 @@
       <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1435,28 +1471,31 @@
       <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1499,28 +1538,31 @@
       <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1563,28 +1605,31 @@
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1627,28 +1672,31 @@
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1691,28 +1739,31 @@
       <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1755,28 +1806,31 @@
       <c r="N17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1819,28 +1873,31 @@
       <c r="N18" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1880,28 +1937,31 @@
       <c r="M19">
         <v>40</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -1941,28 +2001,31 @@
       <c r="M20">
         <v>55</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
         <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2002,28 +2065,31 @@
       <c r="M21">
         <v>18</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2066,28 +2132,31 @@
       <c r="N22" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="0"/>
         <v>0.15492957746478872</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2130,28 +2199,31 @@
       <c r="N23" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2194,28 +2266,31 @@
       <c r="N24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2258,28 +2333,31 @@
       <c r="N25" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2319,28 +2397,31 @@
       <c r="M26">
         <v>26</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2380,28 +2461,31 @@
       <c r="M27">
         <v>19</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
         <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2444,28 +2528,31 @@
       <c r="N28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2505,28 +2592,31 @@
       <c r="M29">
         <v>37</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2566,28 +2656,31 @@
       <c r="M30">
         <v>10</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2627,28 +2720,31 @@
       <c r="M31">
         <v>41</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
         <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2691,28 +2787,31 @@
       <c r="N32" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2755,28 +2854,31 @@
       <c r="N33" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
         <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2816,28 +2918,31 @@
       <c r="M34">
         <v>23</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
         <f t="shared" si="0"/>
         <v>0.49011857707509882</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="2"/>
         <v>449.88478560368685</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2880,28 +2985,31 @@
       <c r="N35" t="s">
         <v>77</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
         <f t="shared" si="0"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="2"/>
         <v>819.91197376281684</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -2944,28 +3052,31 @@
       <c r="N36" t="s">
         <v>80</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f t="shared" si="1"/>
         <v>10.621379999999998</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="2"/>
         <v>469.39198497945648</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="3"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3005,28 +3116,31 @@
       <c r="M37">
         <v>20</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
         <f t="shared" si="0"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3069,28 +3183,31 @@
       <c r="N38" t="s">
         <v>81</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
         <f t="shared" si="0"/>
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3133,28 +3250,31 @@
       <c r="N39" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
         <f t="shared" si="0"/>
         <v>0.43714285714285717</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39:P40" si="5">E39*1.6093</f>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q40" si="5">E39*1.6093</f>
         <v>27.036239999999999</v>
       </c>
-      <c r="Q39">
-        <f t="shared" ref="Q39:Q40" si="6">F39/3.28084</f>
+      <c r="R39">
+        <f t="shared" ref="R39:R40" si="6">F39/3.28084</f>
         <v>1473.0983528608526</v>
       </c>
-      <c r="R39">
-        <f t="shared" ref="R39:R40" si="7">Q39/P39</f>
+      <c r="S39">
+        <f t="shared" ref="S39:S40" si="7">R39/Q39</f>
         <v>54.48606584572606</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="3"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44913</v>
       </c>
@@ -3194,28 +3314,31 @@
       <c r="M40">
         <v>38</v>
       </c>
-      <c r="O40" s="4">
-        <f t="shared" ref="O40" si="8">G40/H40</f>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" ref="P40" si="8">G40/H40</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <f t="shared" si="5"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <f t="shared" si="6"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="7"/>
         <v>36.117970112969566</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3258,28 +3381,31 @@
       <c r="N41" t="s">
         <v>86</v>
       </c>
-      <c r="O41" s="4">
-        <f t="shared" ref="O41:O47" si="9">G41/H41</f>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" ref="P41:P47" si="9">G41/H41</f>
         <v>0.2076271186440678</v>
       </c>
-      <c r="P41">
-        <f t="shared" ref="P41:P47" si="10">E41*1.6093</f>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q47" si="10">E41*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="Q41">
-        <f t="shared" ref="Q41:Q47" si="11">F41/3.28084</f>
+      <c r="R41">
+        <f t="shared" ref="R41:R47" si="11">F41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
-      <c r="R41">
-        <f t="shared" ref="R41:R47" si="12">Q41/P41</f>
+      <c r="S41">
+        <f t="shared" ref="S41:S47" si="12">R41/Q41</f>
         <v>62.122908594307653</v>
       </c>
-      <c r="S41">
-        <f t="shared" ref="S41:S47" si="13">I41/E41</f>
+      <c r="T41">
+        <f t="shared" ref="T41:T47" si="13">I41/E41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3322,28 +3448,31 @@
       <c r="N42" t="s">
         <v>87</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
         <f t="shared" si="9"/>
         <v>0.16901408450704225</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <f t="shared" si="10"/>
         <v>31.05949</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="11"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="12"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="13"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3383,28 +3512,31 @@
       <c r="M43">
         <v>8</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
         <f t="shared" si="9"/>
         <v>0.49511400651465798</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <f t="shared" si="10"/>
         <v>18.50695</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f t="shared" si="11"/>
         <v>1371.9047560990477</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="12"/>
         <v>74.129165318923313</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="13"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3447,28 +3579,31 @@
       <c r="N44" t="s">
         <v>88</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
         <f t="shared" si="9"/>
         <v>6.8783068783068779E-2</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <f t="shared" si="10"/>
         <v>13.035329999999998</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <f t="shared" si="11"/>
         <v>659.89197888345666</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="12"/>
         <v>50.623342783301744</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="13"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3511,28 +3646,31 @@
       <c r="N45" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
         <f t="shared" si="9"/>
         <v>8.9673913043478257E-2</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <f t="shared" si="10"/>
         <v>14.96649</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <f t="shared" si="11"/>
         <v>459.94318528181805</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="12"/>
         <v>30.73153326409987</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="13"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3572,28 +3710,31 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
         <f t="shared" si="9"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <f t="shared" si="10"/>
         <v>8.0465</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f t="shared" si="11"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="12"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -3633,23 +3774,26 @@
       <c r="M47">
         <v>31</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
         <f t="shared" si="9"/>
         <v>0.22545454545454546</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <f t="shared" si="10"/>
         <v>13.67905</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <f t="shared" si="11"/>
         <v>915.00957071969378</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="12"/>
         <v>66.891309756137588</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="13"/>
         <v>1.2941176470588236</v>
       </c>
@@ -3665,21 +3809,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -3908,10 +4037,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3934,20 +4089,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>champs race</t>
+  </si>
+  <si>
+    <t>Pendle</t>
   </si>
 </sst>
 </file>
@@ -670,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3385,23 +3388,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" ref="P41:P47" si="9">G41/H41</f>
+        <f t="shared" ref="P41:P48" si="9">G41/H41</f>
         <v>0.2076271186440678</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q47" si="10">E41*1.6093</f>
+        <f t="shared" ref="Q41:Q48" si="10">E41*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:R47" si="11">F41/3.28084</f>
+        <f t="shared" ref="R41:R48" si="11">F41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:S47" si="12">R41/Q41</f>
+        <f t="shared" ref="S41:S48" si="12">R41/Q41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="T41">
-        <f t="shared" ref="T41:T47" si="13">I41/E41</f>
+        <f t="shared" ref="T41:T48" si="13">I41/E41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3796,6 +3799,70 @@
       <c r="T47">
         <f t="shared" si="13"/>
         <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>4.5</v>
+      </c>
+      <c r="F48">
+        <v>1499</v>
+      </c>
+      <c r="G48">
+        <v>31</v>
+      </c>
+      <c r="H48">
+        <v>176</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>38</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="9"/>
+        <v>0.17613636363636365</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="10"/>
+        <v>7.2418499999999995</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>456.89518537935407</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="12"/>
+        <v>63.090948497877491</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="13"/>
+        <v>1.1111111111111112</v>
       </c>
     </row>
   </sheetData>
@@ -3809,6 +3876,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4037,12 +4110,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4053,6 +4120,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4071,23 +4155,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Pendle</t>
+  </si>
+  <si>
+    <t>Wardle Skyline</t>
   </si>
 </sst>
 </file>
@@ -673,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3388,23 +3391,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" ref="P41:P48" si="9">G41/H41</f>
+        <f t="shared" ref="P41:P49" si="9">G41/H41</f>
         <v>0.2076271186440678</v>
       </c>
       <c r="Q41">
-        <f t="shared" ref="Q41:Q48" si="10">E41*1.6093</f>
+        <f t="shared" ref="Q41:Q49" si="10">E41*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:R48" si="11">F41/3.28084</f>
+        <f t="shared" ref="R41:R49" si="11">F41/3.28084</f>
         <v>499.87198400409653</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:S48" si="12">R41/Q41</f>
+        <f t="shared" ref="S41:S49" si="12">R41/Q41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="T41">
-        <f t="shared" ref="T41:T48" si="13">I41/E41</f>
+        <f t="shared" ref="T41:T49" si="13">I41/E41</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3863,6 +3866,70 @@
       <c r="T48">
         <f t="shared" si="13"/>
         <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>1250</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>174</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>51</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="9"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="10"/>
+        <v>11.2651</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="11"/>
+        <v>380.99998780800041</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="12"/>
+        <v>33.82126992285913</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="13"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -3876,12 +3943,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4110,6 +4171,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4120,23 +4187,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4155,6 +4205,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -330,12 +325,15 @@
   </si>
   <si>
     <t>Wardle Skyline</t>
+  </si>
+  <si>
+    <t>Newlands Memorial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -668,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,33 +674,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" customWidth="1"/>
-    <col min="11" max="11" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.7265625" customWidth="1"/>
-    <col min="20" max="20" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -831,7 +829,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -898,7 +896,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -965,7 +963,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43443</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1367,7 +1365,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43764</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1501,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2095,7 +2093,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2162,7 +2160,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2491,7 +2489,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -2558,7 +2556,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2686,7 +2684,7 @@
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2948,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3213,7 +3211,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44913</v>
       </c>
@@ -3344,7 +3342,7 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3411,7 +3409,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -3804,7 +3802,7 @@
         <v>1.2941176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45017</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45024</v>
       </c>
@@ -3931,6 +3929,140 @@
         <f t="shared" si="13"/>
         <v>0.7142857142857143</v>
       </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>11.5</v>
+      </c>
+      <c r="F50">
+        <v>3609</v>
+      </c>
+      <c r="G50">
+        <v>91</v>
+      </c>
+      <c r="H50">
+        <v>287</v>
+      </c>
+      <c r="I50" s="3">
+        <v>12</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>44</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" ref="P50:P52" si="14">G50/H50</f>
+        <v>0.31707317073170732</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:Q52" si="15">E50*1.6093</f>
+        <v>18.50695</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50:R52" si="16">F50/3.28084</f>
+        <v>1100.0231647992587</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ref="S50:S52" si="17">R50/Q50</f>
+        <v>59.438382056430619</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50:T52" si="18">I50/E50</f>
+        <v>1.0434782608695652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>6.7</v>
+      </c>
+      <c r="F51">
+        <v>968</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>207</v>
+      </c>
+      <c r="I51" s="3">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>55</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="14"/>
+        <v>7.7294685990338161E-2</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="15"/>
+        <v>10.782310000000001</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="16"/>
+        <v>295.0463905585155</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="17"/>
+        <v>27.363931342960413</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="18"/>
+        <v>1.044776119402985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="P52" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3943,6 +4075,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4171,36 +4318,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4223,9 +4344,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -685,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -820,15 +820,15 @@
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>G2/H2</f>
+        <f t="shared" ref="P2:P33" si="0">G2/H2</f>
         <v>0.41860465116279072</v>
       </c>
       <c r="Q2">
-        <f>E2*1.6093</f>
+        <f t="shared" ref="Q2:Q33" si="1">E2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
       <c r="R2">
-        <f>F2/3.28084</f>
+        <f t="shared" ref="R2:R33" si="2">F2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
       <c r="S2">
@@ -836,7 +836,7 @@
         <v>105.22172864889508</v>
       </c>
       <c r="T2">
-        <f>I2/E2</f>
+        <f t="shared" ref="T2:T33" si="3">I2/E2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -887,23 +887,23 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <f>G3/H3</f>
+        <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="Q3">
-        <f>E3*1.6093</f>
+        <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
       <c r="R3">
-        <f>F3/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S38" si="0">R3/Q3</f>
+        <f t="shared" ref="S3:S38" si="4">R3/Q3</f>
         <v>44.379202352672927</v>
       </c>
       <c r="T3">
-        <f>I3/E3</f>
+        <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
@@ -954,23 +954,23 @@
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <f>G4/H4</f>
+        <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
       <c r="Q4">
-        <f>E4*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R4">
-        <f>F4/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="T4">
-        <f>I4/E4</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1021,23 +1021,23 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>G5/H5</f>
+        <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="Q5">
-        <f>E5*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="R5">
-        <f>F5/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="T5">
-        <f>I5/E5</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -1088,23 +1088,23 @@
         <v>0</v>
       </c>
       <c r="P6" s="4">
-        <f>G6/H6</f>
+        <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
       <c r="Q6">
-        <f>E6*1.6093</f>
+        <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
       <c r="R6">
-        <f>F6/3.28084</f>
+        <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
       <c r="T6">
-        <f>I6/E6</f>
+        <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
@@ -1155,23 +1155,23 @@
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <f>G7/H7</f>
+        <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
       <c r="Q7">
-        <f>E7*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R7">
-        <f>F7/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="T7">
-        <f>I7/E7</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1222,23 +1222,23 @@
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f>G8/H8</f>
+        <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="Q8">
-        <f>E8*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="R8">
-        <f>F8/3.28084</f>
+        <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
       <c r="T8">
-        <f>I8/E8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1289,23 +1289,23 @@
         <v>0</v>
       </c>
       <c r="P9" s="4">
-        <f>G9/H9</f>
+        <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
       <c r="Q9">
-        <f>E9*1.6093</f>
+        <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
       <c r="R9">
-        <f>F9/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
       <c r="T9">
-        <f>I9/E9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1356,23 +1356,23 @@
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <f>G10/H10</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="Q10">
-        <f>E10*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R10">
-        <f>F10/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="T10">
-        <f>I10/E10</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1423,23 +1423,23 @@
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f>G11/H11</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="Q11">
-        <f>E11*1.6093</f>
+        <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
       <c r="R11">
-        <f>F11/3.28084</f>
+        <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
       <c r="T11">
-        <f>I11/E11</f>
+        <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f>G12/H12</f>
+        <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="Q12">
-        <f>E12*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="R12">
-        <f>F12/3.28084</f>
+        <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
       <c r="T12">
-        <f>I12/E12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1557,23 +1557,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f>G13/H13</f>
+        <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
       <c r="Q13">
-        <f>E13*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="R13">
-        <f>F13/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="T13">
-        <f>I13/E13</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -1624,23 +1624,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f>G14/H14</f>
+        <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
       <c r="Q14">
-        <f>E14*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
       <c r="R14">
-        <f>F14/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
       <c r="T14">
-        <f>I14/E14</f>
+        <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
@@ -1691,23 +1691,23 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f>G15/H15</f>
+        <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
       <c r="Q15">
-        <f>E15*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R15">
-        <f>F15/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="T15">
-        <f>I15/E15</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1758,23 +1758,23 @@
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f>G16/H16</f>
+        <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
       <c r="Q16">
-        <f>E16*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R16">
-        <f>F16/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="T16">
-        <f>I16/E16</f>
+        <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -1825,23 +1825,23 @@
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>G17/H17</f>
+        <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
       <c r="Q17">
-        <f>E17*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
       <c r="R17">
-        <f>F17/3.28084</f>
+        <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
       <c r="T17">
-        <f>I17/E17</f>
+        <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
@@ -1892,23 +1892,23 @@
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <f>G18/H18</f>
+        <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
       <c r="Q18">
-        <f>E18*1.6093</f>
+        <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
       <c r="R18">
-        <f>F18/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
       <c r="T18">
-        <f>I18/E18</f>
+        <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
@@ -1956,23 +1956,23 @@
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f>G19/H19</f>
+        <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
       <c r="Q19">
-        <f>E19*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="R19">
-        <f>F19/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="T19">
-        <f>I19/E19</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -2020,23 +2020,23 @@
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f>G20/H20</f>
+        <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
       <c r="Q20">
-        <f>E20*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
       <c r="R20">
-        <f>F20/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
       <c r="T20">
-        <f>I20/E20</f>
+        <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
@@ -2084,23 +2084,23 @@
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>G21/H21</f>
+        <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="Q21">
-        <f>E21*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
       <c r="R21">
-        <f>F21/3.28084</f>
+        <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
       <c r="S21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
       <c r="T21">
-        <f>I21/E21</f>
+        <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
@@ -2151,23 +2151,23 @@
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>G22/H22</f>
+        <f t="shared" si="0"/>
         <v>0.15492957746478872</v>
       </c>
       <c r="Q22">
-        <f>E22*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
       <c r="R22">
-        <f>F22/3.28084</f>
+        <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
       <c r="T22">
-        <f>I22/E22</f>
+        <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
@@ -2218,23 +2218,23 @@
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f>G23/H23</f>
+        <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
       <c r="Q23">
-        <f>E23*1.6093</f>
+        <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
       <c r="R23">
-        <f>F23/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
       <c r="S23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
       <c r="T23">
-        <f>I23/E23</f>
+        <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -2285,23 +2285,23 @@
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f>G24/H24</f>
+        <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
       <c r="Q24">
-        <f>E24*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
       <c r="R24">
-        <f>F24/3.28084</f>
+        <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
       <c r="T24">
-        <f>I24/E24</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2352,23 +2352,23 @@
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>G25/H25</f>
+        <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
       <c r="Q25">
-        <f>E25*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="R25">
-        <f>F25/3.28084</f>
+        <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
       <c r="T25">
-        <f>I25/E25</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
@@ -2416,23 +2416,23 @@
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <f>G26/H26</f>
+        <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
       <c r="Q26">
-        <f>E26*1.6093</f>
+        <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
       <c r="R26">
-        <f>F26/3.28084</f>
+        <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
       <c r="T26">
-        <f>I26/E26</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -2480,23 +2480,23 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f>G27/H27</f>
+        <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
       <c r="Q27">
-        <f>E27*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="R27">
-        <f>F27/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="S27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="T27">
-        <f>I27/E27</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -2547,23 +2547,23 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f>G28/H28</f>
+        <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
       <c r="Q28">
-        <f>E28*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="R28">
-        <f>F28/3.28084</f>
+        <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
       <c r="S28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
       <c r="T28">
-        <f>I28/E28</f>
+        <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
@@ -2611,23 +2611,23 @@
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <f>G29/H29</f>
+        <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="Q29">
-        <f>E29*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R29">
-        <f>F29/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="S29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="T29">
-        <f>I29/E29</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -2675,23 +2675,23 @@
         <v>0</v>
       </c>
       <c r="P30" s="4">
-        <f>G30/H30</f>
+        <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
       <c r="Q30">
-        <f>E30*1.6093</f>
+        <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
       <c r="R30">
-        <f>F30/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
       <c r="S30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
       <c r="T30">
-        <f>I30/E30</f>
+        <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
@@ -2739,23 +2739,23 @@
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <f>G31/H31</f>
+        <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
       <c r="Q31">
-        <f>E31*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
       <c r="R31">
-        <f>F31/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
       <c r="T31">
-        <f>I31/E31</f>
+        <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
@@ -2806,23 +2806,23 @@
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f>G32/H32</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="Q32">
-        <f>E32*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="R32">
-        <f>F32/3.28084</f>
+        <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
       <c r="S32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
       <c r="T32">
-        <f>I32/E32</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2873,23 +2873,23 @@
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f>G33/H33</f>
+        <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
       <c r="Q33">
-        <f>E33*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
       <c r="R33">
-        <f>F33/3.28084</f>
+        <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
       <c r="S33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
       <c r="T33">
-        <f>I33/E33</f>
+        <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
@@ -2937,23 +2937,23 @@
         <v>1</v>
       </c>
       <c r="P34" s="4">
-        <f>G34/H34</f>
+        <f t="shared" ref="P34:P56" si="5">G34/H34</f>
         <v>0.49011857707509882</v>
       </c>
       <c r="Q34">
-        <f>E34*1.6093</f>
+        <f t="shared" ref="Q34:Q56" si="6">E34*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="R34">
-        <f>F34/3.28084</f>
+        <f t="shared" ref="R34:R56" si="7">F34/3.28084</f>
         <v>449.88478560368685</v>
       </c>
       <c r="S34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
       <c r="T34">
-        <f>I34/E34</f>
+        <f t="shared" ref="T34:T51" si="8">I34/E34</f>
         <v>2</v>
       </c>
     </row>
@@ -3004,23 +3004,23 @@
         <v>0</v>
       </c>
       <c r="P35" s="4">
-        <f>G35/H35</f>
+        <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="Q35">
-        <f>E35*1.6093</f>
+        <f t="shared" si="6"/>
         <v>23.978570000000001</v>
       </c>
       <c r="R35">
-        <f>F35/3.28084</f>
+        <f t="shared" si="7"/>
         <v>819.91197376281684</v>
       </c>
       <c r="S35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
       <c r="T35">
-        <f>I35/E35</f>
+        <f t="shared" si="8"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
@@ -3071,23 +3071,23 @@
         <v>0</v>
       </c>
       <c r="P36" s="4">
-        <f>G36/H36</f>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="Q36">
-        <f>E36*1.6093</f>
+        <f t="shared" si="6"/>
         <v>10.621379999999998</v>
       </c>
       <c r="R36">
-        <f>F36/3.28084</f>
+        <f t="shared" si="7"/>
         <v>469.39198497945648</v>
       </c>
       <c r="S36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
       <c r="T36">
-        <f>I36/E36</f>
+        <f t="shared" si="8"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
@@ -3135,23 +3135,23 @@
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <f>G37/H37</f>
+        <f t="shared" si="5"/>
         <v>0.13194444444444445</v>
       </c>
       <c r="Q37">
-        <f>E37*1.6093</f>
+        <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R37">
-        <f>F37/3.28084</f>
+        <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
       <c r="S37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="T37">
-        <f>I37/E37</f>
+        <f t="shared" si="8"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -3202,23 +3202,23 @@
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f>G38/H38</f>
+        <f t="shared" si="5"/>
         <v>9.5744680851063829E-2</v>
       </c>
       <c r="Q38">
-        <f>E38*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
       <c r="R38">
-        <f>F38/3.28084</f>
+        <f t="shared" si="7"/>
         <v>420.01438655953962</v>
       </c>
       <c r="S38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
       <c r="T38">
-        <f>I38/E38</f>
+        <f t="shared" si="8"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
@@ -3269,23 +3269,23 @@
         <v>0</v>
       </c>
       <c r="P39" s="4">
-        <f>G39/H39</f>
+        <f t="shared" si="5"/>
         <v>0.43714285714285717</v>
       </c>
       <c r="Q39">
-        <f>E39*1.6093</f>
+        <f t="shared" si="6"/>
         <v>27.036239999999999</v>
       </c>
       <c r="R39">
-        <f>F39/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39:S40" si="1">R39/Q39</f>
+        <f t="shared" ref="S39:S40" si="9">R39/Q39</f>
         <v>54.48606584572606</v>
       </c>
       <c r="T39">
-        <f>I39/E39</f>
+        <f t="shared" si="8"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
@@ -3333,23 +3333,23 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <f>G40/H40</f>
+        <f t="shared" si="5"/>
         <v>0.10434782608695652</v>
       </c>
       <c r="Q40">
-        <f>E40*1.6093</f>
+        <f t="shared" si="6"/>
         <v>6.9199899999999994</v>
       </c>
       <c r="R40">
-        <f>F40/3.28084</f>
+        <f t="shared" si="7"/>
         <v>249.93599200204827</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>36.117970112969566</v>
       </c>
       <c r="T40">
-        <f>I40/E40</f>
+        <f t="shared" si="8"/>
         <v>1.1627906976744187</v>
       </c>
     </row>
@@ -3400,23 +3400,23 @@
         <v>0</v>
       </c>
       <c r="P41" s="4">
-        <f>G41/H41</f>
+        <f t="shared" si="5"/>
         <v>0.2076271186440678</v>
       </c>
       <c r="Q41">
-        <f>E41*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="R41">
-        <f>F41/3.28084</f>
+        <f t="shared" si="7"/>
         <v>499.87198400409653</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:S49" si="2">R41/Q41</f>
+        <f t="shared" ref="S41:S49" si="10">R41/Q41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="T41">
-        <f>I41/E41</f>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3467,23 +3467,23 @@
         <v>0</v>
       </c>
       <c r="P42" s="4">
-        <f>G42/H42</f>
+        <f t="shared" si="5"/>
         <v>0.16901408450704225</v>
       </c>
       <c r="Q42">
-        <f>E42*1.6093</f>
+        <f t="shared" si="6"/>
         <v>31.05949</v>
       </c>
       <c r="R42">
-        <f>F42/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1110.08156447739</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>35.74049556117599</v>
       </c>
       <c r="T42">
-        <f>I42/E42</f>
+        <f t="shared" si="8"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -3531,23 +3531,23 @@
         <v>1</v>
       </c>
       <c r="P43" s="4">
-        <f>G43/H43</f>
+        <f t="shared" si="5"/>
         <v>0.49511400651465798</v>
       </c>
       <c r="Q43">
-        <f>E43*1.6093</f>
+        <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
       <c r="R43">
-        <f>F43/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1371.9047560990477</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>74.129165318923313</v>
       </c>
       <c r="T43">
-        <f>I43/E43</f>
+        <f t="shared" si="8"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
@@ -3598,23 +3598,23 @@
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f>G44/H44</f>
+        <f t="shared" si="5"/>
         <v>6.8783068783068779E-2</v>
       </c>
       <c r="Q44">
-        <f>E44*1.6093</f>
+        <f t="shared" si="6"/>
         <v>13.035329999999998</v>
       </c>
       <c r="R44">
-        <f>F44/3.28084</f>
+        <f t="shared" si="7"/>
         <v>659.89197888345666</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>50.623342783301744</v>
       </c>
       <c r="T44">
-        <f>I44/E44</f>
+        <f t="shared" si="8"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
@@ -3665,23 +3665,23 @@
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f>G45/H45</f>
+        <f t="shared" si="5"/>
         <v>8.9673913043478257E-2</v>
       </c>
       <c r="Q45">
-        <f>E45*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
       <c r="R45">
-        <f>F45/3.28084</f>
+        <f t="shared" si="7"/>
         <v>459.94318528181805</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>30.73153326409987</v>
       </c>
       <c r="T45">
-        <f>I45/E45</f>
+        <f t="shared" si="8"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
@@ -3729,23 +3729,23 @@
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <f>G46/H46</f>
+        <f t="shared" si="5"/>
         <v>0.18292682926829268</v>
       </c>
       <c r="Q46">
-        <f>E46*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="R46">
-        <f>F46/3.28084</f>
+        <f t="shared" si="7"/>
         <v>401.1167871642628</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>49.84984616470053</v>
       </c>
       <c r="T46">
-        <f>I46/E46</f>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
@@ -3793,23 +3793,23 @@
         <v>0</v>
       </c>
       <c r="P47" s="4">
-        <f>G47/H47</f>
+        <f t="shared" si="5"/>
         <v>0.22545454545454546</v>
       </c>
       <c r="Q47">
-        <f>E47*1.6093</f>
+        <f t="shared" si="6"/>
         <v>13.67905</v>
       </c>
       <c r="R47">
-        <f>F47/3.28084</f>
+        <f t="shared" si="7"/>
         <v>915.00957071969378</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>66.891309756137588</v>
       </c>
       <c r="T47">
-        <f>I47/E47</f>
+        <f t="shared" si="8"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
@@ -3857,23 +3857,23 @@
         <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f>G48/H48</f>
+        <f t="shared" si="5"/>
         <v>0.17613636363636365</v>
       </c>
       <c r="Q48">
-        <f>E48*1.6093</f>
+        <f t="shared" si="6"/>
         <v>7.2418499999999995</v>
       </c>
       <c r="R48">
-        <f>F48/3.28084</f>
+        <f t="shared" si="7"/>
         <v>456.89518537935407</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>63.090948497877491</v>
       </c>
       <c r="T48">
-        <f>I48/E48</f>
+        <f t="shared" si="8"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -3921,23 +3921,23 @@
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f>G49/H49</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="Q49">
-        <f>E49*1.6093</f>
+        <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
       <c r="R49">
-        <f>F49/3.28084</f>
+        <f t="shared" si="7"/>
         <v>380.99998780800041</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>33.82126992285913</v>
       </c>
       <c r="T49">
-        <f>I49/E49</f>
+        <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -3985,23 +3985,23 @@
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f>G50/H50</f>
+        <f t="shared" si="5"/>
         <v>0.31707317073170732</v>
       </c>
       <c r="Q50">
-        <f>E50*1.6093</f>
+        <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
       <c r="R50">
-        <f>F50/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1100.0231647992587</v>
       </c>
       <c r="S50">
-        <f t="shared" ref="S50:S51" si="3">R50/Q50</f>
+        <f t="shared" ref="S50:S51" si="11">R50/Q50</f>
         <v>59.438382056430619</v>
       </c>
       <c r="T50">
-        <f>I50/E50</f>
+        <f t="shared" si="8"/>
         <v>1.0434782608695652</v>
       </c>
     </row>
@@ -4049,23 +4049,23 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f>G51/H51</f>
+        <f t="shared" si="5"/>
         <v>7.7294685990338161E-2</v>
       </c>
       <c r="Q51">
-        <f>E51*1.6093</f>
+        <f t="shared" si="6"/>
         <v>10.782310000000001</v>
       </c>
       <c r="R51">
-        <f>F51/3.28084</f>
+        <f t="shared" si="7"/>
         <v>295.0463905585155</v>
       </c>
       <c r="S51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>27.363931342960413</v>
       </c>
       <c r="T51">
-        <f>I51/E51</f>
+        <f t="shared" si="8"/>
         <v>1.044776119402985</v>
       </c>
     </row>
@@ -4113,23 +4113,23 @@
         <v>0</v>
       </c>
       <c r="P52" s="4">
-        <f>G52/H52</f>
+        <f t="shared" si="5"/>
         <v>0.14893617021276595</v>
       </c>
       <c r="Q52">
-        <f>E52*1.6093</f>
+        <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
       <c r="R52">
-        <f>F52/3.28084</f>
+        <f t="shared" si="7"/>
         <v>335.27998927104034</v>
       </c>
       <c r="S52">
-        <f t="shared" ref="S52:S56" si="4">R52/Q52</f>
+        <f t="shared" ref="S52:S56" si="12">R52/Q52</f>
         <v>29.762717532116032</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:T56" si="5">I52/E52</f>
+        <f t="shared" ref="T52:T56" si="13">I52/E52</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -4177,23 +4177,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="4">
-        <f>G53/H53</f>
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
       <c r="Q53">
-        <f>E53*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="R53">
-        <f>F53/3.28084</f>
+        <f t="shared" si="7"/>
         <v>349.91038880286754</v>
       </c>
       <c r="S53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>41.813496169245525</v>
       </c>
       <c r="T53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.346153846153846</v>
       </c>
     </row>
@@ -4241,23 +4241,23 @@
         <v>1</v>
       </c>
       <c r="P54" s="4">
-        <f>G54/H54</f>
+        <f t="shared" si="5"/>
         <v>0.54788418708240538</v>
       </c>
       <c r="Q54">
-        <f>E54*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.483699999999999</v>
       </c>
       <c r="R54">
-        <f>F54/3.28084</f>
+        <f t="shared" si="7"/>
         <v>914.0951707489545</v>
       </c>
       <c r="S54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>63.111992843607268</v>
       </c>
       <c r="T54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -4305,23 +4305,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f>G55/H55</f>
+        <f t="shared" si="5"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="Q55">
-        <f>E55*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="R55">
-        <f>F55/3.28084</f>
+        <f t="shared" si="7"/>
         <v>365.75998829568039</v>
       </c>
       <c r="S55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>43.707487284925641</v>
       </c>
       <c r="T55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.5384615384615383</v>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
         <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>6.2</v>
@@ -4369,25 +4369,28 @@
         <v>0</v>
       </c>
       <c r="P56" s="4">
-        <f>G56/H56</f>
+        <f t="shared" si="5"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="Q56">
-        <f>E56*1.6093</f>
+        <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="R56">
-        <f>F56/3.28084</f>
+        <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
       <c r="S56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35.130480371485937</v>
       </c>
       <c r="T56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.96774193548387089</v>
       </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4400,6 +4403,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4628,15 +4640,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4644,6 +4647,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4658,14 +4669,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -687,9 +687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4390,7 +4390,68 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J57" s="5"/>
+      <c r="A57" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>1800</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>48</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>44</v>
+      </c>
+      <c r="M57">
+        <v>41</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" ref="P57" si="14">G57/H57</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ref="Q57" si="15">E57*1.6093</f>
+        <v>8.0465</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57" si="16">F57/3.28084</f>
+        <v>548.63998244352058</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ref="S57" si="17">R57/Q57</f>
+        <v>68.183680164484002</v>
+      </c>
+      <c r="T57">
+        <f t="shared" ref="T57" si="18">I57/E57</f>
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4403,15 +4464,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4640,6 +4692,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4647,14 +4708,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4669,6 +4722,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Charlesworth Chase</t>
+  </si>
+  <si>
+    <t>Bridestone</t>
   </si>
 </sst>
 </file>
@@ -685,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4433,24 +4436,88 @@
         <v>0</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" ref="P57" si="14">G57/H57</f>
+        <f t="shared" ref="P57:P58" si="14">G57/H57</f>
         <v>0.10416666666666667</v>
       </c>
       <c r="Q57">
-        <f t="shared" ref="Q57" si="15">E57*1.6093</f>
+        <f t="shared" ref="Q57:Q58" si="15">E57*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="R57">
-        <f t="shared" ref="R57" si="16">F57/3.28084</f>
+        <f t="shared" ref="R57:R58" si="16">F57/3.28084</f>
         <v>548.63998244352058</v>
       </c>
       <c r="S57">
-        <f t="shared" ref="S57" si="17">R57/Q57</f>
+        <f t="shared" ref="S57:S58" si="17">R57/Q57</f>
         <v>68.183680164484002</v>
       </c>
       <c r="T57">
-        <f t="shared" ref="T57" si="18">I57/E57</f>
+        <f t="shared" ref="T57:T58" si="18">I57/E57</f>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>4.7</v>
+      </c>
+      <c r="F58">
+        <v>1230</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>27</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>43</v>
+      </c>
+      <c r="M58">
+        <v>41</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="14"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="15"/>
+        <v>7.5637100000000004</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="16"/>
+        <v>374.90398800307241</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="17"/>
+        <v>49.56615047418164</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="18"/>
+        <v>1.2765957446808509</v>
       </c>
     </row>
   </sheetData>
@@ -4464,6 +4531,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4692,15 +4768,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4708,6 +4775,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4722,14 +4797,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -4520,6 +4520,70 @@
         <v>1.2765957446808509</v>
       </c>
     </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>5.5</v>
+      </c>
+      <c r="F59">
+        <v>1100</v>
+      </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <v>150</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>39</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" ref="P59" si="19">G59/H59</f>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ref="Q59" si="20">E59*1.6093</f>
+        <v>8.8511500000000005</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ref="R59" si="21">F59/3.28084</f>
+        <v>335.27998927104034</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ref="S59" si="22">R59/Q59</f>
+        <v>37.879822313602226</v>
+      </c>
+      <c r="T59">
+        <f t="shared" ref="T59" si="23">I59/E59</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N24" r:id="rId1"/>
@@ -4531,15 +4595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4768,6 +4823,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4775,14 +4839,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4797,6 +4853,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Bridestone</t>
+  </si>
+  <si>
+    <t>Heptonstall festival</t>
+  </si>
+  <si>
+    <t>Turnslack</t>
   </si>
 </sst>
 </file>
@@ -381,12 +387,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -395,7 +410,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,6 +421,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -688,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -714,7 +734,7 @@
     <col min="20" max="20" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -843,7 +863,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -910,7 +930,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -977,74 +997,76 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43443</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>1640</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>44</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>168</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <v>5</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <v>29</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="9">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="9">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="9">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="9">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1379,74 +1401,76 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>43764</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>4.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>853</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>88</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="10">
         <v>5</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
         <v>37</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="9">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="9">
         <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="9">
         <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="9">
         <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="9">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1513,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1647,7 +1671,7 @@
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1714,7 +1738,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1781,7 +1805,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1848,7 +1872,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1979,71 +2003,74 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>44549</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <v>700</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>30</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>171</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="10">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
         <v>39</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="9">
         <v>55</v>
       </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
         <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="9">
         <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="9">
         <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="9"/>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2174,7 +2201,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2241,7 +2268,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2308,7 +2335,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2503,7 +2530,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2570,7 +2597,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2634,7 +2661,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2698,7 +2725,7 @@
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2762,7 +2789,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2829,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2896,7 +2923,7 @@
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2960,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -3027,7 +3054,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -3094,7 +3121,7 @@
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3158,7 +3185,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3225,7 +3252,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3292,71 +3319,74 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>44913</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>4.3</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <v>820</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>12</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>115</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="10">
         <v>5</v>
       </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
         <v>34</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="9">
         <v>38</v>
       </c>
-      <c r="O40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
+      <c r="N40" s="9"/>
+      <c r="O40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
         <f t="shared" si="5"/>
         <v>0.10434782608695652</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="9">
         <f t="shared" si="6"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="9">
         <f t="shared" si="7"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="9">
         <f t="shared" si="9"/>
         <v>36.117970112969566</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="9">
         <f t="shared" si="8"/>
         <v>1.1627906976744187</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="9"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3423,7 +3453,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3490,7 +3520,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3554,7 +3584,7 @@
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3621,7 +3651,7 @@
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3688,7 +3718,7 @@
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3752,7 +3782,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -3816,7 +3846,7 @@
         <v>1.2941176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45017</v>
       </c>
@@ -3880,7 +3910,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45024</v>
       </c>
@@ -3944,7 +3974,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45038</v>
       </c>
@@ -4008,7 +4038,7 @@
         <v>1.0434782608695652</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45047</v>
       </c>
@@ -4072,7 +4102,7 @@
         <v>1.044776119402985</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45050</v>
       </c>
@@ -4136,7 +4166,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45055</v>
       </c>
@@ -4200,7 +4230,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45059</v>
       </c>
@@ -4264,7 +4294,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45066</v>
       </c>
@@ -4328,7 +4358,7 @@
         <v>1.5384615384615383</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45071</v>
       </c>
@@ -4392,7 +4422,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45085</v>
       </c>
@@ -4456,7 +4486,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45090</v>
       </c>
@@ -4520,7 +4550,7 @@
         <v>1.2765957446808509</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45092</v>
       </c>
@@ -4564,25 +4594,158 @@
         <v>0</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" ref="P59" si="19">G59/H59</f>
+        <f t="shared" ref="P59:P60" si="19">G59/H59</f>
         <v>0.11333333333333333</v>
       </c>
       <c r="Q59">
-        <f t="shared" ref="Q59" si="20">E59*1.6093</f>
+        <f t="shared" ref="Q59:Q60" si="20">E59*1.6093</f>
         <v>8.8511500000000005</v>
       </c>
       <c r="R59">
-        <f t="shared" ref="R59" si="21">F59/3.28084</f>
+        <f t="shared" ref="R59:R60" si="21">F59/3.28084</f>
         <v>335.27998927104034</v>
       </c>
       <c r="S59">
-        <f t="shared" ref="S59" si="22">R59/Q59</f>
+        <f t="shared" ref="S59:S60" si="22">R59/Q59</f>
         <v>37.879822313602226</v>
       </c>
       <c r="T59">
-        <f t="shared" ref="T59" si="23">I59/E59</f>
+        <f t="shared" ref="T59:T60" si="23">I59/E59</f>
         <v>0.90909090909090906</v>
       </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>5.9</v>
+      </c>
+      <c r="F60">
+        <v>1640</v>
+      </c>
+      <c r="G60">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>102</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <v>37</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="19"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="20"/>
+        <v>9.4948700000000006</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="21"/>
+        <v>499.87198400409653</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="22"/>
+        <v>52.646532707040379</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="23"/>
+        <v>0.84745762711864403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>2001</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>76</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <v>32</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" ref="P61" si="24">G61/H61</f>
+        <v>0.11842105263157894</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ref="Q61" si="25">E61*1.6093</f>
+        <v>12.8744</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ref="R61" si="26">F61/3.28084</f>
+        <v>609.90478048304703</v>
+      </c>
+      <c r="S61">
+        <f t="shared" ref="S61" si="27">R61/Q61</f>
+        <v>47.373452780948789</v>
+      </c>
+      <c r="T61">
+        <f t="shared" ref="T61" si="28">I61/E61</f>
+        <v>0.625</v>
+      </c>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I62" s="3"/>
+      <c r="V62" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4595,6 +4758,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4823,15 +4995,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4839,6 +5002,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4853,14 +5024,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -710,9 +710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" ref="P61" si="24">G61/H61</f>
+        <f t="shared" ref="P61:P62" si="24">G61/H61</f>
         <v>0.11842105263157894</v>
       </c>
       <c r="Q61">
@@ -4738,13 +4738,74 @@
         <v>47.373452780948789</v>
       </c>
       <c r="T61">
-        <f t="shared" ref="T61" si="28">I61/E61</f>
+        <f t="shared" ref="T61:T62" si="28">I61/E61</f>
         <v>0.625</v>
       </c>
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I62" s="3"/>
+      <c r="A62" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>1001</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>54</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>35</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="24"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ref="Q62" si="29">E62*1.6093</f>
+        <v>8.0465</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ref="R62" si="30">F62/3.28084</f>
+        <v>305.10479023664669</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ref="S62" si="31">R62/Q62</f>
+        <v>37.917702135915825</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ref="T62" si="32">I62/E62</f>
+        <v>1</v>
+      </c>
       <c r="V62" s="5"/>
     </row>
   </sheetData>
@@ -4758,15 +4819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -4995,6 +5047,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5002,14 +5063,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5024,6 +5077,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -708,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S62" sqref="S62"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" ref="P61:P62" si="24">G61/H61</f>
+        <f t="shared" ref="P61:P63" si="24">G61/H61</f>
         <v>0.11842105263157894</v>
       </c>
       <c r="Q61">
@@ -4738,7 +4738,7 @@
         <v>47.373452780948789</v>
       </c>
       <c r="T61">
-        <f t="shared" ref="T61:T62" si="28">I61/E61</f>
+        <f t="shared" ref="T61" si="28">I61/E61</f>
         <v>0.625</v>
       </c>
       <c r="V61" s="5"/>
@@ -4803,10 +4803,74 @@
         <v>37.917702135915825</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62" si="32">I62/E62</f>
+        <f t="shared" ref="T62:T63" si="32">I62/E62</f>
         <v>1</v>
       </c>
       <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F63">
+        <v>1099</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>112</v>
+      </c>
+      <c r="I63" s="3">
+        <v>5</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>59</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="24"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63" si="33">E63*1.6093</f>
+        <v>14.161840000000002</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63" si="34">F63/3.28084</f>
+        <v>334.97518928079393</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63" si="35">R63/Q63</f>
+        <v>23.653366319686842</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="32"/>
+        <v>0.56818181818181812</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4819,6 +4883,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -5047,22 +5126,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5079,29 +5168,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>% of finishers</t>
-  </si>
-  <si>
-    <t>The Stoop</t>
   </si>
   <si>
     <t>FRA discount</t>
@@ -711,8 +708,8 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -763,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -778,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P1" t="s">
         <v>54</v>
@@ -793,7 +790,7 @@
         <v>53</v>
       </c>
       <c r="T1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -804,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -871,7 +868,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -938,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1005,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>19</v>
@@ -1074,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1141,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1208,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -1275,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1342,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1409,7 +1406,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -1478,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1545,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1612,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1679,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1746,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1813,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1880,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -1947,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -2008,10 +2005,10 @@
         <v>44549</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>19</v>
@@ -2075,10 +2072,10 @@
         <v>44583</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -2139,10 +2136,10 @@
         <v>44591</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -2175,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2206,10 +2203,10 @@
         <v>44598</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -2242,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2273,13 +2270,13 @@
         <v>44611</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
       </c>
       <c r="E24">
         <v>7.5</v>
@@ -2309,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2340,10 +2337,10 @@
         <v>44626</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2376,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -2407,10 +2404,10 @@
         <v>44640</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -2474,7 +2471,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -2535,10 +2532,10 @@
         <v>44691</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -2571,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -2605,7 +2602,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -2666,10 +2663,10 @@
         <v>44709</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -2730,10 +2727,10 @@
         <v>44728</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -2794,10 +2791,10 @@
         <v>44775</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -2830,7 +2827,7 @@
         <v>48</v>
       </c>
       <c r="N32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2864,7 +2861,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -2897,7 +2894,7 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2928,10 +2925,10 @@
         <v>44786</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2992,10 +2989,10 @@
         <v>44813</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -3028,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -3059,10 +3056,10 @@
         <v>44857</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -3095,7 +3092,7 @@
         <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -3129,7 +3126,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -3193,7 +3190,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -3226,7 +3223,7 @@
         <v>57</v>
       </c>
       <c r="N38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -3260,7 +3257,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
@@ -3293,7 +3290,7 @@
         <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -3324,10 +3321,10 @@
         <v>44913</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>19</v>
@@ -3391,10 +3388,10 @@
         <v>44940</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -3427,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="N41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -3458,10 +3455,10 @@
         <v>44961</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
@@ -3494,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -3525,13 +3522,13 @@
         <v>44968</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>11.5</v>
@@ -3589,13 +3586,13 @@
         <v>44975</v>
       </c>
       <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
         <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
       </c>
       <c r="E44">
         <v>8.1</v>
@@ -3625,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -3656,10 +3653,10 @@
         <v>44982</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -3692,7 +3689,7 @@
         <v>26</v>
       </c>
       <c r="N45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -3723,10 +3720,10 @@
         <v>44990</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -3787,13 +3784,13 @@
         <v>45013</v>
       </c>
       <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>8.5</v>
@@ -3851,10 +3848,10 @@
         <v>45017</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -3915,10 +3912,10 @@
         <v>45024</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3979,13 +3976,13 @@
         <v>45038</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <v>11.5</v>
@@ -4046,7 +4043,7 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -4110,7 +4107,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -4171,10 +4168,10 @@
         <v>45055</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -4235,13 +4232,13 @@
         <v>45059</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54">
         <v>9</v>
@@ -4299,10 +4296,10 @@
         <v>45066</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -4366,7 +4363,7 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -4430,7 +4427,7 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -4491,10 +4488,10 @@
         <v>45090</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -4555,10 +4552,10 @@
         <v>45092</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -4619,10 +4616,10 @@
         <v>45108</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -4683,10 +4680,10 @@
         <v>45136</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -4748,10 +4745,10 @@
         <v>45139</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -4816,7 +4813,7 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
         <v>46</v>
@@ -4883,18 +4880,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5127,6 +5124,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5139,14 +5144,6 @@
     <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Turnslack</t>
+  </si>
+  <si>
+    <t>Burnsall Classic</t>
+  </si>
+  <si>
+    <t>Great Whernside</t>
   </si>
 </sst>
 </file>
@@ -705,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4800,7 +4806,7 @@
         <v>37.917702135915825</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T63" si="32">I62/E62</f>
+        <f t="shared" ref="T62:T65" si="32">I62/E62</f>
         <v>1</v>
       </c>
       <c r="V62" s="5"/>
@@ -4853,20 +4859,148 @@
         <v>0.125</v>
       </c>
       <c r="Q63">
-        <f t="shared" ref="Q63" si="33">E63*1.6093</f>
+        <f t="shared" ref="Q63:Q65" si="33">E63*1.6093</f>
         <v>14.161840000000002</v>
       </c>
       <c r="R63">
-        <f t="shared" ref="R63" si="34">F63/3.28084</f>
+        <f t="shared" ref="R63:R65" si="34">F63/3.28084</f>
         <v>334.97518928079393</v>
       </c>
       <c r="S63">
-        <f t="shared" ref="S63" si="35">R63/Q63</f>
+        <f t="shared" ref="S63:S65" si="35">R63/Q63</f>
         <v>23.653366319686842</v>
       </c>
       <c r="T63">
         <f t="shared" si="32"/>
         <v>0.56818181818181812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1.5</v>
+      </c>
+      <c r="F64">
+        <v>899</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>76</v>
+      </c>
+      <c r="I64" s="3">
+        <v>6</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>35</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" ref="P64:P65" si="36">G64/H64</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="33"/>
+        <v>2.4139499999999998</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="34"/>
+        <v>274.01519123151388</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="35"/>
+        <v>113.51320086642801</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>1558</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>66</v>
+      </c>
+      <c r="I65" s="3">
+        <v>8</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>39</v>
+      </c>
+      <c r="M65">
+        <v>39</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="36"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="33"/>
+        <v>6.4371999999999998</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="34"/>
+        <v>474.87838480389166</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="35"/>
+        <v>73.770953955740339</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="32"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4880,18 +5014,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5124,14 +5258,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5144,6 +5270,14 @@
     <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -711,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4806,7 @@
         <v>37.917702135915825</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T65" si="32">I62/E62</f>
+        <f t="shared" ref="T62:T66" si="32">I62/E62</f>
         <v>1</v>
       </c>
       <c r="V62" s="5"/>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" ref="P64:P65" si="36">G64/H64</f>
+        <f t="shared" ref="P64:P66" si="36">G64/H64</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="Q64">
@@ -5002,6 +5002,73 @@
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>6.2</v>
+      </c>
+      <c r="F66">
+        <v>820</v>
+      </c>
+      <c r="G66">
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>197</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>48</v>
+      </c>
+      <c r="M66">
+        <v>16</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="36"/>
+        <v>4.060913705583756E-2</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66" si="37">E66*1.6093</f>
+        <v>9.9776600000000002</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66" si="38">F66/3.28084</f>
+        <v>249.93599200204827</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66" si="39">R66/Q66</f>
+        <v>25.049559917059536</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="32"/>
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I67" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5014,18 +5081,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5258,6 +5325,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5270,14 +5345,6 @@
     <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -714,8 +714,8 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5068,7 +5068,68 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I67" s="5"/>
+      <c r="A67" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>6.2</v>
+      </c>
+      <c r="F67">
+        <v>1150</v>
+      </c>
+      <c r="G67">
+        <v>17</v>
+      </c>
+      <c r="H67">
+        <v>142</v>
+      </c>
+      <c r="I67" s="3">
+        <v>6</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>51</v>
+      </c>
+      <c r="M67">
+        <v>35</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" ref="P67" si="40">G67/H67</f>
+        <v>0.11971830985915492</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="41">E67*1.6093</f>
+        <v>9.9776600000000002</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67" si="42">F67/3.28084</f>
+        <v>350.51998878336036</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67" si="43">R67/Q67</f>
+        <v>35.130480371485937</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67" si="44">I67/E67</f>
+        <v>0.96774193548387089</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5081,18 +5142,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5325,14 +5386,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5345,6 +5398,14 @@
     <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -351,12 +346,15 @@
   </si>
   <si>
     <t>Great Whernside</t>
+  </si>
+  <si>
+    <t>Dunnerdale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -703,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,33 +709,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" customWidth="1"/>
-    <col min="11" max="11" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.7265625" customWidth="1"/>
-    <col min="20" max="20" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -866,7 +864,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -933,7 +931,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>43443</v>
       </c>
@@ -1069,7 +1067,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>43764</v>
       </c>
@@ -1473,7 +1471,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1741,7 +1739,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1875,7 +1873,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>44549</v>
       </c>
@@ -2073,7 +2071,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2600,7 +2598,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2728,7 +2726,7 @@
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2926,7 +2924,7 @@
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2990,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -3057,7 +3055,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>44913</v>
       </c>
@@ -3389,7 +3387,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="12"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>1.2941176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45017</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45024</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -3977,7 +3975,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45038</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>1.0434782608695652</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45047</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>1.044776119402985</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45050</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45055</v>
       </c>
@@ -4233,7 +4231,7 @@
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45059</v>
       </c>
@@ -4297,7 +4295,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45066</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>1.5384615384615383</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45071</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45085</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45090</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>1.2765957446808509</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45092</v>
       </c>
@@ -4617,7 +4615,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45108</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45136</v>
       </c>
@@ -4746,7 +4744,7 @@
       </c>
       <c r="V61" s="5"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45139</v>
       </c>
@@ -4811,7 +4809,7 @@
       </c>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45144</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45157</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45185</v>
       </c>
@@ -5003,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45214</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45234</v>
       </c>
@@ -5129,6 +5127,134 @@
       <c r="T67">
         <f t="shared" ref="T67" si="44">I67/E67</f>
         <v>0.96774193548387089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>1804</v>
+      </c>
+      <c r="G68">
+        <v>59</v>
+      </c>
+      <c r="H68">
+        <v>298</v>
+      </c>
+      <c r="I68" s="3">
+        <v>12</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>49</v>
+      </c>
+      <c r="M68">
+        <v>34</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" ref="P68:P69" si="45">G68/H68</f>
+        <v>0.19798657718120805</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q69" si="46">E68*1.6093</f>
+        <v>8.0465</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R69" si="47">F68/3.28084</f>
+        <v>549.85918240450621</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S69" si="48">R68/Q68</f>
+        <v>68.335199453738426</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T69" si="49">I68/E68</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>16.8</v>
+      </c>
+      <c r="F69">
+        <v>4833</v>
+      </c>
+      <c r="G69">
+        <v>33</v>
+      </c>
+      <c r="H69">
+        <v>303</v>
+      </c>
+      <c r="I69" s="3">
+        <v>10</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>58</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="45"/>
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="46"/>
+        <v>27.036239999999999</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="47"/>
+        <v>1473.0983528608526</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="48"/>
+        <v>54.48606584572606</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="49"/>
+        <v>0.59523809523809523</v>
       </c>
     </row>
   </sheetData>
@@ -5142,21 +5268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -5385,32 +5496,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5427,4 +5528,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm16jdc\Documents\GitHub\bits_and_bobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -349,12 +354,21 @@
   </si>
   <si>
     <t>Dunnerdale</t>
+  </si>
+  <si>
+    <t>Time of day</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>evening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -701,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,33 +723,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" customWidth="1"/>
+    <col min="12" max="12" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,58 +761,61 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -808,63 +826,66 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2500</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="0">G2/H2</f>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q33" si="0">H2/I2</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="1">E2*1.6093</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R33" si="1">F2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R33" si="2">F2/3.28084</f>
+      <c r="S2">
+        <f t="shared" ref="S2:S33" si="2">G2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
-      <c r="S2">
-        <f>R2/Q2</f>
+      <c r="T2">
+        <f>S2/R2</f>
         <v>105.22172864889508</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T33" si="3">I2/E2</f>
+      <c r="U2">
+        <f t="shared" ref="U2:U33" si="3">J2/F2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -875,63 +896,66 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4452</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>70</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S38" si="4">R3/Q3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T38" si="4">S3/R3</f>
         <v>44.379202352672927</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -942,63 +966,66 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>820</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>42</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>248</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>5</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43443</v>
       </c>
@@ -1009,65 +1036,68 @@
         <v>93</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>1640</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>44</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>168</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>29</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="R5" s="9">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1078,63 +1108,66 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>161</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>56</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1145,63 +1178,66 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>38</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>58</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>45</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1212,63 +1248,66 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>550</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>79</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>39</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1279,63 +1318,66 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>700</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>51</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>23</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1346,63 +1388,66 @@
         <v>93</v>
       </c>
       <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>820</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>36</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>180</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>54</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43764</v>
       </c>
@@ -1413,65 +1458,68 @@
         <v>93</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>4.3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>853</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>11</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>88</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>5</v>
       </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>37</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="9">
         <v>9</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
+      <c r="P11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
-      <c r="S11" s="9">
+      <c r="T11" s="9">
         <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1482,63 +1530,66 @@
         <v>94</v>
       </c>
       <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1800</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>55</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>145</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>49</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>27</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1549,63 +1600,66 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1100</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>38</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>139</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>56</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>17</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1616,63 +1670,66 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1100</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>97</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1683,63 +1740,66 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6.2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>820</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>31</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>138</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>51</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>54</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1750,63 +1810,66 @@
         <v>93</v>
       </c>
       <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1150</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>24</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>121</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>55</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>13</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1817,63 +1880,66 @@
         <v>93</v>
       </c>
       <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1378</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>19</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>96</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>23</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>6</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -1884,63 +1950,66 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>16.8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4833</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>71</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>342</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>25</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>50</v>
       </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -1951,60 +2020,63 @@
         <v>93</v>
       </c>
       <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1640</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>172</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>58</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>40</v>
       </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44549</v>
       </c>
@@ -2015,63 +2087,66 @@
         <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>700</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>30</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>171</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="10">
         <v>5</v>
       </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>0</v>
       </c>
       <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
         <v>39</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
         <v>55</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
         <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="R20" s="9">
         <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="S20" s="9">
+      <c r="T20" s="9">
         <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2082,60 +2157,63 @@
         <v>93</v>
       </c>
       <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1394</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>16</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>84</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>7.85</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>18</v>
       </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2146,63 +2224,66 @@
         <v>94</v>
       </c>
       <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4.7</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>890</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>22</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>142</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>36</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>21</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>58</v>
       </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="0"/>
         <v>0.15492957746478872</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2213,63 +2294,66 @@
         <v>93</v>
       </c>
       <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>19.3</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3642</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>29</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>148</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>2.5</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>23</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>24</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>61</v>
       </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2280,63 +2364,66 @@
         <v>93</v>
       </c>
       <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>7.5</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>27</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>185</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>15</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>54</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2347,63 +2434,66 @@
         <v>94</v>
       </c>
       <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1316</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>61</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>316</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>8</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>49</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>43</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>67</v>
       </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2414,60 +2504,63 @@
         <v>93</v>
       </c>
       <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>15.4</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3169</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>54</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>248</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>25</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>26</v>
       </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2478,60 +2571,63 @@
         <v>94</v>
       </c>
       <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1100</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>41</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>146</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>54</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>19</v>
       </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2542,63 +2638,66 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5.2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1148</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>31</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>185</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>7</v>
       </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>48</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>20</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O28" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2609,60 +2708,63 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6.2</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1150</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>18</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>110</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>52</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>37</v>
       </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2673,60 +2775,63 @@
         <v>92</v>
       </c>
       <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
         <v>40</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>14.9</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4386</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>62</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>135</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>12</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>11</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10</v>
       </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2737,60 +2842,63 @@
         <v>94</v>
       </c>
       <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5.5</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1100</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>21</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>169</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>5</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>39</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>41</v>
       </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2801,63 +2909,66 @@
         <v>93</v>
       </c>
       <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>70</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>36</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>48</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>72</v>
       </c>
-      <c r="O32" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -2868,63 +2979,66 @@
         <v>94</v>
       </c>
       <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
         <v>46</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1099</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>13</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>126</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>3</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>59</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>73</v>
       </c>
-      <c r="O33" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -2935,60 +3049,63 @@
         <v>95</v>
       </c>
       <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1476</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>124</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>253</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>10</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>2</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>54</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>23</v>
       </c>
-      <c r="O34" t="b">
+      <c r="P34" t="b">
         <v>1</v>
       </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P56" si="5">G34/H34</f>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34:Q56" si="5">H34/I34</f>
         <v>0.49011857707509882</v>
       </c>
-      <c r="Q34">
-        <f t="shared" ref="Q34:Q56" si="6">E34*1.6093</f>
+      <c r="R34">
+        <f t="shared" ref="R34:R56" si="6">F34*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="R34">
-        <f t="shared" ref="R34:R56" si="7">F34/3.28084</f>
+      <c r="S34">
+        <f t="shared" ref="S34:S56" si="7">G34/3.28084</f>
         <v>449.88478560368685</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
-      <c r="T34">
-        <f t="shared" ref="T34:T51" si="8">I34/E34</f>
+      <c r="U34">
+        <f t="shared" ref="U34:U51" si="8">J34/F34</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -2999,63 +3116,66 @@
         <v>93</v>
       </c>
       <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
         <v>42</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>14.9</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2690</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>56</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>2</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>23</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>76</v>
       </c>
-      <c r="O35" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="6"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="7"/>
         <v>819.91197376281684</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="8"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -3066,63 +3186,66 @@
         <v>93</v>
       </c>
       <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>6.6</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1540</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>8</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>72</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>8</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>2</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>11</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>45</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>79</v>
       </c>
-      <c r="O36" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
         <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="6"/>
         <v>10.621379999999998</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="7"/>
         <v>469.39198497945648</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="8"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3133,60 +3256,63 @@
         <v>93</v>
       </c>
       <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6.2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1150</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>19</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>144</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>6</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>53</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>20</v>
       </c>
-      <c r="O37" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <f t="shared" si="5"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="8"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3197,63 +3323,66 @@
         <v>93</v>
       </c>
       <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1378</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>9</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>94</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>5</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>2.5</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>22</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>57</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>80</v>
       </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" s="4">
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <f t="shared" si="5"/>
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="7"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="8"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3264,63 +3393,66 @@
         <v>93</v>
       </c>
       <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
         <v>40</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>16.8</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4833</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>153</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>350</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>10</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>26</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>21</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>81</v>
       </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <f t="shared" si="5"/>
         <v>0.43714285714285717</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <f t="shared" si="6"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="7"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="S39">
-        <f t="shared" ref="S39:S40" si="9">R39/Q39</f>
+      <c r="T39">
+        <f t="shared" ref="T39:T40" si="9">S39/R39</f>
         <v>54.48606584572606</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="8"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44913</v>
       </c>
@@ -3331,63 +3463,66 @@
         <v>93</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="9">
+      <c r="F40" s="9">
         <v>4.3</v>
       </c>
-      <c r="F40" s="9">
+      <c r="G40" s="9">
         <v>820</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>12</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>115</v>
       </c>
-      <c r="I40" s="10">
+      <c r="J40" s="10">
         <v>5</v>
       </c>
-      <c r="J40" s="12">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="K40" s="12">
         <v>0</v>
       </c>
       <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
         <v>34</v>
       </c>
-      <c r="M40" s="9">
+      <c r="N40" s="9">
         <v>38</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
+      <c r="O40" s="9"/>
+      <c r="P40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
         <f t="shared" si="5"/>
         <v>0.10434782608695652</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="R40" s="9">
         <f t="shared" si="6"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="R40" s="9">
+      <c r="S40" s="9">
         <f t="shared" si="7"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="S40" s="9">
+      <c r="T40" s="9">
         <f t="shared" si="9"/>
         <v>36.117970112969566</v>
       </c>
-      <c r="T40" s="9">
+      <c r="U40" s="9">
         <f t="shared" si="8"/>
         <v>1.1627906976744187</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="12"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="9"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3398,63 +3533,66 @@
         <v>92</v>
       </c>
       <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1640</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>49</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>236</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>11</v>
       </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>0</v>
       </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>49</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>11</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>85</v>
       </c>
-      <c r="O41" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="5"/>
         <v>0.2076271186440678</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="7"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="S41">
-        <f t="shared" ref="S41:S49" si="10">R41/Q41</f>
+      <c r="T41">
+        <f t="shared" ref="T41:T49" si="10">S41/R41</f>
         <v>62.122908594307653</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3465,63 +3603,66 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
         <v>42</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>19.3</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3642</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>24</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>142</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>3</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>86</v>
       </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
         <f t="shared" si="5"/>
         <v>0.16901408450704225</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="6"/>
         <v>31.05949</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="7"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="10"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="8"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3532,60 +3673,63 @@
         <v>97</v>
       </c>
       <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
         <v>63</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>11.5</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>4501</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>152</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>307</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>7</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>8</v>
       </c>
-      <c r="O43" t="b">
+      <c r="P43" t="b">
         <v>1</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <f t="shared" si="5"/>
         <v>0.49511400651465798</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="7"/>
         <v>1371.9047560990477</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="10"/>
         <v>74.129165318923313</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="8"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3596,63 +3740,66 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
         <v>63</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>8.1</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2165</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>13</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>189</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>17</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>16</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>87</v>
       </c>
-      <c r="O44" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" s="4">
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <f t="shared" si="5"/>
         <v>6.8783068783068779E-2</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <f t="shared" si="6"/>
         <v>13.035329999999998</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="7"/>
         <v>659.89197888345666</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="10"/>
         <v>50.623342783301744</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="8"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3663,63 +3810,66 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
         <v>14</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1509</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>33</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>368</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>1</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>15</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>26</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>89</v>
       </c>
-      <c r="O45" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <f t="shared" si="5"/>
         <v>8.9673913043478257E-2</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="7"/>
         <v>459.94318528181805</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="10"/>
         <v>30.73153326409987</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="8"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3730,60 +3880,63 @@
         <v>94</v>
       </c>
       <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>5</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1316</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>45</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>246</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>45</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
         <f t="shared" si="5"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="7"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="10"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -3794,60 +3947,63 @@
         <v>92</v>
       </c>
       <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
         <v>63</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>8.5</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>3002</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>62</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>275</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>1</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>35</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>31</v>
       </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
         <f t="shared" si="5"/>
         <v>0.22545454545454546</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <f t="shared" si="6"/>
         <v>13.67905</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="7"/>
         <v>915.00957071969378</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="10"/>
         <v>66.891309756137588</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="8"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45017</v>
       </c>
@@ -3858,60 +4014,63 @@
         <v>93</v>
       </c>
       <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>4.5</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1499</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>31</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>176</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>38</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>24</v>
       </c>
-      <c r="O48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <f t="shared" si="5"/>
         <v>0.17613636363636365</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <f t="shared" si="6"/>
         <v>7.2418499999999995</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="7"/>
         <v>456.89518537935407</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="10"/>
         <v>63.090948497877491</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="8"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45024</v>
       </c>
@@ -3922,60 +4081,63 @@
         <v>93</v>
       </c>
       <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
         <v>14</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1250</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>174</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>51</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>6</v>
       </c>
-      <c r="O49" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
         <f t="shared" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="7"/>
         <v>380.99998780800041</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="10"/>
         <v>33.82126992285913</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45038</v>
       </c>
@@ -3986,60 +4148,63 @@
         <v>92</v>
       </c>
       <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
         <v>63</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>11.5</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>3609</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>91</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>287</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>12</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>3</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>2</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>10</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>44</v>
       </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
         <f t="shared" si="5"/>
         <v>0.31707317073170732</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="7"/>
         <v>1100.0231647992587</v>
       </c>
-      <c r="S50">
-        <f t="shared" ref="S50:S51" si="11">R50/Q50</f>
+      <c r="T50">
+        <f t="shared" ref="T50:T51" si="11">S50/R50</f>
         <v>59.438382056430619</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="8"/>
         <v>1.0434782608695652</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45047</v>
       </c>
@@ -4050,60 +4215,63 @@
         <v>93</v>
       </c>
       <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
         <v>14</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>6.7</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>968</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>16</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>207</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>7</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>3</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
       <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>55</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>1</v>
       </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <f t="shared" si="5"/>
         <v>7.7294685990338161E-2</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <f t="shared" si="6"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="7"/>
         <v>295.0463905585155</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="11"/>
         <v>27.363931342960413</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="8"/>
         <v>1.044776119402985</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45050</v>
       </c>
@@ -4114,60 +4282,63 @@
         <v>94</v>
       </c>
       <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>7</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1100</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>21</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>141</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>51</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>31</v>
       </c>
-      <c r="O52" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" s="4">
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
         <f t="shared" si="5"/>
         <v>0.14893617021276595</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="7"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="S52">
-        <f t="shared" ref="S52:S56" si="12">R52/Q52</f>
+      <c r="T52">
+        <f t="shared" ref="T52:T56" si="12">S52/R52</f>
         <v>29.762717532116032</v>
       </c>
-      <c r="T52">
-        <f t="shared" ref="T52:T56" si="13">I52/E52</f>
+      <c r="U52">
+        <f t="shared" ref="U52:U56" si="13">J52/F52</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45055</v>
       </c>
@@ -4178,60 +4349,63 @@
         <v>94</v>
       </c>
       <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
         <v>19</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>5.2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1148</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>24</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>150</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>7</v>
       </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>47</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>41</v>
       </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
         <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="7"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f t="shared" si="12"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="13"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45059</v>
       </c>
@@ -4242,60 +4416,63 @@
         <v>92</v>
       </c>
       <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
         <v>63</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>9</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2999</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>246</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>449</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>58</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>30</v>
       </c>
-      <c r="O54" t="b">
+      <c r="P54" t="b">
         <v>1</v>
       </c>
-      <c r="P54" s="4">
+      <c r="Q54" s="4">
         <f t="shared" si="5"/>
         <v>0.54788418708240538</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <f t="shared" si="6"/>
         <v>14.483699999999999</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="7"/>
         <v>914.0951707489545</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="12"/>
         <v>63.111992843607268</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="13"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45066</v>
       </c>
@@ -4306,60 +4483,63 @@
         <v>94</v>
       </c>
       <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
         <v>19</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>5.2</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1200</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>21</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>117</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>8</v>
       </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>46</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>24</v>
       </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
         <f t="shared" si="5"/>
         <v>0.17948717948717949</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="7"/>
         <v>365.75998829568039</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f t="shared" si="12"/>
         <v>43.707487284925641</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="13"/>
         <v>1.5384615384615383</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45071</v>
       </c>
@@ -4370,60 +4550,63 @@
         <v>93</v>
       </c>
       <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
         <v>14</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>6.2</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1150</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>72</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>6</v>
       </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>51</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>16</v>
       </c>
-      <c r="O56" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" s="4">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
         <f t="shared" si="5"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f t="shared" si="12"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="13"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45085</v>
       </c>
@@ -4434,60 +4617,63 @@
         <v>94</v>
       </c>
       <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
         <v>10</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>5</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1800</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>5</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>48</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>44</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>41</v>
       </c>
-      <c r="O57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <f t="shared" ref="P57:P58" si="14">G57/H57</f>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" ref="Q57:Q58" si="14">H57/I57</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="Q57">
-        <f t="shared" ref="Q57:Q58" si="15">E57*1.6093</f>
+      <c r="R57">
+        <f t="shared" ref="R57:R58" si="15">F57*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="R57">
-        <f t="shared" ref="R57:R58" si="16">F57/3.28084</f>
+      <c r="S57">
+        <f t="shared" ref="S57:S58" si="16">G57/3.28084</f>
         <v>548.63998244352058</v>
       </c>
-      <c r="S57">
-        <f t="shared" ref="S57:S58" si="17">R57/Q57</f>
+      <c r="T57">
+        <f t="shared" ref="T57:T58" si="17">S57/R57</f>
         <v>68.183680164484002</v>
       </c>
-      <c r="T57">
-        <f t="shared" ref="T57:T58" si="18">I57/E57</f>
+      <c r="U57">
+        <f t="shared" ref="U57:U58" si="18">J57/F57</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45090</v>
       </c>
@@ -4498,60 +4684,63 @@
         <v>93</v>
       </c>
       <c r="D58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>4.7</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1230</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>7</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>27</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
       <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>43</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>41</v>
       </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" s="4">
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
         <f t="shared" si="14"/>
         <v>0.25925925925925924</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <f t="shared" si="15"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="16"/>
         <v>374.90398800307241</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <f t="shared" si="17"/>
         <v>49.56615047418164</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="18"/>
         <v>1.2765957446808509</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45092</v>
       </c>
@@ -4562,60 +4751,63 @@
         <v>94</v>
       </c>
       <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>5.5</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1100</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>17</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>150</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>39</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>14</v>
       </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" ref="P59:P60" si="19">G59/H59</f>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" ref="Q59:Q60" si="19">H59/I59</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="Q59">
-        <f t="shared" ref="Q59:Q60" si="20">E59*1.6093</f>
+      <c r="R59">
+        <f t="shared" ref="R59:R60" si="20">F59*1.6093</f>
         <v>8.8511500000000005</v>
       </c>
-      <c r="R59">
-        <f t="shared" ref="R59:R60" si="21">F59/3.28084</f>
+      <c r="S59">
+        <f t="shared" ref="S59:S60" si="21">G59/3.28084</f>
         <v>335.27998927104034</v>
       </c>
-      <c r="S59">
-        <f t="shared" ref="S59:S60" si="22">R59/Q59</f>
+      <c r="T59">
+        <f t="shared" ref="T59:T60" si="22">S59/R59</f>
         <v>37.879822313602226</v>
       </c>
-      <c r="T59">
-        <f t="shared" ref="T59:T60" si="23">I59/E59</f>
+      <c r="U59">
+        <f t="shared" ref="U59:U60" si="23">J59/F59</f>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45108</v>
       </c>
@@ -4626,60 +4818,63 @@
         <v>93</v>
       </c>
       <c r="D60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>5.9</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1640</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>21</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>102</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>57</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>37</v>
       </c>
-      <c r="O60" t="b">
-        <v>0</v>
-      </c>
-      <c r="P60" s="4">
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
         <f t="shared" si="19"/>
         <v>0.20588235294117646</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <f t="shared" si="20"/>
         <v>9.4948700000000006</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f t="shared" si="21"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f t="shared" si="22"/>
         <v>52.646532707040379</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="23"/>
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45136</v>
       </c>
@@ -4690,61 +4885,64 @@
         <v>93</v>
       </c>
       <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
         <v>14</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>9</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>76</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>1</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>20</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>32</v>
       </c>
-      <c r="O61" t="b">
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <f t="shared" ref="P61:P63" si="24">G61/H61</f>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" ref="Q61:Q63" si="24">H61/I61</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="Q61">
-        <f t="shared" ref="Q61" si="25">E61*1.6093</f>
+      <c r="R61">
+        <f t="shared" ref="R61" si="25">F61*1.6093</f>
         <v>12.8744</v>
       </c>
-      <c r="R61">
-        <f t="shared" ref="R61" si="26">F61/3.28084</f>
+      <c r="S61">
+        <f t="shared" ref="S61" si="26">G61/3.28084</f>
         <v>609.90478048304703</v>
       </c>
-      <c r="S61">
-        <f t="shared" ref="S61" si="27">R61/Q61</f>
+      <c r="T61">
+        <f t="shared" ref="T61" si="27">S61/R61</f>
         <v>47.373452780948789</v>
       </c>
-      <c r="T61">
-        <f t="shared" ref="T61" si="28">I61/E61</f>
+      <c r="U61">
+        <f t="shared" ref="U61" si="28">J61/F61</f>
         <v>0.625</v>
       </c>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45139</v>
       </c>
@@ -4755,61 +4953,64 @@
         <v>93</v>
       </c>
       <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
         <v>19</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>5</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>5</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>54</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>35</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="O62" t="b">
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
         <f t="shared" si="24"/>
         <v>9.2592592592592587E-2</v>
       </c>
-      <c r="Q62">
-        <f t="shared" ref="Q62" si="29">E62*1.6093</f>
+      <c r="R62">
+        <f t="shared" ref="R62" si="29">F62*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="R62">
-        <f t="shared" ref="R62" si="30">F62/3.28084</f>
+      <c r="S62">
+        <f t="shared" ref="S62" si="30">G62/3.28084</f>
         <v>305.10479023664669</v>
       </c>
-      <c r="S62">
-        <f t="shared" ref="S62" si="31">R62/Q62</f>
+      <c r="T62">
+        <f t="shared" ref="T62" si="31">S62/R62</f>
         <v>37.917702135915825</v>
       </c>
-      <c r="T62">
-        <f t="shared" ref="T62:T66" si="32">I62/E62</f>
+      <c r="U62">
+        <f t="shared" ref="U62:U66" si="32">J62/F62</f>
         <v>1</v>
       </c>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45144</v>
       </c>
@@ -4820,60 +5021,63 @@
         <v>94</v>
       </c>
       <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
         <v>46</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1099</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>14</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>112</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>5</v>
       </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>1</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>3</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>59</v>
       </c>
-      <c r="O63" t="b">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
         <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="Q63">
-        <f t="shared" ref="Q63:Q65" si="33">E63*1.6093</f>
+      <c r="R63">
+        <f t="shared" ref="R63:R65" si="33">F63*1.6093</f>
         <v>14.161840000000002</v>
       </c>
-      <c r="R63">
-        <f t="shared" ref="R63:R65" si="34">F63/3.28084</f>
+      <c r="S63">
+        <f t="shared" ref="S63:S65" si="34">G63/3.28084</f>
         <v>334.97518928079393</v>
       </c>
-      <c r="S63">
-        <f t="shared" ref="S63:S65" si="35">R63/Q63</f>
+      <c r="T63">
+        <f t="shared" ref="T63:T65" si="35">S63/R63</f>
         <v>23.653366319686842</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <f t="shared" si="32"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45157</v>
       </c>
@@ -4884,60 +5088,63 @@
         <v>94</v>
       </c>
       <c r="D64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1.5</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>899</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>16</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>76</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J64" s="3">
         <v>6</v>
       </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>19</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>35</v>
       </c>
-      <c r="O64" t="b">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <f t="shared" ref="P64:P66" si="36">G64/H64</f>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" ref="Q64:Q66" si="36">H64/I64</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <f t="shared" si="33"/>
         <v>2.4139499999999998</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f t="shared" si="34"/>
         <v>274.01519123151388</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f t="shared" si="35"/>
         <v>113.51320086642801</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45185</v>
       </c>
@@ -4948,60 +5155,63 @@
         <v>94</v>
       </c>
       <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
         <v>10</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1558</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>11</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>66</v>
       </c>
-      <c r="I65" s="3">
+      <c r="J65" s="3">
         <v>8</v>
       </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>39</v>
       </c>
-      <c r="O65" t="b">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
+      <c r="N65">
+        <v>39</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
         <f t="shared" si="36"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <f t="shared" si="33"/>
         <v>6.4371999999999998</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f t="shared" si="34"/>
         <v>474.87838480389166</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f t="shared" si="35"/>
         <v>73.770953955740339</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45214</v>
       </c>
@@ -5012,60 +5222,63 @@
         <v>93</v>
       </c>
       <c r="D66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
         <v>14</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>6.2</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>820</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>8</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>197</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>48</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>16</v>
       </c>
-      <c r="O66" t="b">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
         <f t="shared" si="36"/>
         <v>4.060913705583756E-2</v>
       </c>
-      <c r="Q66">
-        <f t="shared" ref="Q66" si="37">E66*1.6093</f>
+      <c r="R66">
+        <f t="shared" ref="R66" si="37">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R66">
-        <f t="shared" ref="R66" si="38">F66/3.28084</f>
+      <c r="S66">
+        <f t="shared" ref="S66" si="38">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
-      <c r="S66">
-        <f t="shared" ref="S66" si="39">R66/Q66</f>
+      <c r="T66">
+        <f t="shared" ref="T66" si="39">S66/R66</f>
         <v>25.049559917059536</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <f t="shared" si="32"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45234</v>
       </c>
@@ -5076,60 +5289,63 @@
         <v>93</v>
       </c>
       <c r="D67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>6.2</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1150</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>17</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>142</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>6</v>
       </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>51</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>35</v>
       </c>
-      <c r="O67" t="b">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <f t="shared" ref="P67" si="40">G67/H67</f>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" ref="Q67" si="40">H67/I67</f>
         <v>0.11971830985915492</v>
       </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67" si="41">E67*1.6093</f>
+      <c r="R67">
+        <f t="shared" ref="R67" si="41">F67*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67" si="42">F67/3.28084</f>
+      <c r="S67">
+        <f t="shared" ref="S67" si="42">G67/3.28084</f>
         <v>350.51998878336036</v>
       </c>
-      <c r="S67">
-        <f t="shared" ref="S67" si="43">R67/Q67</f>
+      <c r="T67">
+        <f t="shared" ref="T67" si="43">S67/R67</f>
         <v>35.130480371485937</v>
       </c>
-      <c r="T67">
-        <f t="shared" ref="T67" si="44">I67/E67</f>
+      <c r="U67">
+        <f t="shared" ref="U67" si="44">J67/F67</f>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45241</v>
       </c>
@@ -5140,60 +5356,63 @@
         <v>92</v>
       </c>
       <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>5</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1804</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>59</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>298</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>12</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>2</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>49</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>34</v>
       </c>
-      <c r="O68" t="b">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <f t="shared" ref="P68:P69" si="45">G68/H68</f>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" ref="Q68:Q69" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
-      <c r="Q68">
-        <f t="shared" ref="Q68:Q69" si="46">E68*1.6093</f>
+      <c r="R68">
+        <f t="shared" ref="R68:R69" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="R68">
-        <f t="shared" ref="R68:R69" si="47">F68/3.28084</f>
+      <c r="S68">
+        <f t="shared" ref="S68:S69" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
-      <c r="S68">
-        <f t="shared" ref="S68:S69" si="48">R68/Q68</f>
+      <c r="T68">
+        <f t="shared" ref="T68:T69" si="48">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
-      <c r="T68">
-        <f t="shared" ref="T68:T69" si="49">I68/E68</f>
+      <c r="U68">
+        <f t="shared" ref="U68:U69" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45248</v>
       </c>
@@ -5204,63 +5423,69 @@
         <v>93</v>
       </c>
       <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
         <v>40</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>16.8</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>4833</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>33</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>303</v>
       </c>
-      <c r="I69" s="3">
+      <c r="J69" s="3">
         <v>10</v>
       </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>2</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>58</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>29</v>
       </c>
-      <c r="O69" t="b">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
         <f t="shared" si="45"/>
         <v>0.10891089108910891</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <f t="shared" si="46"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <f t="shared" si="47"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <f t="shared" si="48"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="49"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K70" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N24" r:id="rId1"/>
-    <hyperlink ref="N28" r:id="rId2"/>
+    <hyperlink ref="O24" r:id="rId1"/>
+    <hyperlink ref="O28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5268,6 +5493,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -5496,7 +5727,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5505,13 +5736,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5530,27 +5772,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>evening</t>
+  </si>
+  <si>
+    <t>Harriers v Cyclists</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5392,23 +5395,23 @@
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q69" si="45">H68/I68</f>
+        <f t="shared" ref="Q68:Q70" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R69" si="46">F68*1.6093</f>
+        <f t="shared" ref="R68:R70" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S69" si="47">G68/3.28084</f>
+        <f t="shared" ref="S68:S70" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T69" si="48">S68/R68</f>
+        <f t="shared" ref="T68:T70" si="48">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U69" si="49">J68/F68</f>
+        <f t="shared" ref="U68:U70" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
@@ -5480,7 +5483,71 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K70" s="5"/>
+      <c r="A70" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70">
+        <v>5.3</v>
+      </c>
+      <c r="G70">
+        <v>945</v>
+      </c>
+      <c r="H70">
+        <v>38</v>
+      </c>
+      <c r="I70">
+        <v>247</v>
+      </c>
+      <c r="J70" s="3">
+        <v>10</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>44</v>
+      </c>
+      <c r="N70">
+        <v>18</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <f t="shared" si="45"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="46"/>
+        <v>8.5292899999999996</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="47"/>
+        <v>288.03599078284827</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="48"/>
+        <v>33.77021894939066</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="49"/>
+        <v>1.8867924528301887</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5493,12 +5560,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -5727,6 +5788,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5737,23 +5804,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5772,6 +5822,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -726,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5395,23 +5395,23 @@
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q70" si="45">H68/I68</f>
+        <f t="shared" ref="Q68:Q71" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R70" si="46">F68*1.6093</f>
+        <f t="shared" ref="R68:R71" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S70" si="47">G68/3.28084</f>
+        <f t="shared" ref="S68:S71" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T70" si="48">S68/R68</f>
+        <f t="shared" ref="T68:T71" si="48">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U70" si="49">J68/F68</f>
+        <f t="shared" ref="U68:U71" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
@@ -5547,6 +5547,73 @@
       <c r="U70">
         <f t="shared" si="49"/>
         <v>1.8867924528301887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G71">
+        <v>700</v>
+      </c>
+      <c r="H71">
+        <v>24</v>
+      </c>
+      <c r="I71">
+        <v>149</v>
+      </c>
+      <c r="J71" s="3">
+        <v>5</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>40</v>
+      </c>
+      <c r="N71">
+        <v>14</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <f t="shared" si="45"/>
+        <v>0.16107382550335569</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="46"/>
+        <v>7.8855700000000004</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="47"/>
+        <v>213.35999317248022</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="48"/>
+        <v>27.057015938287304</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="49"/>
+        <v>1.0204081632653061</v>
       </c>
     </row>
   </sheetData>
@@ -5560,6 +5627,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -5788,12 +5861,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5804,6 +5871,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5822,23 +5906,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>Harriers v Cyclists</t>
+  </si>
+  <si>
+    <t>Tour de Llyn Llydaw</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Stanbury Splash</t>
   </si>
 </sst>
 </file>
@@ -726,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5395,23 +5404,23 @@
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q71" si="45">H68/I68</f>
+        <f t="shared" ref="Q68:Q73" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R71" si="46">F68*1.6093</f>
+        <f t="shared" ref="R68:R73" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S71" si="47">G68/3.28084</f>
+        <f t="shared" ref="S68:S73" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T71" si="48">S68/R68</f>
+        <f t="shared" ref="T68:T73" si="48">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U71" si="49">J68/F68</f>
+        <f t="shared" ref="U68:U73" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
@@ -5550,70 +5559,205 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="8">
         <v>45277</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="9">
         <v>700</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="9">
         <v>24</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="9">
         <v>149</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="10">
         <v>5</v>
       </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
+      <c r="K71" s="10">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
         <v>40</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="9">
         <v>14</v>
       </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4">
+      <c r="O71" s="9"/>
+      <c r="P71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="11">
         <f t="shared" si="45"/>
         <v>0.16107382550335569</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="9">
         <f t="shared" si="46"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="9">
         <f t="shared" si="47"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="9">
         <f t="shared" si="48"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="9">
         <f t="shared" si="49"/>
         <v>1.0204081632653061</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>594</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>58</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>46</v>
+      </c>
+      <c r="N72">
+        <v>21</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <f t="shared" si="45"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="46"/>
+        <v>8.0465</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="47"/>
+        <v>181.0511942063618</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="48"/>
+        <v>22.500614454279724</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="49"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>6.8</v>
+      </c>
+      <c r="G73">
+        <v>1200</v>
+      </c>
+      <c r="H73">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>205</v>
+      </c>
+      <c r="J73" s="3">
+        <v>5</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>53</v>
+      </c>
+      <c r="N73">
+        <v>49</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="45"/>
+        <v>0.1024390243902439</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="46"/>
+        <v>10.943239999999999</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="47"/>
+        <v>365.75998829568039</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="48"/>
+        <v>33.423372629649023</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="49"/>
+        <v>0.73529411764705888</v>
       </c>
     </row>
   </sheetData>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -735,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5404,23 +5404,23 @@
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q73" si="45">H68/I68</f>
+        <f t="shared" ref="Q68:Q74" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R73" si="46">F68*1.6093</f>
+        <f t="shared" ref="R68:R74" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S73" si="47">G68/3.28084</f>
+        <f t="shared" ref="S68:S74" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T73" si="48">S68/R68</f>
+        <f t="shared" ref="T68:T74" si="48">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U73" si="49">J68/F68</f>
+        <f t="shared" ref="U68:U74" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
@@ -5758,6 +5758,73 @@
       <c r="U73">
         <f t="shared" si="49"/>
         <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>1394</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>64</v>
+      </c>
+      <c r="J74" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="K74" s="5">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="45"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="46"/>
+        <v>12.8744</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="47"/>
+        <v>424.89118640348204</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="48"/>
+        <v>33.002795190725941</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="49"/>
+        <v>0.98124999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -735,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5827,6 +5827,140 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75">
+        <v>19.3</v>
+      </c>
+      <c r="G75">
+        <v>3642</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>116</v>
+      </c>
+      <c r="J75" s="3">
+        <v>15</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>12</v>
+      </c>
+      <c r="N75">
+        <v>38</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <f t="shared" ref="Q75:Q76" si="50">H75/I75</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ref="R75:R76" si="51">F75*1.6093</f>
+        <v>31.05949</v>
+      </c>
+      <c r="S75">
+        <f t="shared" ref="S75:S76" si="52">G75/3.28084</f>
+        <v>1110.08156447739</v>
+      </c>
+      <c r="T75">
+        <f t="shared" ref="T75:T76" si="53">S75/R75</f>
+        <v>35.74049556117599</v>
+      </c>
+      <c r="U75">
+        <f t="shared" ref="U75:U76" si="54">J75/F75</f>
+        <v>0.77720207253886009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G76">
+        <v>890</v>
+      </c>
+      <c r="H76">
+        <v>29</v>
+      </c>
+      <c r="I76">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>38</v>
+      </c>
+      <c r="N76">
+        <v>41</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="50"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="51"/>
+        <v>7.8855700000000004</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="52"/>
+        <v>271.27199131929626</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="53"/>
+        <v>34.401063121536708</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="54"/>
+        <v>2.0408163265306123</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O24" r:id="rId1"/>
@@ -5838,12 +5972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6072,6 +6200,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6082,23 +6216,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6117,6 +6234,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -200,9 +200,6 @@
     <t>Runners and Riders</t>
   </si>
   <si>
-    <t>http://www.wharfedaleharriers.co.uk/wp-content/uploads/2022/01/Runners-Riders-2022.pdf</t>
-  </si>
-  <si>
     <t>£ per mile</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Stanbury Splash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wharfedaleharriers.co.uk/wp-content/uploads/2022/01/Runners-Riders-2022.pdf </t>
   </si>
 </sst>
 </file>
@@ -738,8 +738,8 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
         <v>54</v>
@@ -824,7 +824,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -905,10 +905,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -975,10 +975,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>19</v>
@@ -1117,10 +1117,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1187,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1257,10 +1257,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1327,10 +1327,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1397,10 +1397,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1467,10 +1467,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -1539,10 +1539,10 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1609,10 +1609,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1679,10 +1679,10 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1749,10 +1749,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1819,10 +1819,10 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1889,10 +1889,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1959,10 +1959,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -2029,10 +2029,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -2093,13 +2093,13 @@
         <v>44549</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>19</v>
@@ -2166,10 +2166,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2233,10 +2233,10 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -2248,10 +2248,10 @@
         <v>890</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I22">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="J22" s="3">
         <v>10</v>
@@ -2268,15 +2268,15 @@
       <c r="N22">
         <v>21</v>
       </c>
-      <c r="O22" t="s">
-        <v>58</v>
+      <c r="O22" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="0"/>
-        <v>0.15492957746478872</v>
+        <v>0.23118279569892472</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
@@ -2300,13 +2300,13 @@
         <v>44598</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
@@ -2339,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -2370,16 +2370,16 @@
         <v>44611</v>
       </c>
       <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
       </c>
       <c r="F24">
         <v>7.5</v>
@@ -2409,7 +2409,7 @@
         <v>54</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>44626</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2479,7 +2479,7 @@
         <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>44640</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>42</v>
@@ -2580,10 +2580,10 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -2644,13 +2644,13 @@
         <v>44691</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -2683,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -2781,13 +2781,13 @@
         <v>44709</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
@@ -2848,13 +2848,13 @@
         <v>44728</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>44775</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -2954,7 +2954,7 @@
         <v>48</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
@@ -3024,7 +3024,7 @@
         <v>59</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>44786</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -3122,13 +3122,13 @@
         <v>44813</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>44857</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -3231,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -3332,10 +3332,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -3368,7 +3368,7 @@
         <v>57</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
@@ -3438,7 +3438,7 @@
         <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>44913</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>19</v>
@@ -3539,13 +3539,13 @@
         <v>44940</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
@@ -3609,13 +3609,13 @@
         <v>44961</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>42</v>
@@ -3648,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -3679,16 +3679,16 @@
         <v>44968</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43">
         <v>11.5</v>
@@ -3746,16 +3746,16 @@
         <v>44975</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" t="s">
-        <v>63</v>
       </c>
       <c r="F44">
         <v>8.1</v>
@@ -3785,7 +3785,7 @@
         <v>16</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>44982</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -3855,7 +3855,7 @@
         <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -3886,13 +3886,13 @@
         <v>44990</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3953,16 +3953,16 @@
         <v>45013</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>8.5</v>
@@ -4020,13 +4020,13 @@
         <v>45017</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -4087,13 +4087,13 @@
         <v>45024</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4154,16 +4154,16 @@
         <v>45038</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>11.5</v>
@@ -4224,10 +4224,10 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -4291,10 +4291,10 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -4355,13 +4355,13 @@
         <v>45055</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -4422,16 +4422,16 @@
         <v>45059</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -4489,13 +4489,13 @@
         <v>45066</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -4559,10 +4559,10 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -4626,10 +4626,10 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -4690,13 +4690,13 @@
         <v>45090</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -4757,13 +4757,13 @@
         <v>45092</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -4824,13 +4824,13 @@
         <v>45108</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -4891,13 +4891,13 @@
         <v>45136</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4959,13 +4959,13 @@
         <v>45139</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -5030,10 +5030,10 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
@@ -5094,13 +5094,13 @@
         <v>45157</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -5161,13 +5161,13 @@
         <v>45185</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -5231,10 +5231,10 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -5298,10 +5298,10 @@
         <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -5362,13 +5362,13 @@
         <v>45241</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -5432,10 +5432,10 @@
         <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
         <v>40</v>
@@ -5496,13 +5496,13 @@
         <v>45255</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -5563,13 +5563,13 @@
         <v>45277</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>19</v>
@@ -5631,13 +5631,13 @@
         <v>45292</v>
       </c>
       <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
         <v>114</v>
       </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
@@ -5698,13 +5698,13 @@
         <v>45305</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -5768,10 +5768,10 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -5832,13 +5832,13 @@
         <v>45325</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>42</v>
@@ -5902,10 +5902,10 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -5965,13 +5965,20 @@
   <hyperlinks>
     <hyperlink ref="O24" r:id="rId1"/>
     <hyperlink ref="O28" r:id="rId2"/>
+    <hyperlink ref="O22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6200,12 +6207,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6216,6 +6217,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6234,23 +6252,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.wharfedaleharriers.co.uk/wp-content/uploads/2022/01/Runners-Riders-2022.pdf </t>
+  </si>
+  <si>
+    <t>Midgley Moor</t>
   </si>
 </sst>
 </file>
@@ -735,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5874,23 +5877,23 @@
         <v>0</v>
       </c>
       <c r="Q75" s="4">
-        <f t="shared" ref="Q75:Q76" si="50">H75/I75</f>
+        <f t="shared" ref="Q75:Q77" si="50">H75/I75</f>
         <v>0.13793103448275862</v>
       </c>
       <c r="R75">
-        <f t="shared" ref="R75:R76" si="51">F75*1.6093</f>
+        <f t="shared" ref="R75:R77" si="51">F75*1.6093</f>
         <v>31.05949</v>
       </c>
       <c r="S75">
-        <f t="shared" ref="S75:S76" si="52">G75/3.28084</f>
+        <f t="shared" ref="S75:S77" si="52">G75/3.28084</f>
         <v>1110.08156447739</v>
       </c>
       <c r="T75">
-        <f t="shared" ref="T75:T76" si="53">S75/R75</f>
+        <f t="shared" ref="T75:T77" si="53">S75/R75</f>
         <v>35.74049556117599</v>
       </c>
       <c r="U75">
-        <f t="shared" ref="U75:U76" si="54">J75/F75</f>
+        <f t="shared" ref="U75:U77" si="54">J75/F75</f>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -5959,6 +5962,73 @@
       <c r="U76">
         <f t="shared" si="54"/>
         <v>2.0408163265306123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>1250</v>
+      </c>
+      <c r="H77">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>102</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5</v>
+      </c>
+      <c r="K77" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>46</v>
+      </c>
+      <c r="N77">
+        <v>50</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
+        <f t="shared" si="50"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="51"/>
+        <v>8.0465</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="52"/>
+        <v>380.99998780800041</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="53"/>
+        <v>47.349777892002784</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5973,12 +6043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6207,6 +6271,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6217,23 +6287,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6252,6 +6305,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Midgley Moor</t>
+  </si>
+  <si>
+    <t>Blackstone Edge</t>
+  </si>
+  <si>
+    <t>Rivington Pike</t>
   </si>
 </sst>
 </file>
@@ -738,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5877,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="4">
-        <f t="shared" ref="Q75:Q77" si="50">H75/I75</f>
+        <f t="shared" ref="Q75:Q78" si="50">H75/I75</f>
         <v>0.13793103448275862</v>
       </c>
       <c r="R75">
@@ -5893,7 +5899,7 @@
         <v>35.74049556117599</v>
       </c>
       <c r="U75">
-        <f t="shared" ref="U75:U77" si="54">J75/F75</f>
+        <f t="shared" ref="U75:U78" si="54">J75/F75</f>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -6029,6 +6035,341 @@
       <c r="U77">
         <f t="shared" si="54"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G78">
+        <v>1509</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>413</v>
+      </c>
+      <c r="J78" s="3">
+        <v>15</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>55</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4">
+        <f t="shared" ref="Q78:Q81" si="55">H78/I78</f>
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ref="R78:R81" si="56">F78*1.6093</f>
+        <v>14.96649</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ref="S78:S81" si="57">G78/3.28084</f>
+        <v>459.94318528181805</v>
+      </c>
+      <c r="T78">
+        <f t="shared" ref="T78:T81" si="58">S78/R78</f>
+        <v>30.73153326409987</v>
+      </c>
+      <c r="U78">
+        <f t="shared" ref="U78:U81" si="59">J78/F78</f>
+        <v>1.6129032258064515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79">
+        <v>3.2</v>
+      </c>
+      <c r="G79">
+        <v>699</v>
+      </c>
+      <c r="H79">
+        <v>50</v>
+      </c>
+      <c r="I79">
+        <v>400</v>
+      </c>
+      <c r="J79" s="3">
+        <v>10</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>41</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <f t="shared" si="55"/>
+        <v>0.125</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="56"/>
+        <v>5.1497600000000006</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="57"/>
+        <v>213.05519318223381</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="58"/>
+        <v>41.371868433137422</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="59"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <v>11.5</v>
+      </c>
+      <c r="G80">
+        <v>3609</v>
+      </c>
+      <c r="H80">
+        <v>105</v>
+      </c>
+      <c r="I80">
+        <v>225</v>
+      </c>
+      <c r="J80" s="3">
+        <v>14</v>
+      </c>
+      <c r="K80" s="3">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>55</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="55"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="56"/>
+        <v>18.50695</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="57"/>
+        <v>1100.0231647992587</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="58"/>
+        <v>59.438382056430619</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="59"/>
+        <v>1.2173913043478262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81">
+        <v>5.2</v>
+      </c>
+      <c r="G81">
+        <v>1148</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>159</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>47</v>
+      </c>
+      <c r="N81">
+        <v>50</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <f t="shared" si="55"/>
+        <v>6.2893081761006289E-2</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="56"/>
+        <v>8.3683600000000009</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="57"/>
+        <v>349.91038880286754</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="58"/>
+        <v>41.813496169245525</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="59"/>
+        <v>1.346153846153846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>3.5</v>
+      </c>
+      <c r="G82">
+        <v>1201</v>
+      </c>
+      <c r="H82">
+        <v>11</v>
+      </c>
+      <c r="I82">
+        <v>78</v>
+      </c>
+      <c r="J82" s="3">
+        <v>5</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>37</v>
+      </c>
+      <c r="N82">
+        <v>30</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <f t="shared" ref="Q82" si="60">H82/I82</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ref="R82" si="61">F82*1.6093</f>
+        <v>5.6325500000000002</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ref="S82" si="62">G82/3.28084</f>
+        <v>366.0647882859268</v>
+      </c>
+      <c r="T82">
+        <f t="shared" ref="T82" si="63">S82/R82</f>
+        <v>64.990952283766106</v>
+      </c>
+      <c r="U82">
+        <f t="shared" ref="U82" si="64">J82/F82</f>
+        <v>1.4285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -6043,6 +6384,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6271,12 +6618,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6287,6 +6628,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6305,23 +6663,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Rivington Pike</t>
+  </si>
+  <si>
+    <t>Elevate "fitness"</t>
   </si>
 </sst>
 </file>
@@ -744,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -767,11 +770,11 @@
     <col min="12" max="12" width="2.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.7265625" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" customWidth="1"/>
+    <col min="19" max="21" width="8.7265625" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,29 +817,32 @@
       <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43309</v>
       </c>
@@ -882,31 +888,31 @@
       <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="0">H2/I2</f>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:R33" si="0">H2/I2</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R33" si="1">F2*1.6093</f>
+      <c r="S2">
+        <f t="shared" ref="S2:S33" si="1">F2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S33" si="2">G2/3.28084</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T33" si="2">G2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
-      <c r="T2">
-        <f>S2/R2</f>
+      <c r="U2">
+        <f>T2/S2</f>
         <v>105.22172864889508</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U33" si="3">J2/F2</f>
+      <c r="V2">
+        <f t="shared" ref="V2:V33" si="3">J2/F2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43345</v>
       </c>
@@ -952,31 +958,31 @@
       <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T38" si="4">S3/R3</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U38" si="4">T3/S3</f>
         <v>44.379202352672927</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43380</v>
       </c>
@@ -1022,31 +1028,31 @@
       <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43443</v>
       </c>
@@ -1092,33 +1098,34 @@
       <c r="O5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43591</v>
       </c>
@@ -1164,31 +1171,31 @@
       <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43615</v>
       </c>
@@ -1234,31 +1241,31 @@
       <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43678</v>
       </c>
@@ -1304,31 +1311,31 @@
       <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43701</v>
       </c>
@@ -1374,31 +1381,31 @@
       <c r="O9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43751</v>
       </c>
@@ -1444,31 +1451,31 @@
       <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43764</v>
       </c>
@@ -1514,33 +1521,34 @@
       <c r="O11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="S11" s="9">
+      <c r="T11" s="9">
         <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="9"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44371</v>
       </c>
@@ -1586,31 +1594,31 @@
       <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44406</v>
       </c>
@@ -1656,31 +1664,31 @@
       <c r="O13" t="s">
         <v>45</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44416</v>
       </c>
@@ -1726,31 +1734,31 @@
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44479</v>
       </c>
@@ -1796,31 +1804,31 @@
       <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44506</v>
       </c>
@@ -1866,31 +1874,31 @@
       <c r="O16" t="s">
         <v>48</v>
       </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
         <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44514</v>
       </c>
@@ -1936,31 +1944,31 @@
       <c r="O17" t="s">
         <v>49</v>
       </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44520</v>
       </c>
@@ -2006,31 +2014,31 @@
       <c r="O18" t="s">
         <v>50</v>
       </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44535</v>
       </c>
@@ -2073,31 +2081,31 @@
       <c r="N19">
         <v>40</v>
       </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44549</v>
       </c>
@@ -2141,33 +2149,34 @@
         <v>55</v>
       </c>
       <c r="O20" s="9"/>
-      <c r="P20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
         <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="S20" s="9">
+      <c r="T20" s="9">
         <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="U20" s="9">
+      <c r="V20" s="9">
         <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="9"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44583</v>
       </c>
@@ -2210,31 +2219,31 @@
       <c r="N21">
         <v>18</v>
       </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44591</v>
       </c>
@@ -2280,31 +2289,32 @@
       <c r="O22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="6"/>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="0"/>
         <v>0.23118279569892472</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44598</v>
       </c>
@@ -2350,31 +2360,31 @@
       <c r="O23" t="s">
         <v>60</v>
       </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44611</v>
       </c>
@@ -2420,31 +2430,32 @@
       <c r="O24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
+      <c r="P24" s="6"/>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44626</v>
       </c>
@@ -2490,31 +2501,31 @@
       <c r="O25" t="s">
         <v>66</v>
       </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44640</v>
       </c>
@@ -2557,31 +2568,31 @@
       <c r="N26">
         <v>26</v>
       </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44687</v>
       </c>
@@ -2624,31 +2635,31 @@
       <c r="N27">
         <v>19</v>
       </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
         <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44691</v>
       </c>
@@ -2694,31 +2705,32 @@
       <c r="O28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
+      <c r="P28" s="6"/>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
         <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44707</v>
       </c>
@@ -2761,31 +2773,31 @@
       <c r="N29">
         <v>37</v>
       </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
         <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44709</v>
       </c>
@@ -2828,31 +2840,31 @@
       <c r="N30">
         <v>10</v>
       </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
         <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44728</v>
       </c>
@@ -2895,31 +2907,31 @@
       <c r="N31">
         <v>41</v>
       </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
         <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44775</v>
       </c>
@@ -2965,31 +2977,31 @@
       <c r="O32" t="s">
         <v>71</v>
       </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44780</v>
       </c>
@@ -3035,31 +3047,31 @@
       <c r="O33" t="s">
         <v>72</v>
       </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4">
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
         <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44786</v>
       </c>
@@ -3102,31 +3114,31 @@
       <c r="N34">
         <v>23</v>
       </c>
-      <c r="P34" t="b">
+      <c r="Q34" t="b">
         <v>1</v>
       </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q56" si="5">H34/I34</f>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:R56" si="5">H34/I34</f>
         <v>0.49011857707509882</v>
       </c>
-      <c r="R34">
-        <f t="shared" ref="R34:R56" si="6">F34*1.6093</f>
+      <c r="S34">
+        <f t="shared" ref="S34:S56" si="6">F34*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="S34">
-        <f t="shared" ref="S34:S56" si="7">G34/3.28084</f>
+      <c r="T34">
+        <f t="shared" ref="T34:T56" si="7">G34/3.28084</f>
         <v>449.88478560368685</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
-      <c r="U34">
-        <f t="shared" ref="U34:U51" si="8">J34/F34</f>
+      <c r="V34">
+        <f t="shared" ref="V34:V51" si="8">J34/F34</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44813</v>
       </c>
@@ -3172,31 +3184,31 @@
       <c r="O35" t="s">
         <v>75</v>
       </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
         <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="6"/>
         <v>23.978570000000001</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="7"/>
         <v>819.91197376281684</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <f t="shared" si="8"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44857</v>
       </c>
@@ -3242,31 +3254,31 @@
       <c r="O36" t="s">
         <v>78</v>
       </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
         <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="6"/>
         <v>10.621379999999998</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="7"/>
         <v>469.39198497945648</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f t="shared" si="8"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44870</v>
       </c>
@@ -3309,31 +3321,31 @@
       <c r="N37">
         <v>20</v>
       </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
         <f t="shared" si="5"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f t="shared" si="8"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44878</v>
       </c>
@@ -3379,31 +3391,31 @@
       <c r="O38" t="s">
         <v>79</v>
       </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
         <f t="shared" si="5"/>
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="7"/>
         <v>420.01438655953962</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="8"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44884</v>
       </c>
@@ -3449,31 +3461,31 @@
       <c r="O39" t="s">
         <v>80</v>
       </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4">
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
         <f t="shared" si="5"/>
         <v>0.43714285714285717</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="6"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="7"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="T39">
-        <f t="shared" ref="T39:T40" si="9">S39/R39</f>
+      <c r="U39">
+        <f t="shared" ref="U39:U40" si="9">T39/S39</f>
         <v>54.48606584572606</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="8"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44913</v>
       </c>
@@ -3517,33 +3529,34 @@
         <v>38</v>
       </c>
       <c r="O40" s="9"/>
-      <c r="P40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
         <f t="shared" si="5"/>
         <v>0.10434782608695652</v>
       </c>
-      <c r="R40" s="9">
+      <c r="S40" s="9">
         <f t="shared" si="6"/>
         <v>6.9199899999999994</v>
       </c>
-      <c r="S40" s="9">
+      <c r="T40" s="9">
         <f t="shared" si="7"/>
         <v>249.93599200204827</v>
       </c>
-      <c r="T40" s="9">
+      <c r="U40" s="9">
         <f t="shared" si="9"/>
         <v>36.117970112969566</v>
       </c>
-      <c r="U40" s="9">
+      <c r="V40" s="9">
         <f t="shared" si="8"/>
         <v>1.1627906976744187</v>
       </c>
-      <c r="V40" s="9"/>
-      <c r="W40" s="12"/>
-    </row>
-    <row r="41" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="9"/>
+      <c r="X40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44940</v>
       </c>
@@ -3589,31 +3602,31 @@
       <c r="O41" t="s">
         <v>84</v>
       </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="4">
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
         <f t="shared" si="5"/>
         <v>0.2076271186440678</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f t="shared" si="7"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="T41">
-        <f t="shared" ref="T41:T49" si="10">S41/R41</f>
+      <c r="U41">
+        <f t="shared" ref="U41:U49" si="10">T41/S41</f>
         <v>62.122908594307653</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44961</v>
       </c>
@@ -3659,31 +3672,31 @@
       <c r="O42" t="s">
         <v>85</v>
       </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
         <f t="shared" si="5"/>
         <v>0.16901408450704225</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="6"/>
         <v>31.05949</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="7"/>
         <v>1110.08156447739</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="10"/>
         <v>35.74049556117599</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f t="shared" si="8"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -3726,31 +3739,31 @@
       <c r="N43">
         <v>8</v>
       </c>
-      <c r="P43" t="b">
+      <c r="Q43" t="b">
         <v>1</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <f t="shared" si="5"/>
         <v>0.49511400651465798</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="7"/>
         <v>1371.9047560990477</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="10"/>
         <v>74.129165318923313</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f t="shared" si="8"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44975</v>
       </c>
@@ -3796,31 +3809,31 @@
       <c r="O44" t="s">
         <v>86</v>
       </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="4">
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
         <f t="shared" si="5"/>
         <v>6.8783068783068779E-2</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="6"/>
         <v>13.035329999999998</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="7"/>
         <v>659.89197888345666</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="10"/>
         <v>50.623342783301744</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f t="shared" si="8"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44982</v>
       </c>
@@ -3866,31 +3879,31 @@
       <c r="O45" t="s">
         <v>88</v>
       </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
         <f t="shared" si="5"/>
         <v>8.9673913043478257E-2</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="7"/>
         <v>459.94318528181805</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="10"/>
         <v>30.73153326409987</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <f t="shared" si="8"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44990</v>
       </c>
@@ -3933,31 +3946,31 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
         <f t="shared" si="5"/>
         <v>0.18292682926829268</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="7"/>
         <v>401.1167871642628</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="10"/>
         <v>49.84984616470053</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45013</v>
       </c>
@@ -4000,31 +4013,31 @@
       <c r="N47">
         <v>31</v>
       </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
         <f t="shared" si="5"/>
         <v>0.22545454545454546</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="6"/>
         <v>13.67905</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="7"/>
         <v>915.00957071969378</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="10"/>
         <v>66.891309756137588</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f t="shared" si="8"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45017</v>
       </c>
@@ -4067,31 +4080,31 @@
       <c r="N48">
         <v>24</v>
       </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
         <f t="shared" si="5"/>
         <v>0.17613636363636365</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="6"/>
         <v>7.2418499999999995</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="7"/>
         <v>456.89518537935407</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="10"/>
         <v>63.090948497877491</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f t="shared" si="8"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45024</v>
       </c>
@@ -4134,31 +4147,31 @@
       <c r="N49">
         <v>6</v>
       </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4">
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
         <f t="shared" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="7"/>
         <v>380.99998780800041</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="10"/>
         <v>33.82126992285913</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45038</v>
       </c>
@@ -4201,31 +4214,31 @@
       <c r="N50">
         <v>44</v>
       </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="4">
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
         <f t="shared" si="5"/>
         <v>0.31707317073170732</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <f t="shared" si="7"/>
         <v>1100.0231647992587</v>
       </c>
-      <c r="T50">
-        <f t="shared" ref="T50:T51" si="11">S50/R50</f>
+      <c r="U50">
+        <f t="shared" ref="U50:U51" si="11">T50/S50</f>
         <v>59.438382056430619</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f t="shared" si="8"/>
         <v>1.0434782608695652</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45047</v>
       </c>
@@ -4268,31 +4281,31 @@
       <c r="N51">
         <v>1</v>
       </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="4">
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4">
         <f t="shared" si="5"/>
         <v>7.7294685990338161E-2</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="6"/>
         <v>10.782310000000001</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="7"/>
         <v>295.0463905585155</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="11"/>
         <v>27.363931342960413</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <f t="shared" si="8"/>
         <v>1.044776119402985</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45050</v>
       </c>
@@ -4335,31 +4348,31 @@
       <c r="N52">
         <v>31</v>
       </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4">
         <f t="shared" si="5"/>
         <v>0.14893617021276595</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <f t="shared" si="7"/>
         <v>335.27998927104034</v>
       </c>
-      <c r="T52">
-        <f t="shared" ref="T52:T56" si="12">S52/R52</f>
+      <c r="U52">
+        <f t="shared" ref="U52:U56" si="12">T52/S52</f>
         <v>29.762717532116032</v>
       </c>
-      <c r="U52">
-        <f t="shared" ref="U52:U56" si="13">J52/F52</f>
+      <c r="V52">
+        <f t="shared" ref="V52:V56" si="13">J52/F52</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45055</v>
       </c>
@@ -4402,31 +4415,31 @@
       <c r="N53">
         <v>41</v>
       </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
         <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f t="shared" si="7"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="12"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <f t="shared" si="13"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45059</v>
       </c>
@@ -4469,31 +4482,31 @@
       <c r="N54">
         <v>30</v>
       </c>
-      <c r="P54" t="b">
+      <c r="Q54" t="b">
         <v>1</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
         <f t="shared" si="5"/>
         <v>0.54788418708240538</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="6"/>
         <v>14.483699999999999</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="7"/>
         <v>914.0951707489545</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="12"/>
         <v>63.111992843607268</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <f t="shared" si="13"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45066</v>
       </c>
@@ -4536,31 +4549,31 @@
       <c r="N55">
         <v>24</v>
       </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
         <f t="shared" si="5"/>
         <v>0.17948717948717949</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f t="shared" si="7"/>
         <v>365.75998829568039</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="12"/>
         <v>43.707487284925641</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <f t="shared" si="13"/>
         <v>1.5384615384615383</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45071</v>
       </c>
@@ -4603,31 +4616,31 @@
       <c r="N56">
         <v>16</v>
       </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
         <f t="shared" si="5"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="12"/>
         <v>35.130480371485937</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <f t="shared" si="13"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45085</v>
       </c>
@@ -4670,31 +4683,31 @@
       <c r="N57">
         <v>41</v>
       </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="4">
-        <f t="shared" ref="Q57:Q58" si="14">H57/I57</f>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" ref="R57:R58" si="14">H57/I57</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="R57">
-        <f t="shared" ref="R57:R58" si="15">F57*1.6093</f>
+      <c r="S57">
+        <f t="shared" ref="S57:S58" si="15">F57*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="S57">
-        <f t="shared" ref="S57:S58" si="16">G57/3.28084</f>
+      <c r="T57">
+        <f t="shared" ref="T57:T58" si="16">G57/3.28084</f>
         <v>548.63998244352058</v>
       </c>
-      <c r="T57">
-        <f t="shared" ref="T57:T58" si="17">S57/R57</f>
+      <c r="U57">
+        <f t="shared" ref="U57:U58" si="17">T57/S57</f>
         <v>68.183680164484002</v>
       </c>
-      <c r="U57">
-        <f t="shared" ref="U57:U58" si="18">J57/F57</f>
+      <c r="V57">
+        <f t="shared" ref="V57:V58" si="18">J57/F57</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45090</v>
       </c>
@@ -4737,31 +4750,31 @@
       <c r="N58">
         <v>41</v>
       </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="4">
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
         <f t="shared" si="14"/>
         <v>0.25925925925925924</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="15"/>
         <v>7.5637100000000004</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <f t="shared" si="16"/>
         <v>374.90398800307241</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="17"/>
         <v>49.56615047418164</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <f t="shared" si="18"/>
         <v>1.2765957446808509</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45092</v>
       </c>
@@ -4804,31 +4817,31 @@
       <c r="N59">
         <v>14</v>
       </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="4">
-        <f t="shared" ref="Q59:Q60" si="19">H59/I59</f>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" ref="R59:R60" si="19">H59/I59</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="R59">
-        <f t="shared" ref="R59:R60" si="20">F59*1.6093</f>
+      <c r="S59">
+        <f t="shared" ref="S59:S60" si="20">F59*1.6093</f>
         <v>8.8511500000000005</v>
       </c>
-      <c r="S59">
-        <f t="shared" ref="S59:S60" si="21">G59/3.28084</f>
+      <c r="T59">
+        <f t="shared" ref="T59:T60" si="21">G59/3.28084</f>
         <v>335.27998927104034</v>
       </c>
-      <c r="T59">
-        <f t="shared" ref="T59:T60" si="22">S59/R59</f>
+      <c r="U59">
+        <f t="shared" ref="U59:U60" si="22">T59/S59</f>
         <v>37.879822313602226</v>
       </c>
-      <c r="U59">
-        <f t="shared" ref="U59:U60" si="23">J59/F59</f>
+      <c r="V59">
+        <f t="shared" ref="V59:V60" si="23">J59/F59</f>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45108</v>
       </c>
@@ -4871,31 +4884,31 @@
       <c r="N60">
         <v>37</v>
       </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="4">
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
         <f t="shared" si="19"/>
         <v>0.20588235294117646</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f t="shared" si="20"/>
         <v>9.4948700000000006</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f t="shared" si="21"/>
         <v>499.87198400409653</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="22"/>
         <v>52.646532707040379</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <f t="shared" si="23"/>
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45136</v>
       </c>
@@ -4938,32 +4951,32 @@
       <c r="N61">
         <v>32</v>
       </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="4">
-        <f t="shared" ref="Q61:Q63" si="24">H61/I61</f>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" ref="R61:R63" si="24">H61/I61</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="R61">
-        <f t="shared" ref="R61" si="25">F61*1.6093</f>
+      <c r="S61">
+        <f t="shared" ref="S61" si="25">F61*1.6093</f>
         <v>12.8744</v>
       </c>
-      <c r="S61">
-        <f t="shared" ref="S61" si="26">G61/3.28084</f>
+      <c r="T61">
+        <f t="shared" ref="T61" si="26">G61/3.28084</f>
         <v>609.90478048304703</v>
       </c>
-      <c r="T61">
-        <f t="shared" ref="T61" si="27">S61/R61</f>
+      <c r="U61">
+        <f t="shared" ref="U61" si="27">T61/S61</f>
         <v>47.373452780948789</v>
       </c>
-      <c r="U61">
-        <f t="shared" ref="U61" si="28">J61/F61</f>
+      <c r="V61">
+        <f t="shared" ref="V61" si="28">J61/F61</f>
         <v>0.625</v>
       </c>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="5"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45139</v>
       </c>
@@ -5006,32 +5019,32 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="4">
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
         <f t="shared" si="24"/>
         <v>9.2592592592592587E-2</v>
       </c>
-      <c r="R62">
-        <f t="shared" ref="R62" si="29">F62*1.6093</f>
+      <c r="S62">
+        <f t="shared" ref="S62" si="29">F62*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="S62">
-        <f t="shared" ref="S62" si="30">G62/3.28084</f>
+      <c r="T62">
+        <f t="shared" ref="T62" si="30">G62/3.28084</f>
         <v>305.10479023664669</v>
       </c>
-      <c r="T62">
-        <f t="shared" ref="T62" si="31">S62/R62</f>
+      <c r="U62">
+        <f t="shared" ref="U62" si="31">T62/S62</f>
         <v>37.917702135915825</v>
       </c>
-      <c r="U62">
-        <f t="shared" ref="U62:U66" si="32">J62/F62</f>
+      <c r="V62">
+        <f t="shared" ref="V62:V66" si="32">J62/F62</f>
         <v>1</v>
       </c>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45144</v>
       </c>
@@ -5074,31 +5087,31 @@
       <c r="N63">
         <v>59</v>
       </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="4">
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
         <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="R63">
-        <f t="shared" ref="R63:R65" si="33">F63*1.6093</f>
+      <c r="S63">
+        <f t="shared" ref="S63:S65" si="33">F63*1.6093</f>
         <v>14.161840000000002</v>
       </c>
-      <c r="S63">
-        <f t="shared" ref="S63:S65" si="34">G63/3.28084</f>
+      <c r="T63">
+        <f t="shared" ref="T63:T65" si="34">G63/3.28084</f>
         <v>334.97518928079393</v>
       </c>
-      <c r="T63">
-        <f t="shared" ref="T63:T65" si="35">S63/R63</f>
+      <c r="U63">
+        <f t="shared" ref="U63:U65" si="35">T63/S63</f>
         <v>23.653366319686842</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <f t="shared" si="32"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45157</v>
       </c>
@@ -5141,31 +5154,31 @@
       <c r="N64">
         <v>35</v>
       </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" ref="Q64:Q66" si="36">H64/I64</f>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" ref="R64:R66" si="36">H64/I64</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f t="shared" si="33"/>
         <v>2.4139499999999998</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f t="shared" si="34"/>
         <v>274.01519123151388</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="35"/>
         <v>113.51320086642801</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45185</v>
       </c>
@@ -5208,31 +5221,31 @@
       <c r="N65">
         <v>39</v>
       </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="4">
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
         <f t="shared" si="36"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f t="shared" si="33"/>
         <v>6.4371999999999998</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f t="shared" si="34"/>
         <v>474.87838480389166</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="35"/>
         <v>73.770953955740339</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45214</v>
       </c>
@@ -5275,31 +5288,31 @@
       <c r="N66">
         <v>16</v>
       </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="4">
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
         <f t="shared" si="36"/>
         <v>4.060913705583756E-2</v>
       </c>
-      <c r="R66">
-        <f t="shared" ref="R66" si="37">F66*1.6093</f>
+      <c r="S66">
+        <f t="shared" ref="S66" si="37">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S66">
-        <f t="shared" ref="S66" si="38">G66/3.28084</f>
+      <c r="T66">
+        <f t="shared" ref="T66" si="38">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
-      <c r="T66">
-        <f t="shared" ref="T66" si="39">S66/R66</f>
+      <c r="U66">
+        <f t="shared" ref="U66" si="39">T66/S66</f>
         <v>25.049559917059536</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <f t="shared" si="32"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45234</v>
       </c>
@@ -5342,31 +5355,31 @@
       <c r="N67">
         <v>35</v>
       </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <f t="shared" ref="Q67" si="40">H67/I67</f>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" ref="R67" si="40">H67/I67</f>
         <v>0.11971830985915492</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67" si="41">F67*1.6093</f>
+      <c r="S67">
+        <f t="shared" ref="S67" si="41">F67*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
-      <c r="S67">
-        <f t="shared" ref="S67" si="42">G67/3.28084</f>
+      <c r="T67">
+        <f t="shared" ref="T67" si="42">G67/3.28084</f>
         <v>350.51998878336036</v>
       </c>
-      <c r="T67">
-        <f t="shared" ref="T67" si="43">S67/R67</f>
+      <c r="U67">
+        <f t="shared" ref="U67" si="43">T67/S67</f>
         <v>35.130480371485937</v>
       </c>
-      <c r="U67">
-        <f t="shared" ref="U67" si="44">J67/F67</f>
+      <c r="V67">
+        <f t="shared" ref="V67" si="44">J67/F67</f>
         <v>0.96774193548387089</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45241</v>
       </c>
@@ -5409,31 +5422,31 @@
       <c r="N68">
         <v>34</v>
       </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q74" si="45">H68/I68</f>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" ref="R68:R74" si="45">H68/I68</f>
         <v>0.19798657718120805</v>
       </c>
-      <c r="R68">
-        <f t="shared" ref="R68:R74" si="46">F68*1.6093</f>
+      <c r="S68">
+        <f t="shared" ref="S68:S74" si="46">F68*1.6093</f>
         <v>8.0465</v>
       </c>
-      <c r="S68">
-        <f t="shared" ref="S68:S74" si="47">G68/3.28084</f>
+      <c r="T68">
+        <f t="shared" ref="T68:T74" si="47">G68/3.28084</f>
         <v>549.85918240450621</v>
       </c>
-      <c r="T68">
-        <f t="shared" ref="T68:T74" si="48">S68/R68</f>
+      <c r="U68">
+        <f t="shared" ref="U68:U74" si="48">T68/S68</f>
         <v>68.335199453738426</v>
       </c>
-      <c r="U68">
-        <f t="shared" ref="U68:U74" si="49">J68/F68</f>
+      <c r="V68">
+        <f t="shared" ref="V68:V74" si="49">J68/F68</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45248</v>
       </c>
@@ -5476,31 +5489,31 @@
       <c r="N69">
         <v>29</v>
       </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4">
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
         <f t="shared" si="45"/>
         <v>0.10891089108910891</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <f t="shared" si="46"/>
         <v>27.036239999999999</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <f t="shared" si="47"/>
         <v>1473.0983528608526</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="48"/>
         <v>54.48606584572606</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f t="shared" si="49"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45255</v>
       </c>
@@ -5543,31 +5556,31 @@
       <c r="N70">
         <v>18</v>
       </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4">
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
         <f t="shared" si="45"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <f t="shared" si="46"/>
         <v>8.5292899999999996</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <f t="shared" si="47"/>
         <v>288.03599078284827</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <f t="shared" si="48"/>
         <v>33.77021894939066</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f t="shared" si="49"/>
         <v>1.8867924528301887</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>45277</v>
       </c>
@@ -5611,31 +5624,32 @@
         <v>14</v>
       </c>
       <c r="O71" s="9"/>
-      <c r="P71" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="11">
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" s="11">
         <f t="shared" si="45"/>
         <v>0.16107382550335569</v>
       </c>
-      <c r="R71" s="9">
+      <c r="S71" s="9">
         <f t="shared" si="46"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="S71" s="9">
+      <c r="T71" s="9">
         <f t="shared" si="47"/>
         <v>213.35999317248022</v>
       </c>
-      <c r="T71" s="9">
+      <c r="U71" s="9">
         <f t="shared" si="48"/>
         <v>27.057015938287304</v>
       </c>
-      <c r="U71" s="9">
+      <c r="V71" s="9">
         <f t="shared" si="49"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45292</v>
       </c>
@@ -5678,31 +5692,31 @@
       <c r="N72">
         <v>21</v>
       </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
         <f t="shared" si="45"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f t="shared" si="46"/>
         <v>8.0465</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <f t="shared" si="47"/>
         <v>181.0511942063618</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <f t="shared" si="48"/>
         <v>22.500614454279724</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <f t="shared" si="49"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45305</v>
       </c>
@@ -5745,31 +5759,31 @@
       <c r="N73">
         <v>49</v>
       </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="4">
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
         <f t="shared" si="45"/>
         <v>0.1024390243902439</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <f t="shared" si="46"/>
         <v>10.943239999999999</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <f t="shared" si="47"/>
         <v>365.75998829568039</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <f t="shared" si="48"/>
         <v>33.423372629649023</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f t="shared" si="49"/>
         <v>0.73529411764705888</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45311</v>
       </c>
@@ -5812,31 +5826,31 @@
       <c r="N74">
         <v>1</v>
       </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="4">
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
         <f t="shared" si="45"/>
         <v>9.375E-2</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <f t="shared" si="46"/>
         <v>12.8744</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <f t="shared" si="47"/>
         <v>424.89118640348204</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <f t="shared" si="48"/>
         <v>33.002795190725941</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <f t="shared" si="49"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45325</v>
       </c>
@@ -5879,31 +5893,31 @@
       <c r="N75">
         <v>38</v>
       </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="4">
-        <f t="shared" ref="Q75:Q78" si="50">H75/I75</f>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" ref="R75:R77" si="50">H75/I75</f>
         <v>0.13793103448275862</v>
       </c>
-      <c r="R75">
-        <f t="shared" ref="R75:R77" si="51">F75*1.6093</f>
+      <c r="S75">
+        <f t="shared" ref="S75:S77" si="51">F75*1.6093</f>
         <v>31.05949</v>
       </c>
-      <c r="S75">
-        <f t="shared" ref="S75:S77" si="52">G75/3.28084</f>
+      <c r="T75">
+        <f t="shared" ref="T75:T77" si="52">G75/3.28084</f>
         <v>1110.08156447739</v>
       </c>
-      <c r="T75">
-        <f t="shared" ref="T75:T77" si="53">S75/R75</f>
+      <c r="U75">
+        <f t="shared" ref="U75:U77" si="53">T75/S75</f>
         <v>35.74049556117599</v>
       </c>
-      <c r="U75">
-        <f t="shared" ref="U75:U78" si="54">J75/F75</f>
+      <c r="V75">
+        <f t="shared" ref="V75:V77" si="54">J75/F75</f>
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45326</v>
       </c>
@@ -5946,31 +5960,31 @@
       <c r="N76">
         <v>41</v>
       </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="4">
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
         <f t="shared" si="50"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <f t="shared" si="51"/>
         <v>7.8855700000000004</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <f t="shared" si="52"/>
         <v>271.27199131929626</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <f t="shared" si="53"/>
         <v>34.401063121536708</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <f t="shared" si="54"/>
         <v>2.0408163265306123</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45340</v>
       </c>
@@ -6013,31 +6027,31 @@
       <c r="N77">
         <v>50</v>
       </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="4">
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
         <f t="shared" si="50"/>
         <v>0.10784313725490197</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <f t="shared" si="51"/>
         <v>8.0465</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <f t="shared" si="52"/>
         <v>380.99998780800041</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <f t="shared" si="53"/>
         <v>47.349777892002784</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <f t="shared" si="54"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45346</v>
       </c>
@@ -6080,31 +6094,31 @@
       <c r="N78">
         <v>55</v>
       </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="4">
-        <f t="shared" ref="Q78:Q81" si="55">H78/I78</f>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" ref="R78:R81" si="55">H78/I78</f>
         <v>0.1864406779661017</v>
       </c>
-      <c r="R78">
-        <f t="shared" ref="R78:R81" si="56">F78*1.6093</f>
+      <c r="S78">
+        <f t="shared" ref="S78:S81" si="56">F78*1.6093</f>
         <v>14.96649</v>
       </c>
-      <c r="S78">
-        <f t="shared" ref="S78:S81" si="57">G78/3.28084</f>
+      <c r="T78">
+        <f t="shared" ref="T78:T81" si="57">G78/3.28084</f>
         <v>459.94318528181805</v>
       </c>
-      <c r="T78">
-        <f t="shared" ref="T78:T81" si="58">S78/R78</f>
+      <c r="U78">
+        <f t="shared" ref="U78:U81" si="58">T78/S78</f>
         <v>30.73153326409987</v>
       </c>
-      <c r="U78">
-        <f t="shared" ref="U78:U81" si="59">J78/F78</f>
+      <c r="V78">
+        <f t="shared" ref="V78:V81" si="59">J78/F78</f>
         <v>1.6129032258064515</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45381</v>
       </c>
@@ -6147,33 +6161,33 @@
       <c r="N79">
         <v>41</v>
       </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="4">
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
         <f t="shared" si="55"/>
         <v>0.125</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <f t="shared" si="56"/>
         <v>5.1497600000000006</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <f t="shared" si="57"/>
         <v>213.05519318223381</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <f t="shared" si="58"/>
         <v>41.371868433137422</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <f t="shared" si="59"/>
         <v>3.125</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
@@ -6214,31 +6228,31 @@
       <c r="N80">
         <v>55</v>
       </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="4">
+      <c r="Q80" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
         <f t="shared" si="55"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <f t="shared" si="56"/>
         <v>18.50695</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <f t="shared" si="57"/>
         <v>1100.0231647992587</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <f t="shared" si="58"/>
         <v>59.438382056430619</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <f t="shared" si="59"/>
         <v>1.2173913043478262</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45426</v>
       </c>
@@ -6281,31 +6295,31 @@
       <c r="N81">
         <v>50</v>
       </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4">
+      <c r="Q81" t="b">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
         <f t="shared" si="55"/>
         <v>6.2893081761006289E-2</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <f t="shared" si="56"/>
         <v>8.3683600000000009</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <f t="shared" si="57"/>
         <v>349.91038880286754</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <f t="shared" si="58"/>
         <v>41.813496169245525</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <f t="shared" si="59"/>
         <v>1.346153846153846</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45434</v>
       </c>
@@ -6348,27 +6362,27 @@
       <c r="N82">
         <v>30</v>
       </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4">
-        <f t="shared" ref="Q82" si="60">H82/I82</f>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" ref="R82" si="60">H82/I82</f>
         <v>0.14102564102564102</v>
       </c>
-      <c r="R82">
-        <f t="shared" ref="R82" si="61">F82*1.6093</f>
+      <c r="S82">
+        <f t="shared" ref="S82" si="61">F82*1.6093</f>
         <v>5.6325500000000002</v>
       </c>
-      <c r="S82">
-        <f t="shared" ref="S82" si="62">G82/3.28084</f>
+      <c r="T82">
+        <f t="shared" ref="T82" si="62">G82/3.28084</f>
         <v>366.0647882859268</v>
       </c>
-      <c r="T82">
-        <f t="shared" ref="T82" si="63">S82/R82</f>
+      <c r="U82">
+        <f t="shared" ref="U82" si="63">T82/S82</f>
         <v>64.990952283766106</v>
       </c>
-      <c r="U82">
-        <f t="shared" ref="U82" si="64">J82/F82</f>
+      <c r="V82">
+        <f t="shared" ref="V82" si="64">J82/F82</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -6384,12 +6398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6618,6 +6626,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6628,23 +6642,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6663,6 +6660,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Rivington Pike</t>
+  </si>
+  <si>
+    <t>Pen y Ghent</t>
   </si>
 </sst>
 </file>
@@ -744,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -886,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <f>H2/I2</f>
+        <f t="shared" ref="Q2:Q33" si="0">H2/I2</f>
         <v>0.41860465116279072</v>
       </c>
       <c r="R2">
-        <f>F2*1.6093</f>
+        <f t="shared" ref="R2:R33" si="1">F2*1.6093</f>
         <v>7.2418499999999995</v>
       </c>
       <c r="S2">
-        <f>G2/3.28084</f>
+        <f t="shared" ref="S2:S33" si="2">G2/3.28084</f>
         <v>761.99997561600082</v>
       </c>
       <c r="T2">
@@ -902,7 +905,7 @@
         <v>105.22172864889508</v>
       </c>
       <c r="U2">
-        <f>J2/F2</f>
+        <f t="shared" ref="U2:U33" si="3">J2/F2</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -956,23 +959,23 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <f>H3/I3</f>
+        <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="R3">
-        <f>F3*1.6093</f>
+        <f t="shared" si="1"/>
         <v>30.576699999999999</v>
       </c>
       <c r="S3">
-        <f>G3/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1356.9695565769741</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T38" si="0">S3/R3</f>
+        <f t="shared" ref="T3:T38" si="4">S3/R3</f>
         <v>44.379202352672927</v>
       </c>
       <c r="U3">
-        <f>J3/F3</f>
+        <f t="shared" si="3"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
@@ -1026,23 +1029,23 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <f>H4/I4</f>
+        <f t="shared" si="0"/>
         <v>0.16935483870967741</v>
       </c>
       <c r="R4">
-        <f>F4*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S4">
-        <f>G4/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="U4">
-        <f>J4/F4</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1096,23 +1099,23 @@
         <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <f>H5/I5</f>
+        <f t="shared" si="0"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="R5" s="9">
-        <f>F5*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="S5" s="9">
-        <f>G5/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="U5" s="9">
-        <f>J5/F5</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="V5" s="9"/>
@@ -1168,23 +1171,23 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <f>H6/I6</f>
+        <f t="shared" si="0"/>
         <v>0.20496894409937888</v>
       </c>
       <c r="R6">
-        <f>F6*1.6093</f>
+        <f t="shared" si="1"/>
         <v>10.782310000000001</v>
       </c>
       <c r="S6">
-        <f>G6/3.28084</f>
+        <f t="shared" si="2"/>
         <v>304.79999024640034</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.268524114628526</v>
       </c>
       <c r="U6">
-        <f>J6/F6</f>
+        <f t="shared" si="3"/>
         <v>0.74626865671641784</v>
       </c>
     </row>
@@ -1238,23 +1241,23 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <f>H7/I7</f>
+        <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
       <c r="R7">
-        <f>F7*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S7">
-        <f>G7/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="U7">
-        <f>J7/F7</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1308,23 +1311,23 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <f>H8/I8</f>
+        <f t="shared" si="0"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="R8">
-        <f>F8*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="S8">
-        <f>G8/3.28084</f>
+        <f t="shared" si="2"/>
         <v>167.63999463552017</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20.833902272481225</v>
       </c>
       <c r="U8">
-        <f>J8/F8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1378,23 +1381,23 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <f>H9/I9</f>
+        <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
       <c r="R9">
-        <f>F9*1.6093</f>
+        <f t="shared" si="1"/>
         <v>4.02325</v>
       </c>
       <c r="S9">
-        <f>G9/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>53.031751239043118</v>
       </c>
       <c r="U9">
-        <f>J9/F9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1448,23 +1451,23 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <f>H10/I10</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="R10">
-        <f>F10*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S10">
-        <f>G10/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="U10">
-        <f>J10/F10</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1518,23 +1521,23 @@
         <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <f>H11/I11</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="R11" s="9">
-        <f>F11*1.6093</f>
+        <f t="shared" si="1"/>
         <v>6.9199899999999994</v>
       </c>
       <c r="S11" s="9">
-        <f>G11/3.28084</f>
+        <f t="shared" si="2"/>
         <v>259.99439168017949</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.571498178491517</v>
       </c>
       <c r="U11" s="9">
-        <f>J11/F11</f>
+        <f t="shared" si="3"/>
         <v>1.1627906976744187</v>
       </c>
       <c r="V11" s="9"/>
@@ -1590,23 +1593,23 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <f>H12/I12</f>
+        <f t="shared" si="0"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="R12">
-        <f>F12*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="S12">
-        <f>G12/3.28084</f>
+        <f t="shared" si="2"/>
         <v>548.63998244352058</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>68.183680164484002</v>
       </c>
       <c r="U12">
-        <f>J12/F12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1660,23 +1663,23 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <f>H13/I13</f>
+        <f t="shared" si="0"/>
         <v>0.2733812949640288</v>
       </c>
       <c r="R13">
-        <f>F13*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="S13">
-        <f>G13/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="U13">
-        <f>J13/F13</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -1730,23 +1733,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <f>H14/I14</f>
+        <f t="shared" si="0"/>
         <v>0.26804123711340205</v>
       </c>
       <c r="R14">
-        <f>F14*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.000909999999999</v>
       </c>
       <c r="S14">
-        <f>G14/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.947014106300259</v>
       </c>
       <c r="U14">
-        <f>J14/F14</f>
+        <f t="shared" si="3"/>
         <v>0.57471264367816099</v>
       </c>
     </row>
@@ -1800,23 +1803,23 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <f>H15/I15</f>
+        <f t="shared" si="0"/>
         <v>0.22463768115942029</v>
       </c>
       <c r="R15">
-        <f>F15*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S15">
-        <f>G15/3.28084</f>
+        <f t="shared" si="2"/>
         <v>249.93599200204827</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.049559917059536</v>
       </c>
       <c r="U15">
-        <f>J15/F15</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -1870,23 +1873,23 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <f>H16/I16</f>
+        <f t="shared" si="0"/>
         <v>0.19834710743801653</v>
       </c>
       <c r="R16">
-        <f>F16*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S16">
-        <f>G16/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="U16">
-        <f>J16/F16</f>
+        <f t="shared" si="3"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -1940,23 +1943,23 @@
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>H17/I17</f>
+        <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
       <c r="R17">
-        <f>F17*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.96649</v>
       </c>
       <c r="S17">
-        <f>G17/3.28084</f>
+        <f t="shared" si="2"/>
         <v>420.01438655953962</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
       <c r="U17">
-        <f>J17/F17</f>
+        <f t="shared" si="3"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
@@ -2010,23 +2013,23 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <f>H18/I18</f>
+        <f t="shared" si="0"/>
         <v>0.20760233918128654</v>
       </c>
       <c r="R18">
-        <f>F18*1.6093</f>
+        <f t="shared" si="1"/>
         <v>27.036239999999999</v>
       </c>
       <c r="S18">
-        <f>G18/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54.48606584572606</v>
       </c>
       <c r="U18">
-        <f>J18/F18</f>
+        <f t="shared" si="3"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
@@ -2077,23 +2080,23 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <f>H19/I19</f>
+        <f t="shared" si="0"/>
         <v>0.10465116279069768</v>
       </c>
       <c r="R19">
-        <f>F19*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.6557999999999993</v>
       </c>
       <c r="S19">
-        <f>G19/3.28084</f>
+        <f t="shared" si="2"/>
         <v>499.87198400409653</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>51.769090495256378</v>
       </c>
       <c r="U19">
-        <f>J19/F19</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -2145,23 +2148,23 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <f>H20/I20</f>
+        <f t="shared" si="0"/>
         <v>0.17543859649122806</v>
       </c>
       <c r="R20" s="9">
-        <f>F20*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.8855700000000004</v>
       </c>
       <c r="S20" s="9">
-        <f>G20/3.28084</f>
+        <f t="shared" si="2"/>
         <v>213.35999317248022</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27.057015938287304</v>
       </c>
       <c r="U20" s="9">
-        <f>J20/F20</f>
+        <f t="shared" si="3"/>
         <v>1.0204081632653061</v>
       </c>
       <c r="V20" s="9"/>
@@ -2214,23 +2217,23 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <f>H21/I21</f>
+        <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="R21">
-        <f>F21*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.8744</v>
       </c>
       <c r="S21">
-        <f>G21/3.28084</f>
+        <f t="shared" si="2"/>
         <v>424.89118640348204</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33.002795190725941</v>
       </c>
       <c r="U21">
-        <f>J21/F21</f>
+        <f t="shared" si="3"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
@@ -2284,23 +2287,23 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f>H22/I22</f>
+        <f t="shared" si="0"/>
         <v>0.23118279569892472</v>
       </c>
       <c r="R22">
-        <f>F22*1.6093</f>
+        <f t="shared" si="1"/>
         <v>7.5637100000000004</v>
       </c>
       <c r="S22">
-        <f>G22/3.28084</f>
+        <f t="shared" si="2"/>
         <v>271.27199131929626</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.864938147985086</v>
       </c>
       <c r="U22">
-        <f>J22/F22</f>
+        <f t="shared" si="3"/>
         <v>2.1276595744680851</v>
       </c>
     </row>
@@ -2354,23 +2357,23 @@
         <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <f>H23/I23</f>
+        <f t="shared" si="0"/>
         <v>0.19594594594594594</v>
       </c>
       <c r="R23">
-        <f>F23*1.6093</f>
+        <f t="shared" si="1"/>
         <v>31.05949</v>
       </c>
       <c r="S23">
-        <f>G23/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1110.08156447739</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.74049556117599</v>
       </c>
       <c r="U23">
-        <f>J23/F23</f>
+        <f t="shared" si="3"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -2424,23 +2427,23 @@
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f>H24/I24</f>
+        <f t="shared" si="0"/>
         <v>0.14594594594594595</v>
       </c>
       <c r="R24">
-        <f>F24*1.6093</f>
+        <f t="shared" si="1"/>
         <v>12.069749999999999</v>
       </c>
       <c r="S24">
-        <f>G24/3.28084</f>
+        <f t="shared" si="2"/>
         <v>609.90478048304703</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50.531682966345372</v>
       </c>
       <c r="U24">
-        <f>J24/F24</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2494,23 +2497,23 @@
         <v>0</v>
       </c>
       <c r="Q25" s="4">
-        <f>H25/I25</f>
+        <f t="shared" si="0"/>
         <v>0.19303797468354431</v>
       </c>
       <c r="R25">
-        <f>F25*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="S25">
-        <f>G25/3.28084</f>
+        <f t="shared" si="2"/>
         <v>401.1167871642628</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>49.84984616470053</v>
       </c>
       <c r="U25">
-        <f>J25/F25</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
@@ -2561,23 +2564,23 @@
         <v>0</v>
       </c>
       <c r="Q26" s="4">
-        <f>H26/I26</f>
+        <f t="shared" si="0"/>
         <v>0.21774193548387097</v>
       </c>
       <c r="R26">
-        <f>F26*1.6093</f>
+        <f t="shared" si="1"/>
         <v>24.78322</v>
       </c>
       <c r="S26">
-        <f>G26/3.28084</f>
+        <f t="shared" si="2"/>
         <v>965.91116909084258</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38.974401594742027</v>
       </c>
       <c r="U26">
-        <f>J26/F26</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -2628,23 +2631,23 @@
         <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <f>H27/I27</f>
+        <f t="shared" si="0"/>
         <v>0.28082191780821919</v>
       </c>
       <c r="R27">
-        <f>F27*1.6093</f>
+        <f t="shared" si="1"/>
         <v>11.2651</v>
       </c>
       <c r="S27">
-        <f>G27/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.762717532116032</v>
       </c>
       <c r="U27">
-        <f>J27/F27</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -2698,23 +2701,23 @@
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <f>H28/I28</f>
+        <f t="shared" si="0"/>
         <v>0.16756756756756758</v>
       </c>
       <c r="R28">
-        <f>F28*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="S28">
-        <f>G28/3.28084</f>
+        <f t="shared" si="2"/>
         <v>349.91038880286754</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.813496169245525</v>
       </c>
       <c r="U28">
-        <f>J28/F28</f>
+        <f t="shared" si="3"/>
         <v>1.346153846153846</v>
       </c>
     </row>
@@ -2765,23 +2768,23 @@
         <v>0</v>
       </c>
       <c r="Q29" s="4">
-        <f>H29/I29</f>
+        <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="R29">
-        <f>F29*1.6093</f>
+        <f t="shared" si="1"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S29">
-        <f>G29/3.28084</f>
+        <f t="shared" si="2"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="U29">
-        <f>J29/F29</f>
+        <f t="shared" si="3"/>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -2832,23 +2835,23 @@
         <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <f>H30/I30</f>
+        <f t="shared" si="0"/>
         <v>0.45925925925925926</v>
       </c>
       <c r="R30">
-        <f>F30*1.6093</f>
+        <f t="shared" si="1"/>
         <v>23.978570000000001</v>
       </c>
       <c r="S30">
-        <f>G30/3.28084</f>
+        <f t="shared" si="2"/>
         <v>1336.8527572207117</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.751980089751463</v>
       </c>
       <c r="U30">
-        <f>J30/F30</f>
+        <f t="shared" si="3"/>
         <v>0.80536912751677847</v>
       </c>
     </row>
@@ -2899,23 +2902,23 @@
         <v>0</v>
       </c>
       <c r="Q31" s="4">
-        <f>H31/I31</f>
+        <f t="shared" si="0"/>
         <v>0.1242603550295858</v>
       </c>
       <c r="R31">
-        <f>F31*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.8511500000000005</v>
       </c>
       <c r="S31">
-        <f>G31/3.28084</f>
+        <f t="shared" si="2"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.879822313602226</v>
       </c>
       <c r="U31">
-        <f>J31/F31</f>
+        <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
@@ -2969,23 +2972,23 @@
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <f>H32/I32</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="R32">
-        <f>F32*1.6093</f>
+        <f t="shared" si="1"/>
         <v>8.0465</v>
       </c>
       <c r="S32">
-        <f>G32/3.28084</f>
+        <f t="shared" si="2"/>
         <v>305.10479023664669</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>37.917702135915825</v>
       </c>
       <c r="U32">
-        <f>J32/F32</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3039,23 +3042,23 @@
         <v>0</v>
       </c>
       <c r="Q33" s="4">
-        <f>H33/I33</f>
+        <f t="shared" si="0"/>
         <v>0.10317460317460317</v>
       </c>
       <c r="R33">
-        <f>F33*1.6093</f>
+        <f t="shared" si="1"/>
         <v>14.161840000000002</v>
       </c>
       <c r="S33">
-        <f>G33/3.28084</f>
+        <f t="shared" si="2"/>
         <v>334.97518928079393</v>
       </c>
       <c r="T33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.653366319686842</v>
       </c>
       <c r="U33">
-        <f>J33/F33</f>
+        <f t="shared" si="3"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
@@ -3106,23 +3109,23 @@
         <v>1</v>
       </c>
       <c r="Q34" s="4">
-        <f>H34/I34</f>
+        <f t="shared" ref="Q34:Q65" si="5">H34/I34</f>
         <v>0.49011857707509882</v>
       </c>
       <c r="R34">
-        <f>F34*1.6093</f>
+        <f t="shared" ref="R34:R65" si="6">F34*1.6093</f>
         <v>8.0465</v>
       </c>
       <c r="S34">
-        <f>G34/3.28084</f>
+        <f t="shared" ref="S34:S65" si="7">G34/3.28084</f>
         <v>449.88478560368685</v>
       </c>
       <c r="T34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55.910617734876887</v>
       </c>
       <c r="U34">
-        <f>J34/F34</f>
+        <f t="shared" ref="U34:U65" si="8">J34/F34</f>
         <v>2</v>
       </c>
     </row>
@@ -3176,23 +3179,23 @@
         <v>0</v>
       </c>
       <c r="Q35" s="4">
-        <f>H35/I35</f>
+        <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="R35">
-        <f>F35*1.6093</f>
+        <f t="shared" si="6"/>
         <v>23.978570000000001</v>
       </c>
       <c r="S35">
-        <f>G35/3.28084</f>
+        <f t="shared" si="7"/>
         <v>819.91197376281684</v>
       </c>
       <c r="T35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34.193530880399322</v>
       </c>
       <c r="U35">
-        <f>J35/F35</f>
+        <f t="shared" si="8"/>
         <v>0.67114093959731547</v>
       </c>
     </row>
@@ -3246,23 +3249,23 @@
         <v>0</v>
       </c>
       <c r="Q36" s="4">
-        <f>H36/I36</f>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="R36">
-        <f>F36*1.6093</f>
+        <f t="shared" si="6"/>
         <v>10.621379999999998</v>
       </c>
       <c r="S36">
-        <f>G36/3.28084</f>
+        <f t="shared" si="7"/>
         <v>469.39198497945648</v>
       </c>
       <c r="T36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44.193126032535936</v>
       </c>
       <c r="U36">
-        <f>J36/F36</f>
+        <f t="shared" si="8"/>
         <v>1.2121212121212122</v>
       </c>
     </row>
@@ -3313,23 +3316,23 @@
         <v>0</v>
       </c>
       <c r="Q37" s="4">
-        <f>H37/I37</f>
+        <f t="shared" si="5"/>
         <v>0.13194444444444445</v>
       </c>
       <c r="R37">
-        <f>F37*1.6093</f>
+        <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S37">
-        <f>G37/3.28084</f>
+        <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>35.130480371485937</v>
       </c>
       <c r="U37">
-        <f>J37/F37</f>
+        <f t="shared" si="8"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -3383,23 +3386,23 @@
         <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <f>H38/I38</f>
+        <f t="shared" si="5"/>
         <v>9.5744680851063829E-2</v>
       </c>
       <c r="R38">
-        <f>F38*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
       <c r="S38">
-        <f>G38/3.28084</f>
+        <f t="shared" si="7"/>
         <v>420.01438655953962</v>
       </c>
       <c r="T38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.063653305453691</v>
       </c>
       <c r="U38">
-        <f>J38/F38</f>
+        <f t="shared" si="8"/>
         <v>0.5376344086021505</v>
       </c>
     </row>
@@ -3453,23 +3456,23 @@
         <v>0</v>
       </c>
       <c r="Q39" s="4">
-        <f>H39/I39</f>
+        <f t="shared" si="5"/>
         <v>0.43714285714285717</v>
       </c>
       <c r="R39">
-        <f>F39*1.6093</f>
+        <f t="shared" si="6"/>
         <v>27.036239999999999</v>
       </c>
       <c r="S39">
-        <f>G39/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="T39">
-        <f t="shared" ref="T39:T40" si="1">S39/R39</f>
+        <f t="shared" ref="T39:T40" si="9">S39/R39</f>
         <v>54.48606584572606</v>
       </c>
       <c r="U39">
-        <f>J39/F39</f>
+        <f t="shared" si="8"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
@@ -3521,23 +3524,23 @@
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f>H40/I40</f>
+        <f t="shared" si="5"/>
         <v>0.10434782608695652</v>
       </c>
       <c r="R40" s="9">
-        <f>F40*1.6093</f>
+        <f t="shared" si="6"/>
         <v>6.9199899999999994</v>
       </c>
       <c r="S40" s="9">
-        <f>G40/3.28084</f>
+        <f t="shared" si="7"/>
         <v>249.93599200204827</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>36.117970112969566</v>
       </c>
       <c r="U40" s="9">
-        <f>J40/F40</f>
+        <f t="shared" si="8"/>
         <v>1.1627906976744187</v>
       </c>
       <c r="V40" s="9"/>
@@ -3593,23 +3596,23 @@
         <v>0</v>
       </c>
       <c r="Q41" s="4">
-        <f>H41/I41</f>
+        <f t="shared" si="5"/>
         <v>0.2076271186440678</v>
       </c>
       <c r="R41">
-        <f>F41*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="S41">
-        <f>G41/3.28084</f>
+        <f t="shared" si="7"/>
         <v>499.87198400409653</v>
       </c>
       <c r="T41">
-        <f t="shared" ref="T41:T49" si="2">S41/R41</f>
+        <f t="shared" ref="T41:T49" si="10">S41/R41</f>
         <v>62.122908594307653</v>
       </c>
       <c r="U41">
-        <f>J41/F41</f>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3663,23 +3666,23 @@
         <v>0</v>
       </c>
       <c r="Q42" s="4">
-        <f>H42/I42</f>
+        <f t="shared" si="5"/>
         <v>0.16901408450704225</v>
       </c>
       <c r="R42">
-        <f>F42*1.6093</f>
+        <f t="shared" si="6"/>
         <v>31.05949</v>
       </c>
       <c r="S42">
-        <f>G42/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1110.08156447739</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>35.74049556117599</v>
       </c>
       <c r="U42">
-        <f>J42/F42</f>
+        <f t="shared" si="8"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -3730,23 +3733,23 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4">
-        <f>H43/I43</f>
+        <f t="shared" si="5"/>
         <v>0.49511400651465798</v>
       </c>
       <c r="R43">
-        <f>F43*1.6093</f>
+        <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
       <c r="S43">
-        <f>G43/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1371.9047560990477</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>74.129165318923313</v>
       </c>
       <c r="U43">
-        <f>J43/F43</f>
+        <f t="shared" si="8"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
@@ -3800,23 +3803,23 @@
         <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <f>H44/I44</f>
+        <f t="shared" si="5"/>
         <v>6.8783068783068779E-2</v>
       </c>
       <c r="R44">
-        <f>F44*1.6093</f>
+        <f t="shared" si="6"/>
         <v>13.035329999999998</v>
       </c>
       <c r="S44">
-        <f>G44/3.28084</f>
+        <f t="shared" si="7"/>
         <v>659.89197888345666</v>
       </c>
       <c r="T44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>50.623342783301744</v>
       </c>
       <c r="U44">
-        <f>J44/F44</f>
+        <f t="shared" si="8"/>
         <v>0.98765432098765438</v>
       </c>
     </row>
@@ -3870,23 +3873,23 @@
         <v>0</v>
       </c>
       <c r="Q45" s="4">
-        <f>H45/I45</f>
+        <f t="shared" si="5"/>
         <v>8.9673913043478257E-2</v>
       </c>
       <c r="R45">
-        <f>F45*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.96649</v>
       </c>
       <c r="S45">
-        <f>G45/3.28084</f>
+        <f t="shared" si="7"/>
         <v>459.94318528181805</v>
       </c>
       <c r="T45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>30.73153326409987</v>
       </c>
       <c r="U45">
-        <f>J45/F45</f>
+        <f t="shared" si="8"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
@@ -3937,23 +3940,23 @@
         <v>0</v>
       </c>
       <c r="Q46" s="4">
-        <f>H46/I46</f>
+        <f t="shared" si="5"/>
         <v>0.18292682926829268</v>
       </c>
       <c r="R46">
-        <f>F46*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="S46">
-        <f>G46/3.28084</f>
+        <f t="shared" si="7"/>
         <v>401.1167871642628</v>
       </c>
       <c r="T46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>49.84984616470053</v>
       </c>
       <c r="U46">
-        <f>J46/F46</f>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
@@ -4004,23 +4007,23 @@
         <v>0</v>
       </c>
       <c r="Q47" s="4">
-        <f>H47/I47</f>
+        <f t="shared" si="5"/>
         <v>0.22545454545454546</v>
       </c>
       <c r="R47">
-        <f>F47*1.6093</f>
+        <f t="shared" si="6"/>
         <v>13.67905</v>
       </c>
       <c r="S47">
-        <f>G47/3.28084</f>
+        <f t="shared" si="7"/>
         <v>915.00957071969378</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>66.891309756137588</v>
       </c>
       <c r="U47">
-        <f>J47/F47</f>
+        <f t="shared" si="8"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
@@ -4071,23 +4074,23 @@
         <v>0</v>
       </c>
       <c r="Q48" s="4">
-        <f>H48/I48</f>
+        <f t="shared" si="5"/>
         <v>0.17613636363636365</v>
       </c>
       <c r="R48">
-        <f>F48*1.6093</f>
+        <f t="shared" si="6"/>
         <v>7.2418499999999995</v>
       </c>
       <c r="S48">
-        <f>G48/3.28084</f>
+        <f t="shared" si="7"/>
         <v>456.89518537935407</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>63.090948497877491</v>
       </c>
       <c r="U48">
-        <f>J48/F48</f>
+        <f t="shared" si="8"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -4138,23 +4141,23 @@
         <v>0</v>
       </c>
       <c r="Q49" s="4">
-        <f>H49/I49</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="R49">
-        <f>F49*1.6093</f>
+        <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
       <c r="S49">
-        <f>G49/3.28084</f>
+        <f t="shared" si="7"/>
         <v>380.99998780800041</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>33.82126992285913</v>
       </c>
       <c r="U49">
-        <f>J49/F49</f>
+        <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -4205,23 +4208,23 @@
         <v>0</v>
       </c>
       <c r="Q50" s="4">
-        <f>H50/I50</f>
+        <f t="shared" si="5"/>
         <v>0.31707317073170732</v>
       </c>
       <c r="R50">
-        <f>F50*1.6093</f>
+        <f t="shared" si="6"/>
         <v>18.50695</v>
       </c>
       <c r="S50">
-        <f>G50/3.28084</f>
+        <f t="shared" si="7"/>
         <v>1100.0231647992587</v>
       </c>
       <c r="T50">
-        <f t="shared" ref="T50:T51" si="3">S50/R50</f>
+        <f t="shared" ref="T50:T51" si="11">S50/R50</f>
         <v>59.438382056430619</v>
       </c>
       <c r="U50">
-        <f>J50/F50</f>
+        <f t="shared" si="8"/>
         <v>1.0434782608695652</v>
       </c>
     </row>
@@ -4272,23 +4275,23 @@
         <v>0</v>
       </c>
       <c r="Q51" s="4">
-        <f>H51/I51</f>
+        <f t="shared" si="5"/>
         <v>7.7294685990338161E-2</v>
       </c>
       <c r="R51">
-        <f>F51*1.6093</f>
+        <f t="shared" si="6"/>
         <v>10.782310000000001</v>
       </c>
       <c r="S51">
-        <f>G51/3.28084</f>
+        <f t="shared" si="7"/>
         <v>295.0463905585155</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>27.363931342960413</v>
       </c>
       <c r="U51">
-        <f>J51/F51</f>
+        <f t="shared" si="8"/>
         <v>1.044776119402985</v>
       </c>
     </row>
@@ -4339,23 +4342,23 @@
         <v>0</v>
       </c>
       <c r="Q52" s="4">
-        <f>H52/I52</f>
+        <f t="shared" si="5"/>
         <v>0.14893617021276595</v>
       </c>
       <c r="R52">
-        <f>F52*1.6093</f>
+        <f t="shared" si="6"/>
         <v>11.2651</v>
       </c>
       <c r="S52">
-        <f>G52/3.28084</f>
+        <f t="shared" si="7"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:T56" si="4">S52/R52</f>
+        <f t="shared" ref="T52:T56" si="12">S52/R52</f>
         <v>29.762717532116032</v>
       </c>
       <c r="U52">
-        <f>J52/F52</f>
+        <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -4406,23 +4409,23 @@
         <v>0</v>
       </c>
       <c r="Q53" s="4">
-        <f>H53/I53</f>
+        <f t="shared" si="5"/>
         <v>0.16</v>
       </c>
       <c r="R53">
-        <f>F53*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="S53">
-        <f>G53/3.28084</f>
+        <f t="shared" si="7"/>
         <v>349.91038880286754</v>
       </c>
       <c r="T53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>41.813496169245525</v>
       </c>
       <c r="U53">
-        <f>J53/F53</f>
+        <f t="shared" si="8"/>
         <v>1.346153846153846</v>
       </c>
     </row>
@@ -4473,23 +4476,23 @@
         <v>1</v>
       </c>
       <c r="Q54" s="4">
-        <f>H54/I54</f>
+        <f t="shared" si="5"/>
         <v>0.54788418708240538</v>
       </c>
       <c r="R54">
-        <f>F54*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.483699999999999</v>
       </c>
       <c r="S54">
-        <f>G54/3.28084</f>
+        <f t="shared" si="7"/>
         <v>914.0951707489545</v>
       </c>
       <c r="T54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>63.111992843607268</v>
       </c>
       <c r="U54">
-        <f>J54/F54</f>
+        <f t="shared" si="8"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -4540,23 +4543,23 @@
         <v>0</v>
       </c>
       <c r="Q55" s="4">
-        <f>H55/I55</f>
+        <f t="shared" si="5"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="R55">
-        <f>F55*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="S55">
-        <f>G55/3.28084</f>
+        <f t="shared" si="7"/>
         <v>365.75998829568039</v>
       </c>
       <c r="T55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>43.707487284925641</v>
       </c>
       <c r="U55">
-        <f>J55/F55</f>
+        <f t="shared" si="8"/>
         <v>1.5384615384615383</v>
       </c>
     </row>
@@ -4607,23 +4610,23 @@
         <v>0</v>
       </c>
       <c r="Q56" s="4">
-        <f>H56/I56</f>
+        <f t="shared" si="5"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="R56">
-        <f>F56*1.6093</f>
+        <f t="shared" si="6"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S56">
-        <f>G56/3.28084</f>
+        <f t="shared" si="7"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35.130480371485937</v>
       </c>
       <c r="U56">
-        <f>J56/F56</f>
+        <f t="shared" si="8"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -4674,23 +4677,23 @@
         <v>0</v>
       </c>
       <c r="Q57" s="4">
-        <f>H57/I57</f>
+        <f t="shared" si="5"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="R57">
-        <f>F57*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="S57">
-        <f>G57/3.28084</f>
+        <f t="shared" si="7"/>
         <v>548.63998244352058</v>
       </c>
       <c r="T57">
-        <f t="shared" ref="T57:T58" si="5">S57/R57</f>
+        <f t="shared" ref="T57:T58" si="13">S57/R57</f>
         <v>68.183680164484002</v>
       </c>
       <c r="U57">
-        <f>J57/F57</f>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
     </row>
@@ -4741,23 +4744,23 @@
         <v>0</v>
       </c>
       <c r="Q58" s="4">
-        <f>H58/I58</f>
+        <f t="shared" si="5"/>
         <v>0.25925925925925924</v>
       </c>
       <c r="R58">
-        <f>F58*1.6093</f>
+        <f t="shared" si="6"/>
         <v>7.5637100000000004</v>
       </c>
       <c r="S58">
-        <f>G58/3.28084</f>
+        <f t="shared" si="7"/>
         <v>374.90398800307241</v>
       </c>
       <c r="T58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>49.56615047418164</v>
       </c>
       <c r="U58">
-        <f>J58/F58</f>
+        <f t="shared" si="8"/>
         <v>1.2765957446808509</v>
       </c>
     </row>
@@ -4808,23 +4811,23 @@
         <v>0</v>
       </c>
       <c r="Q59" s="4">
-        <f>H59/I59</f>
+        <f t="shared" si="5"/>
         <v>0.11333333333333333</v>
       </c>
       <c r="R59">
-        <f>F59*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.8511500000000005</v>
       </c>
       <c r="S59">
-        <f>G59/3.28084</f>
+        <f t="shared" si="7"/>
         <v>335.27998927104034</v>
       </c>
       <c r="T59">
-        <f t="shared" ref="T59:T60" si="6">S59/R59</f>
+        <f t="shared" ref="T59:T60" si="14">S59/R59</f>
         <v>37.879822313602226</v>
       </c>
       <c r="U59">
-        <f>J59/F59</f>
+        <f t="shared" si="8"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
@@ -4875,23 +4878,23 @@
         <v>0</v>
       </c>
       <c r="Q60" s="4">
-        <f>H60/I60</f>
+        <f t="shared" si="5"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="R60">
-        <f>F60*1.6093</f>
+        <f t="shared" si="6"/>
         <v>9.4948700000000006</v>
       </c>
       <c r="S60">
-        <f>G60/3.28084</f>
+        <f t="shared" si="7"/>
         <v>499.87198400409653</v>
       </c>
       <c r="T60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>52.646532707040379</v>
       </c>
       <c r="U60">
-        <f>J60/F60</f>
+        <f t="shared" si="8"/>
         <v>0.84745762711864403</v>
       </c>
     </row>
@@ -4942,23 +4945,23 @@
         <v>0</v>
       </c>
       <c r="Q61" s="4">
-        <f>H61/I61</f>
+        <f t="shared" si="5"/>
         <v>0.11842105263157894</v>
       </c>
       <c r="R61">
-        <f>F61*1.6093</f>
+        <f t="shared" si="6"/>
         <v>12.8744</v>
       </c>
       <c r="S61">
-        <f>G61/3.28084</f>
+        <f t="shared" si="7"/>
         <v>609.90478048304703</v>
       </c>
       <c r="T61">
-        <f t="shared" ref="T61" si="7">S61/R61</f>
+        <f t="shared" ref="T61" si="15">S61/R61</f>
         <v>47.373452780948789</v>
       </c>
       <c r="U61">
-        <f>J61/F61</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="W61" s="5"/>
@@ -5010,23 +5013,23 @@
         <v>0</v>
       </c>
       <c r="Q62" s="4">
-        <f>H62/I62</f>
+        <f t="shared" si="5"/>
         <v>9.2592592592592587E-2</v>
       </c>
       <c r="R62">
-        <f>F62*1.6093</f>
+        <f t="shared" si="6"/>
         <v>8.0465</v>
       </c>
       <c r="S62">
-        <f>G62/3.28084</f>
+        <f t="shared" si="7"/>
         <v>305.10479023664669</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62" si="8">S62/R62</f>
+        <f t="shared" ref="T62" si="16">S62/R62</f>
         <v>37.917702135915825</v>
       </c>
       <c r="U62">
-        <f>J62/F62</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W62" s="5"/>
@@ -5078,23 +5081,23 @@
         <v>0</v>
       </c>
       <c r="Q63" s="4">
-        <f>H63/I63</f>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="R63">
-        <f>F63*1.6093</f>
+        <f t="shared" si="6"/>
         <v>14.161840000000002</v>
       </c>
       <c r="S63">
-        <f>G63/3.28084</f>
+        <f t="shared" si="7"/>
         <v>334.97518928079393</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:T65" si="9">S63/R63</f>
+        <f t="shared" ref="T63:T65" si="17">S63/R63</f>
         <v>23.653366319686842</v>
       </c>
       <c r="U63">
-        <f>J63/F63</f>
+        <f t="shared" si="8"/>
         <v>0.56818181818181812</v>
       </c>
     </row>
@@ -5145,23 +5148,23 @@
         <v>0</v>
       </c>
       <c r="Q64" s="4">
-        <f>H64/I64</f>
+        <f t="shared" si="5"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="R64">
-        <f>F64*1.6093</f>
+        <f t="shared" si="6"/>
         <v>2.4139499999999998</v>
       </c>
       <c r="S64">
-        <f>G64/3.28084</f>
+        <f t="shared" si="7"/>
         <v>274.01519123151388</v>
       </c>
       <c r="T64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>113.51320086642801</v>
       </c>
       <c r="U64">
-        <f>J64/F64</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -5212,23 +5215,23 @@
         <v>0</v>
       </c>
       <c r="Q65" s="4">
-        <f>H65/I65</f>
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="R65">
-        <f>F65*1.6093</f>
+        <f t="shared" si="6"/>
         <v>6.4371999999999998</v>
       </c>
       <c r="S65">
-        <f>G65/3.28084</f>
+        <f t="shared" si="7"/>
         <v>474.87838480389166</v>
       </c>
       <c r="T65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>73.770953955740339</v>
       </c>
       <c r="U65">
-        <f>J65/F65</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -5279,23 +5282,23 @@
         <v>0</v>
       </c>
       <c r="Q66" s="4">
-        <f>H66/I66</f>
+        <f t="shared" ref="Q66:Q83" si="18">H66/I66</f>
         <v>4.060913705583756E-2</v>
       </c>
       <c r="R66">
-        <f>F66*1.6093</f>
+        <f t="shared" ref="R66:R83" si="19">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
       <c r="S66">
-        <f>G66/3.28084</f>
+        <f t="shared" ref="S66:S83" si="20">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66" si="10">S66/R66</f>
+        <f t="shared" ref="T66" si="21">S66/R66</f>
         <v>25.049559917059536</v>
       </c>
       <c r="U66">
-        <f>J66/F66</f>
+        <f t="shared" ref="U66:U81" si="22">J66/F66</f>
         <v>0.80645161290322576</v>
       </c>
     </row>
@@ -5346,23 +5349,23 @@
         <v>0</v>
       </c>
       <c r="Q67" s="4">
-        <f>H67/I67</f>
+        <f t="shared" si="18"/>
         <v>0.11971830985915492</v>
       </c>
       <c r="R67">
-        <f>F67*1.6093</f>
+        <f t="shared" si="19"/>
         <v>9.9776600000000002</v>
       </c>
       <c r="S67">
-        <f>G67/3.28084</f>
+        <f t="shared" si="20"/>
         <v>350.51998878336036</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67" si="11">S67/R67</f>
+        <f t="shared" ref="T67" si="23">S67/R67</f>
         <v>35.130480371485937</v>
       </c>
       <c r="U67">
-        <f>J67/F67</f>
+        <f t="shared" si="22"/>
         <v>0.96774193548387089</v>
       </c>
     </row>
@@ -5413,23 +5416,23 @@
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f>H68/I68</f>
+        <f t="shared" si="18"/>
         <v>0.19798657718120805</v>
       </c>
       <c r="R68">
-        <f>F68*1.6093</f>
+        <f t="shared" si="19"/>
         <v>8.0465</v>
       </c>
       <c r="S68">
-        <f>G68/3.28084</f>
+        <f t="shared" si="20"/>
         <v>549.85918240450621</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T74" si="12">S68/R68</f>
+        <f t="shared" ref="T68:T74" si="24">S68/R68</f>
         <v>68.335199453738426</v>
       </c>
       <c r="U68">
-        <f>J68/F68</f>
+        <f t="shared" si="22"/>
         <v>2.4</v>
       </c>
     </row>
@@ -5480,23 +5483,23 @@
         <v>0</v>
       </c>
       <c r="Q69" s="4">
-        <f>H69/I69</f>
+        <f t="shared" si="18"/>
         <v>0.10891089108910891</v>
       </c>
       <c r="R69">
-        <f>F69*1.6093</f>
+        <f t="shared" si="19"/>
         <v>27.036239999999999</v>
       </c>
       <c r="S69">
-        <f>G69/3.28084</f>
+        <f t="shared" si="20"/>
         <v>1473.0983528608526</v>
       </c>
       <c r="T69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>54.48606584572606</v>
       </c>
       <c r="U69">
-        <f>J69/F69</f>
+        <f t="shared" si="22"/>
         <v>0.59523809523809523</v>
       </c>
     </row>
@@ -5547,23 +5550,23 @@
         <v>0</v>
       </c>
       <c r="Q70" s="4">
-        <f>H70/I70</f>
+        <f t="shared" si="18"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="R70">
-        <f>F70*1.6093</f>
+        <f t="shared" si="19"/>
         <v>8.5292899999999996</v>
       </c>
       <c r="S70">
-        <f>G70/3.28084</f>
+        <f t="shared" si="20"/>
         <v>288.03599078284827</v>
       </c>
       <c r="T70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>33.77021894939066</v>
       </c>
       <c r="U70">
-        <f>J70/F70</f>
+        <f t="shared" si="22"/>
         <v>1.8867924528301887</v>
       </c>
     </row>
@@ -5615,23 +5618,23 @@
         <v>0</v>
       </c>
       <c r="Q71" s="11">
-        <f>H71/I71</f>
+        <f t="shared" si="18"/>
         <v>0.16107382550335569</v>
       </c>
       <c r="R71" s="9">
-        <f>F71*1.6093</f>
+        <f t="shared" si="19"/>
         <v>7.8855700000000004</v>
       </c>
       <c r="S71" s="9">
-        <f>G71/3.28084</f>
+        <f t="shared" si="20"/>
         <v>213.35999317248022</v>
       </c>
       <c r="T71" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>27.057015938287304</v>
       </c>
       <c r="U71" s="9">
-        <f>J71/F71</f>
+        <f t="shared" si="22"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
@@ -5682,23 +5685,23 @@
         <v>0</v>
       </c>
       <c r="Q72" s="4">
-        <f>H72/I72</f>
+        <f t="shared" si="18"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="R72">
-        <f>F72*1.6093</f>
+        <f t="shared" si="19"/>
         <v>8.0465</v>
       </c>
       <c r="S72">
-        <f>G72/3.28084</f>
+        <f t="shared" si="20"/>
         <v>181.0511942063618</v>
       </c>
       <c r="T72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>22.500614454279724</v>
       </c>
       <c r="U72">
-        <f>J72/F72</f>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
     </row>
@@ -5749,23 +5752,23 @@
         <v>0</v>
       </c>
       <c r="Q73" s="4">
-        <f>H73/I73</f>
+        <f t="shared" si="18"/>
         <v>0.1024390243902439</v>
       </c>
       <c r="R73">
-        <f>F73*1.6093</f>
+        <f t="shared" si="19"/>
         <v>10.943239999999999</v>
       </c>
       <c r="S73">
-        <f>G73/3.28084</f>
+        <f t="shared" si="20"/>
         <v>365.75998829568039</v>
       </c>
       <c r="T73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>33.423372629649023</v>
       </c>
       <c r="U73">
-        <f>J73/F73</f>
+        <f t="shared" si="22"/>
         <v>0.73529411764705888</v>
       </c>
     </row>
@@ -5816,23 +5819,23 @@
         <v>0</v>
       </c>
       <c r="Q74" s="4">
-        <f>H74/I74</f>
+        <f t="shared" si="18"/>
         <v>9.375E-2</v>
       </c>
       <c r="R74">
-        <f>F74*1.6093</f>
+        <f t="shared" si="19"/>
         <v>12.8744</v>
       </c>
       <c r="S74">
-        <f>G74/3.28084</f>
+        <f t="shared" si="20"/>
         <v>424.89118640348204</v>
       </c>
       <c r="T74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>33.002795190725941</v>
       </c>
       <c r="U74">
-        <f>J74/F74</f>
+        <f t="shared" si="22"/>
         <v>0.98124999999999996</v>
       </c>
     </row>
@@ -5883,23 +5886,23 @@
         <v>0</v>
       </c>
       <c r="Q75" s="4">
-        <f>H75/I75</f>
+        <f t="shared" si="18"/>
         <v>0.13793103448275862</v>
       </c>
       <c r="R75">
-        <f>F75*1.6093</f>
+        <f t="shared" si="19"/>
         <v>31.05949</v>
       </c>
       <c r="S75">
-        <f>G75/3.28084</f>
+        <f t="shared" si="20"/>
         <v>1110.08156447739</v>
       </c>
       <c r="T75">
-        <f t="shared" ref="T75:T77" si="13">S75/R75</f>
+        <f t="shared" ref="T75:T77" si="25">S75/R75</f>
         <v>35.74049556117599</v>
       </c>
       <c r="U75">
-        <f>J75/F75</f>
+        <f t="shared" si="22"/>
         <v>0.77720207253886009</v>
       </c>
     </row>
@@ -5950,23 +5953,23 @@
         <v>0</v>
       </c>
       <c r="Q76" s="4">
-        <f>H76/I76</f>
+        <f t="shared" si="18"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="R76">
-        <f>F76*1.6093</f>
+        <f t="shared" si="19"/>
         <v>7.8855700000000004</v>
       </c>
       <c r="S76">
-        <f>G76/3.28084</f>
+        <f t="shared" si="20"/>
         <v>271.27199131929626</v>
       </c>
       <c r="T76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>34.401063121536708</v>
       </c>
       <c r="U76">
-        <f>J76/F76</f>
+        <f t="shared" si="22"/>
         <v>2.0408163265306123</v>
       </c>
     </row>
@@ -6017,23 +6020,23 @@
         <v>0</v>
       </c>
       <c r="Q77" s="4">
-        <f>H77/I77</f>
+        <f t="shared" si="18"/>
         <v>0.10784313725490197</v>
       </c>
       <c r="R77">
-        <f>F77*1.6093</f>
+        <f t="shared" si="19"/>
         <v>8.0465</v>
       </c>
       <c r="S77">
-        <f>G77/3.28084</f>
+        <f t="shared" si="20"/>
         <v>380.99998780800041</v>
       </c>
       <c r="T77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>47.349777892002784</v>
       </c>
       <c r="U77">
-        <f>J77/F77</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -6084,23 +6087,23 @@
         <v>0</v>
       </c>
       <c r="Q78" s="4">
-        <f>H78/I78</f>
+        <f t="shared" si="18"/>
         <v>0.1864406779661017</v>
       </c>
       <c r="R78">
-        <f>F78*1.6093</f>
+        <f t="shared" si="19"/>
         <v>14.96649</v>
       </c>
       <c r="S78">
-        <f>G78/3.28084</f>
+        <f t="shared" si="20"/>
         <v>459.94318528181805</v>
       </c>
       <c r="T78">
-        <f t="shared" ref="T78:T81" si="14">S78/R78</f>
+        <f t="shared" ref="T78:T81" si="26">S78/R78</f>
         <v>30.73153326409987</v>
       </c>
       <c r="U78">
-        <f>J78/F78</f>
+        <f t="shared" si="22"/>
         <v>1.6129032258064515</v>
       </c>
     </row>
@@ -6151,23 +6154,23 @@
         <v>0</v>
       </c>
       <c r="Q79" s="4">
-        <f>H79/I79</f>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="R79">
-        <f>F79*1.6093</f>
+        <f t="shared" si="19"/>
         <v>5.1497600000000006</v>
       </c>
       <c r="S79">
-        <f>G79/3.28084</f>
+        <f t="shared" si="20"/>
         <v>213.05519318223381</v>
       </c>
       <c r="T79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>41.371868433137422</v>
       </c>
       <c r="U79">
-        <f>J79/F79</f>
+        <f t="shared" si="22"/>
         <v>3.125</v>
       </c>
     </row>
@@ -6218,23 +6221,23 @@
         <v>0</v>
       </c>
       <c r="Q80" s="4">
-        <f>H80/I80</f>
+        <f t="shared" si="18"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="R80">
-        <f>F80*1.6093</f>
+        <f t="shared" si="19"/>
         <v>18.50695</v>
       </c>
       <c r="S80">
-        <f>G80/3.28084</f>
+        <f t="shared" si="20"/>
         <v>1100.0231647992587</v>
       </c>
       <c r="T80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>59.438382056430619</v>
       </c>
       <c r="U80">
-        <f>J80/F80</f>
+        <f t="shared" si="22"/>
         <v>1.2173913043478262</v>
       </c>
     </row>
@@ -6285,23 +6288,23 @@
         <v>0</v>
       </c>
       <c r="Q81" s="4">
-        <f>H81/I81</f>
+        <f t="shared" si="18"/>
         <v>6.2893081761006289E-2</v>
       </c>
       <c r="R81">
-        <f>F81*1.6093</f>
+        <f t="shared" si="19"/>
         <v>8.3683600000000009</v>
       </c>
       <c r="S81">
-        <f>G81/3.28084</f>
+        <f t="shared" si="20"/>
         <v>349.91038880286754</v>
       </c>
       <c r="T81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>41.813496169245525</v>
       </c>
       <c r="U81">
-        <f>J81/F81</f>
+        <f t="shared" si="22"/>
         <v>1.346153846153846</v>
       </c>
     </row>
@@ -6352,24 +6355,91 @@
         <v>0</v>
       </c>
       <c r="Q82" s="4">
-        <f>H82/I82</f>
+        <f t="shared" si="18"/>
         <v>0.14102564102564102</v>
       </c>
       <c r="R82">
-        <f>F82*1.6093</f>
+        <f t="shared" si="19"/>
         <v>5.6325500000000002</v>
       </c>
       <c r="S82">
-        <f>G82/3.28084</f>
+        <f t="shared" si="20"/>
         <v>366.0647882859268</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="15">S82/R82</f>
+        <f t="shared" ref="T82:T83" si="27">S82/R82</f>
         <v>64.990952283766106</v>
       </c>
       <c r="U82">
-        <f t="shared" ref="U82" si="16">J82/F82</f>
+        <f t="shared" ref="U82:U83" si="28">J82/F82</f>
         <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83">
+        <v>6.8</v>
+      </c>
+      <c r="G83">
+        <v>1590</v>
+      </c>
+      <c r="H83">
+        <v>23</v>
+      </c>
+      <c r="I83">
+        <v>167</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10</v>
+      </c>
+      <c r="K83" s="3">
+        <v>5</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>56</v>
+      </c>
+      <c r="N83">
+        <v>58</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <f t="shared" si="18"/>
+        <v>0.1377245508982036</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="19"/>
+        <v>10.943239999999999</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="20"/>
+        <v>484.63198449177651</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="27"/>
+        <v>44.285968734284957</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="28"/>
+        <v>1.4705882352941178</v>
       </c>
     </row>
   </sheetData>
@@ -6384,6 +6454,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6612,22 +6697,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6644,29 +6739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Pen y Ghent</t>
+  </si>
+  <si>
+    <t>Edenfield</t>
   </si>
 </sst>
 </file>
@@ -747,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U76" sqref="U76"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5282,15 +5285,15 @@
         <v>0</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" ref="Q66:Q83" si="18">H66/I66</f>
+        <f t="shared" ref="Q66:Q84" si="18">H66/I66</f>
         <v>4.060913705583756E-2</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R83" si="19">F66*1.6093</f>
+        <f t="shared" ref="R66:R84" si="19">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S83" si="20">G66/3.28084</f>
+        <f t="shared" ref="S66:S84" si="20">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
       <c r="T66">
@@ -6367,11 +6370,11 @@
         <v>366.0647882859268</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82:T83" si="27">S82/R82</f>
+        <f t="shared" ref="T82:T84" si="27">S82/R82</f>
         <v>64.990952283766106</v>
       </c>
       <c r="U82">
-        <f t="shared" ref="U82:U83" si="28">J82/F82</f>
+        <f t="shared" ref="U82:U84" si="28">J82/F82</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -6407,7 +6410,7 @@
         <v>10</v>
       </c>
       <c r="K83" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6440,6 +6443,73 @@
       <c r="U83">
         <f t="shared" si="28"/>
         <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>6.3</v>
+      </c>
+      <c r="G84">
+        <v>1299</v>
+      </c>
+      <c r="H84">
+        <v>19</v>
+      </c>
+      <c r="I84">
+        <v>195</v>
+      </c>
+      <c r="J84" s="3">
+        <v>6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>53</v>
+      </c>
+      <c r="N84">
+        <v>58</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="18"/>
+        <v>9.7435897435897437E-2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="19"/>
+        <v>10.138589999999999</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="20"/>
+        <v>395.93518733007403</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="27"/>
+        <v>39.052293004261351</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="28"/>
+        <v>0.95238095238095244</v>
       </c>
     </row>
   </sheetData>
@@ -6454,12 +6524,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6468,7 +6532,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6697,24 +6761,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6722,7 +6775,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6739,4 +6792,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Edenfield</t>
+  </si>
+  <si>
+    <t>Settle Hills</t>
   </si>
 </sst>
 </file>
@@ -750,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5289,11 +5292,11 @@
         <v>4.060913705583756E-2</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R84" si="19">F66*1.6093</f>
+        <f t="shared" ref="R66:R85" si="19">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S84" si="20">G66/3.28084</f>
+        <f t="shared" ref="S66:S85" si="20">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
       <c r="T66">
@@ -6370,11 +6373,11 @@
         <v>366.0647882859268</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82:T84" si="27">S82/R82</f>
+        <f t="shared" ref="T82:T85" si="27">S82/R82</f>
         <v>64.990952283766106</v>
       </c>
       <c r="U82">
-        <f t="shared" ref="U82:U84" si="28">J82/F82</f>
+        <f t="shared" ref="U82:U85" si="28">J82/F82</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -6510,6 +6513,73 @@
       <c r="U84">
         <f t="shared" si="28"/>
         <v>0.95238095238095244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>1969</v>
+      </c>
+      <c r="H85">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>93</v>
+      </c>
+      <c r="J85" s="3">
+        <v>8</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="N85">
+        <v>28</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <f t="shared" ref="Q85" si="29">H85/I85</f>
+        <v>0.13978494623655913</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="19"/>
+        <v>11.2651</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="20"/>
+        <v>600.15118079516219</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="27"/>
+        <v>53.275264382487698</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="28"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -6533,6 +6603,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6761,12 +6837,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
@@ -6776,6 +6846,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6792,21 +6879,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Settle Hills</t>
+  </si>
+  <si>
+    <t>Baildon Canter</t>
   </si>
 </sst>
 </file>
@@ -753,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5292,11 +5295,11 @@
         <v>4.060913705583756E-2</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R85" si="19">F66*1.6093</f>
+        <f t="shared" ref="R66:R87" si="19">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S85" si="20">G66/3.28084</f>
+        <f t="shared" ref="S66:S87" si="20">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
       <c r="T66">
@@ -6373,11 +6376,11 @@
         <v>366.0647882859268</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82:T85" si="27">S82/R82</f>
+        <f t="shared" ref="T82:T87" si="27">S82/R82</f>
         <v>64.990952283766106</v>
       </c>
       <c r="U82">
-        <f t="shared" ref="U82:U85" si="28">J82/F82</f>
+        <f t="shared" ref="U82:U87" si="28">J82/F82</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -6562,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" ref="Q85" si="29">H85/I85</f>
+        <f t="shared" ref="Q85:Q87" si="29">H85/I85</f>
         <v>0.13978494623655913</v>
       </c>
       <c r="R85">
@@ -6580,6 +6583,140 @@
       <c r="U85">
         <f t="shared" si="28"/>
         <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86">
+        <v>5.5</v>
+      </c>
+      <c r="G86">
+        <v>1100</v>
+      </c>
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <v>114</v>
+      </c>
+      <c r="J86" s="3">
+        <v>5</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>39</v>
+      </c>
+      <c r="N86">
+        <v>32</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
+        <f t="shared" si="29"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="19"/>
+        <v>8.8511500000000005</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="20"/>
+        <v>335.27998927104034</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="27"/>
+        <v>37.879822313602226</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="28"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87">
+        <v>3.1</v>
+      </c>
+      <c r="G87">
+        <v>499</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>91</v>
+      </c>
+      <c r="J87" s="3">
+        <v>4</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>19</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <f t="shared" si="29"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="19"/>
+        <v>4.9888300000000001</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="20"/>
+        <v>152.09519513295376</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="27"/>
+        <v>30.487147313689533</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="28"/>
+        <v>1.2903225806451613</v>
       </c>
     </row>
   </sheetData>
@@ -6594,18 +6731,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6838,14 +6975,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6858,6 +6987,14 @@
     <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fell_races.xlsx
+++ b/fell_races.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>Baildon Canter</t>
+  </si>
+  <si>
+    <t>Ingleborough</t>
+  </si>
+  <si>
+    <t>Kings Challenge</t>
+  </si>
+  <si>
+    <t>Trunce</t>
   </si>
 </sst>
 </file>
@@ -756,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5295,11 +5304,11 @@
         <v>4.060913705583756E-2</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R87" si="19">F66*1.6093</f>
+        <f t="shared" ref="R66:R92" si="19">F66*1.6093</f>
         <v>9.9776600000000002</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S87" si="20">G66/3.28084</f>
+        <f t="shared" ref="S66:S92" si="20">G66/3.28084</f>
         <v>249.93599200204827</v>
       </c>
       <c r="T66">
@@ -6376,11 +6385,11 @@
         <v>366.0647882859268</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82:T87" si="27">S82/R82</f>
+        <f t="shared" ref="T82:T93" si="27">S82/R82</f>
         <v>64.990952283766106</v>
       </c>
       <c r="U82">
-        <f t="shared" ref="U82:U87" si="28">J82/F82</f>
+        <f t="shared" ref="U82:U93" si="28">J82/F82</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -6565,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" ref="Q85:Q87" si="29">H85/I85</f>
+        <f t="shared" ref="Q85:Q93" si="29">H85/I85</f>
         <v>0.13978494623655913</v>
       </c>
       <c r="R85">
@@ -6717,6 +6726,408 @@
       <c r="U87">
         <f t="shared" si="28"/>
         <v>1.2903225806451613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88">
+        <v>6.8</v>
+      </c>
+      <c r="G88">
+        <v>1969</v>
+      </c>
+      <c r="H88">
+        <v>25</v>
+      </c>
+      <c r="I88">
+        <v>164</v>
+      </c>
+      <c r="J88" s="3">
+        <v>10</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4">
+        <f t="shared" si="29"/>
+        <v>0.1524390243902439</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="19"/>
+        <v>10.943239999999999</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="20"/>
+        <v>600.15118079516219</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="27"/>
+        <v>54.842183923149108</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="28"/>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G89">
+        <v>1099</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>88</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <f t="shared" si="29"/>
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="19"/>
+        <v>14.161840000000002</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="20"/>
+        <v>334.97518928079393</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="27"/>
+        <v>23.653366319686842</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="28"/>
+        <v>0.56818181818181812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>1001</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>64</v>
+      </c>
+      <c r="J90" s="3">
+        <v>5</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>34</v>
+      </c>
+      <c r="N90">
+        <v>49</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
+        <f t="shared" si="29"/>
+        <v>0.125</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="19"/>
+        <v>8.0465</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="20"/>
+        <v>305.10479023664669</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="27"/>
+        <v>37.917702135915825</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>1181</v>
+      </c>
+      <c r="H91">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>77</v>
+      </c>
+      <c r="J91" s="3">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>49</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <f t="shared" si="29"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="19"/>
+        <v>9.6557999999999993</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="20"/>
+        <v>359.9687884809988</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="27"/>
+        <v>37.280058460303529</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="28"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>558</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>166</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>28</v>
+      </c>
+      <c r="N92">
+        <v>37</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
+        <f t="shared" si="29"/>
+        <v>2.4096385542168676E-2</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="19"/>
+        <v>6.4371999999999998</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="20"/>
+        <v>170.07839455749138</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="27"/>
+        <v>26.421176063737555</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="28"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>6.2</v>
+      </c>
+      <c r="G93">
+        <v>820</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <v>183</v>
+      </c>
+      <c r="J93" s="3">
+        <v>5</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>48</v>
+      </c>
+      <c r="N93">
+        <v>9</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
+        <f t="shared" si="29"/>
+        <v>7.650273224043716E-2</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ref="R93" si="30">F93*1.6093</f>
+        <v>9.9776600000000002</v>
+      </c>
+      <c r="S93">
+        <f t="shared" ref="S93" si="31">G93/3.28084</f>
+        <v>249.93599200204827</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="27"/>
+        <v>25.049559917059536</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="28"/>
+        <v>0.80645161290322576</v>
       </c>
     </row>
   </sheetData>
@@ -6731,21 +7142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E82CFA0F611DDF43BC8A6254EE0EADA4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="859b7754d593580e39e0864092eb6858">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43f76372-9d7b-4abd-8e2d-0304366457b1" xmlns:ns4="8d7625fc-be4a-4a9f-8955-157dc7d83dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f43d8f834f9b7cfbe087f4a0f29e823" ns3:_="" ns4:_="">
     <xsd:import namespace="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
@@ -6974,7 +7370,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
+    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A6EE95-FD06-4E3D-A9D7-7ED231281BB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6991,29 +7421,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91080D3F-62EC-4814-9DF3-EBF80DD28CF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBAEA7A2-A975-4B1C-BE00-C4C9B1C75DE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43f76372-9d7b-4abd-8e2d-0304366457b1"/>
-    <ds:schemaRef ds:uri="8d7625fc-be4a-4a9f-8955-157dc7d83dc2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>